--- a/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6046A177-754B-AB43-B531-654363907069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97185164-672A-4247-9BE1-D8F7E63910D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="606">
   <si>
     <t>DOI</t>
   </si>
@@ -1541,6 +1541,303 @@
   </si>
   <si>
     <t>Fluorescence intensity</t>
+  </si>
+  <si>
+    <t>CD44+ CD26L+ in CD8+ T cells (%)</t>
+  </si>
+  <si>
+    <t>CD44+ CD26L- in CD8+ T cells (%)</t>
+  </si>
+  <si>
+    <t>CD45+ CD11b+ Gr-1+ cells (%)</t>
+  </si>
+  <si>
+    <t>M1 macrophages (%)</t>
+  </si>
+  <si>
+    <t>M2 macrophages (%)</t>
+  </si>
+  <si>
+    <t>Matured DCs (%)</t>
+  </si>
+  <si>
+    <t>Encapsulation efficiency (%)</t>
+  </si>
+  <si>
+    <t>Adhesion amount (µg)</t>
+  </si>
+  <si>
+    <t>log CFU per lung</t>
+  </si>
+  <si>
+    <t>log CFU per organ</t>
+  </si>
+  <si>
+    <t>Peak height (% change)</t>
+  </si>
+  <si>
+    <t>Width at half maximum (WHM) (s)</t>
+  </si>
+  <si>
+    <t>Frequency (F) (min-1)</t>
+  </si>
+  <si>
+    <t>Survival %</t>
+  </si>
+  <si>
+    <t>Tb.sp (mm)</t>
+  </si>
+  <si>
+    <t>Tb.Th (mm)</t>
+  </si>
+  <si>
+    <t>Tb.N (1/mm)</t>
+  </si>
+  <si>
+    <t>E_surf (J/m2)</t>
+  </si>
+  <si>
+    <t>LPC (pmol/µL)</t>
+  </si>
+  <si>
+    <t>r2 value (mM-1 s-1)</t>
+  </si>
+  <si>
+    <t>IFN-gamma concentration in plasma (pg/mL)</t>
+  </si>
+  <si>
+    <t>Ratio (colocalized miR-21 positive Evs)</t>
+  </si>
+  <si>
+    <t>GSH (mM)</t>
+  </si>
+  <si>
+    <t>beta-sheet (%)</t>
+  </si>
+  <si>
+    <t>CD8+ T cell in spleen</t>
+  </si>
+  <si>
+    <t>Tumor weight (g)</t>
+  </si>
+  <si>
+    <t>CD8+ T cell in distant tumor</t>
+  </si>
+  <si>
+    <t>Inhibition rate (%)</t>
+  </si>
+  <si>
+    <t>Delta T (°C)</t>
+  </si>
+  <si>
+    <t>FEV_0.1/FVC ratio</t>
+  </si>
+  <si>
+    <t>Forced vital capacity (mL)</t>
+  </si>
+  <si>
+    <t>Forced expiratory volume 0.1s (mL)</t>
+  </si>
+  <si>
+    <t>Forced expiratory volume 0.05s (mL)</t>
+  </si>
+  <si>
+    <t>Quasi-static compliance</t>
+  </si>
+  <si>
+    <t>Inspiratory capacity</t>
+  </si>
+  <si>
+    <t>TNFalpha (pg/mL)</t>
+  </si>
+  <si>
+    <t>NO flux (1e10 mol cm-2 min-1)</t>
+  </si>
+  <si>
+    <t>Distance (µm)</t>
+  </si>
+  <si>
+    <t>Lung index (mg/g)</t>
+  </si>
+  <si>
+    <t>ATP release (% of control)</t>
+  </si>
+  <si>
+    <t>HMGB1 release (% of control)</t>
+  </si>
+  <si>
+    <t>MMP-9 concentration (pg/mL)</t>
+  </si>
+  <si>
+    <t>IL-6 concentration (pg/mL)</t>
+  </si>
+  <si>
+    <t>IL-12 concentration (pg/mL)</t>
+  </si>
+  <si>
+    <t>F4/80+/CD86+</t>
+  </si>
+  <si>
+    <t>Simpson diversity index</t>
+  </si>
+  <si>
+    <t>Si content (µg/cm2)</t>
+  </si>
+  <si>
+    <t>CE (nmol per 1e6 cells)</t>
+  </si>
+  <si>
+    <t>T_EM (%)</t>
+  </si>
+  <si>
+    <t>CD11c+ CD80+ CD86+ (%)</t>
+  </si>
+  <si>
+    <t>IL12p70 (pg/mL)</t>
+  </si>
+  <si>
+    <t>Divided CD8+ T (%)</t>
+  </si>
+  <si>
+    <t>Relative expression lavel</t>
+  </si>
+  <si>
+    <t>Relative abundance (%)</t>
+  </si>
+  <si>
+    <t>Unit length (nm)</t>
+  </si>
+  <si>
+    <t>Caspase 3/7 activity (fold increase of control)</t>
+  </si>
+  <si>
+    <t>DHE intensity (fold increase of control)</t>
+  </si>
+  <si>
+    <t>Hemolysis ratio</t>
+  </si>
+  <si>
+    <t>Cell migration ratio (%)</t>
+  </si>
+  <si>
+    <t>Relative bacterial area (% control)</t>
+  </si>
+  <si>
+    <t>Percentage of band (%)</t>
+  </si>
+  <si>
+    <t>HRCA (min)</t>
+  </si>
+  <si>
+    <t>TIP (min)</t>
+  </si>
+  <si>
+    <t>Permeance (LMHB)</t>
+  </si>
+  <si>
+    <t>CD29+ &amp; CD 90+ cells /Ar</t>
+  </si>
+  <si>
+    <t>Relative values</t>
+  </si>
+  <si>
+    <t>Sera anti-RBD-IgG titer</t>
+  </si>
+  <si>
+    <t>Sera anti-OVA-IgG titer</t>
+  </si>
+  <si>
+    <t>Sera anti-OVA-IgM titer</t>
+  </si>
+  <si>
+    <t>TNF-alpha (pg/mL)</t>
+  </si>
+  <si>
+    <t>CD80+ in CD11+ cells, %</t>
+  </si>
+  <si>
+    <t>MHCII+ in CD11+ cells , %</t>
+  </si>
+  <si>
+    <t>CD86+ in CD11+ cells, %</t>
+  </si>
+  <si>
+    <t>MDA in lung tissues (nmol/mgprot)</t>
+  </si>
+  <si>
+    <t>SOD in lung tissues (U/mgprot)</t>
+  </si>
+  <si>
+    <t>Enhancement ratio</t>
+  </si>
+  <si>
+    <t>Similarity score</t>
+  </si>
+  <si>
+    <t>Diameter (nm)</t>
+  </si>
+  <si>
+    <t>Killing ratio (%)</t>
+  </si>
+  <si>
+    <t>Number of puncta per cell</t>
+  </si>
+  <si>
+    <t>Inhibition (%)</t>
+  </si>
+  <si>
+    <t>L*a*b* values/-</t>
+  </si>
+  <si>
+    <t>Red intensity (%)</t>
+  </si>
+  <si>
+    <t>Red intensity (a.u.)</t>
+  </si>
+  <si>
+    <t>WVT rate (kg m-2 d-1)</t>
+  </si>
+  <si>
+    <t>Random forest prediction accuracy (%)</t>
+  </si>
+  <si>
+    <t>Relative activity (%)</t>
+  </si>
+  <si>
+    <t>Accuracy (%)</t>
+  </si>
+  <si>
+    <t>Wavelength (nm)</t>
+  </si>
+  <si>
+    <t>Chondrocytes + INFAs 24h cell viability (OD)</t>
+  </si>
+  <si>
+    <t>H DAB Positive Concentration</t>
+  </si>
+  <si>
+    <t>Spinal ankylosis angle (°)</t>
+  </si>
+  <si>
+    <t>CD86 (MFI)</t>
+  </si>
+  <si>
+    <t>CD40 (MFI)</t>
+  </si>
+  <si>
+    <t>MHC II (MFI)</t>
+  </si>
+  <si>
+    <t>Ki67 positive cells (%)</t>
+  </si>
+  <si>
+    <t>Tensile modulus (kPa)</t>
+  </si>
+  <si>
+    <t>JSW (relative to sham)</t>
+  </si>
+  <si>
+    <t>Propulsion time (relative to sham)</t>
   </si>
 </sst>
 </file>
@@ -1925,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F566"/>
+  <dimension ref="A1:G566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="F403" sqref="F403"/>
+    <sheetView tabSelected="1" topLeftCell="A542" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="F562" sqref="F562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9990,6 +10287,9 @@
       <c r="E403" t="s">
         <v>7</v>
       </c>
+      <c r="F403" s="3" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
@@ -10007,6 +10307,9 @@
       <c r="E404" t="s">
         <v>7</v>
       </c>
+      <c r="F404" s="3" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
@@ -10024,6 +10327,9 @@
       <c r="E405" t="s">
         <v>7</v>
       </c>
+      <c r="F405" s="3" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
@@ -10041,6 +10347,9 @@
       <c r="E406" t="s">
         <v>7</v>
       </c>
+      <c r="F406" s="3" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
@@ -10058,6 +10367,9 @@
       <c r="E407" t="s">
         <v>7</v>
       </c>
+      <c r="F407" s="3" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
@@ -10075,6 +10387,9 @@
       <c r="E408" t="s">
         <v>7</v>
       </c>
+      <c r="F408" s="3" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
@@ -10092,6 +10407,9 @@
       <c r="E409" t="s">
         <v>7</v>
       </c>
+      <c r="F409" s="3" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
@@ -10109,6 +10427,9 @@
       <c r="E410" t="s">
         <v>7</v>
       </c>
+      <c r="F410" s="3" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
@@ -10126,6 +10447,9 @@
       <c r="E411" t="s">
         <v>7</v>
       </c>
+      <c r="F411" s="3" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
@@ -10143,6 +10467,9 @@
       <c r="E412" t="s">
         <v>7</v>
       </c>
+      <c r="F412" s="3" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
@@ -10160,6 +10487,9 @@
       <c r="E413" t="s">
         <v>7</v>
       </c>
+      <c r="F413" s="3" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
@@ -10177,6 +10507,9 @@
       <c r="E414" t="s">
         <v>7</v>
       </c>
+      <c r="F414" s="3" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
@@ -10194,6 +10527,9 @@
       <c r="E415" t="s">
         <v>7</v>
       </c>
+      <c r="F415" s="3" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
@@ -10211,8 +10547,11 @@
       <c r="E416" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F416" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -10228,8 +10567,11 @@
       <c r="E417" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F417" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10245,8 +10587,11 @@
       <c r="E418" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F418" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10262,8 +10607,11 @@
       <c r="E419" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F419" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10279,8 +10627,11 @@
       <c r="E420" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F420" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10296,8 +10647,11 @@
       <c r="E421" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F421" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10313,8 +10667,11 @@
       <c r="E422" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F422" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10330,8 +10687,11 @@
       <c r="E423" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F423" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10347,8 +10707,11 @@
       <c r="E424" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F424" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10364,8 +10727,11 @@
       <c r="E425" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F425" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -10381,8 +10747,11 @@
       <c r="E426" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F426" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -10398,8 +10767,11 @@
       <c r="E427" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F427" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -10415,8 +10787,11 @@
       <c r="E428" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F428" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10432,8 +10807,11 @@
       <c r="E429" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F429" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10449,8 +10827,11 @@
       <c r="E430" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F430" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10466,8 +10847,11 @@
       <c r="E431" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F431" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10483,8 +10867,11 @@
       <c r="E432" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F432" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10500,8 +10887,11 @@
       <c r="E433" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F433" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10517,8 +10907,11 @@
       <c r="E434" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F434" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10534,8 +10927,11 @@
       <c r="E435" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F435" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10551,8 +10947,11 @@
       <c r="E436" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F436" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10568,8 +10967,11 @@
       <c r="E437" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F437" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -10585,8 +10987,11 @@
       <c r="E438" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F438" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -10602,8 +11007,11 @@
       <c r="E439" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F439" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -10619,8 +11027,11 @@
       <c r="E440" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F440" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -10636,8 +11047,11 @@
       <c r="E441" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F441" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -10653,8 +11067,11 @@
       <c r="E442" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F442" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -10670,8 +11087,11 @@
       <c r="E443" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F443" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -10687,8 +11107,11 @@
       <c r="E444" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F444" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -10704,8 +11127,11 @@
       <c r="E445" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F445" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10721,8 +11147,11 @@
       <c r="E446" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F446" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10738,8 +11167,11 @@
       <c r="E447" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F447" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -10755,8 +11187,11 @@
       <c r="E448" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F448" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -10772,8 +11207,11 @@
       <c r="E449" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F449" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -10789,8 +11227,11 @@
       <c r="E450" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F450" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -10806,8 +11247,11 @@
       <c r="E451" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F451" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -10823,8 +11267,11 @@
       <c r="E452" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F452" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -10840,8 +11287,11 @@
       <c r="E453" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F453" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -10857,8 +11307,11 @@
       <c r="E454" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F454" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -10874,8 +11327,11 @@
       <c r="E455" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F455" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -10891,8 +11347,11 @@
       <c r="E456" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F456" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -10908,8 +11367,11 @@
       <c r="E457" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F457" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -10925,8 +11387,11 @@
       <c r="E458" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F458" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -10942,8 +11407,11 @@
       <c r="E459" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F459" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -10959,8 +11427,11 @@
       <c r="E460" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F460" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -10976,8 +11447,11 @@
       <c r="E461" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F461" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -10993,8 +11467,11 @@
       <c r="E462" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F462" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11010,8 +11487,11 @@
       <c r="E463" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F463" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11027,8 +11507,11 @@
       <c r="E464" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F464" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11044,8 +11527,11 @@
       <c r="E465" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F465" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11061,8 +11547,11 @@
       <c r="E466" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F466" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11078,8 +11567,11 @@
       <c r="E467" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F467" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11095,8 +11587,11 @@
       <c r="E468" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F468" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11112,8 +11607,11 @@
       <c r="E469" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F469" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11129,8 +11627,11 @@
       <c r="E470" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F470" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11146,8 +11647,11 @@
       <c r="E471" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F471" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11163,8 +11667,11 @@
       <c r="E472" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F472" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11180,8 +11687,11 @@
       <c r="E473" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F473" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11197,8 +11707,11 @@
       <c r="E474" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F474" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11214,8 +11727,11 @@
       <c r="E475" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F475" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11231,8 +11747,11 @@
       <c r="E476" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F476" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11248,8 +11767,11 @@
       <c r="E477" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F477" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11265,8 +11787,11 @@
       <c r="E478" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F478" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11282,8 +11807,11 @@
       <c r="E479" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F479" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11299,8 +11827,11 @@
       <c r="E480" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F480" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11316,8 +11847,11 @@
       <c r="E481" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F481" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11333,8 +11867,11 @@
       <c r="E482" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F482" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11350,8 +11887,11 @@
       <c r="E483" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F483" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11367,8 +11907,11 @@
       <c r="E484" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F484" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11384,8 +11927,11 @@
       <c r="E485" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F485" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11401,8 +11947,11 @@
       <c r="E486" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F486" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11418,8 +11967,11 @@
       <c r="E487" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F487" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11435,8 +11987,11 @@
       <c r="E488" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F488" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11452,8 +12007,11 @@
       <c r="E489" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F489" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11469,8 +12027,11 @@
       <c r="E490" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F490" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11486,8 +12047,11 @@
       <c r="E491" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F491" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11503,8 +12067,11 @@
       <c r="E492" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F492" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11520,8 +12087,11 @@
       <c r="E493" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F493" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -11537,8 +12107,11 @@
       <c r="E494" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F494" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -11554,8 +12127,11 @@
       <c r="E495" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F495" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -11571,8 +12147,11 @@
       <c r="E496" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F496" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11588,8 +12167,11 @@
       <c r="E497" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F497" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -11605,8 +12187,11 @@
       <c r="E498" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F498" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -11622,8 +12207,11 @@
       <c r="E499" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F499" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -11639,8 +12227,11 @@
       <c r="E500" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F500" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -11656,8 +12247,11 @@
       <c r="E501" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F501" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -11673,8 +12267,11 @@
       <c r="E502" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F502" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -11690,8 +12287,11 @@
       <c r="E503" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F503" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -11707,8 +12307,11 @@
       <c r="E504" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F504" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -11724,8 +12327,11 @@
       <c r="E505" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F505" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -11741,8 +12347,11 @@
       <c r="E506" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F506" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -11758,8 +12367,11 @@
       <c r="E507" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F507" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -11775,8 +12387,11 @@
       <c r="E508" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F508" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -11792,8 +12407,11 @@
       <c r="E509" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F509" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -11809,8 +12427,11 @@
       <c r="E510" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F510" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -11826,8 +12447,11 @@
       <c r="E511" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F511" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -11843,8 +12467,11 @@
       <c r="E512" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F512" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -11860,8 +12487,11 @@
       <c r="E513" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F513" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -11877,8 +12507,11 @@
       <c r="E514" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F514" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -11894,8 +12527,11 @@
       <c r="E515" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F515" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -11911,8 +12547,11 @@
       <c r="E516" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F516" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -11928,8 +12567,11 @@
       <c r="E517" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F517" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -11945,8 +12587,11 @@
       <c r="E518" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F518" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -11962,8 +12607,11 @@
       <c r="E519" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F519" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -11979,8 +12627,11 @@
       <c r="E520" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F520" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -11996,8 +12647,11 @@
       <c r="E521" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F521" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -12013,8 +12667,11 @@
       <c r="E522" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F522" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -12030,8 +12687,11 @@
       <c r="E523" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F523" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -12047,8 +12707,11 @@
       <c r="E524" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F524" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -12064,8 +12727,11 @@
       <c r="E525" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F525" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -12081,8 +12747,11 @@
       <c r="E526" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F526" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -12098,8 +12767,11 @@
       <c r="E527" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F527" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -12115,8 +12787,11 @@
       <c r="E528" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F528" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -12132,8 +12807,11 @@
       <c r="E529" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F529" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -12149,8 +12827,11 @@
       <c r="E530" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F530" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -12166,8 +12847,11 @@
       <c r="E531" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F531" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -12183,8 +12867,11 @@
       <c r="E532" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F532" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -12200,8 +12887,11 @@
       <c r="E533" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F533" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -12217,8 +12907,11 @@
       <c r="E534" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F534" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -12234,8 +12927,11 @@
       <c r="E535" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F535" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -12251,8 +12947,11 @@
       <c r="E536" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F536" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -12268,8 +12967,11 @@
       <c r="E537" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F537" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -12285,8 +12987,11 @@
       <c r="E538" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F538" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -12302,8 +13007,11 @@
       <c r="E539" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F539" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -12319,8 +13027,11 @@
       <c r="E540" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F540" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -12336,8 +13047,11 @@
       <c r="E541" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F541" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -12353,8 +13067,11 @@
       <c r="E542" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F542" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -12370,8 +13087,11 @@
       <c r="E543" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F543" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -12387,8 +13107,11 @@
       <c r="E544" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F544" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -12404,8 +13127,11 @@
       <c r="E545" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F545" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -12421,8 +13147,11 @@
       <c r="E546" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F546" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -12438,8 +13167,11 @@
       <c r="E547" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F547" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -12455,8 +13187,11 @@
       <c r="E548" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F548" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -12472,8 +13207,11 @@
       <c r="E549" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F549" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -12489,8 +13227,12 @@
       <c r="E550" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F550" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G550" s="3"/>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -12506,8 +13248,11 @@
       <c r="E551" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F551" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -12523,8 +13268,11 @@
       <c r="E552" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F552" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -12540,8 +13288,11 @@
       <c r="E553" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F553" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -12557,8 +13308,11 @@
       <c r="E554" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F554" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -12574,8 +13328,11 @@
       <c r="E555" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F555" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -12591,8 +13348,11 @@
       <c r="E556" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F556" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -12608,8 +13368,11 @@
       <c r="E557" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F557" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -12625,8 +13388,11 @@
       <c r="E558" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F558" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -12642,8 +13408,11 @@
       <c r="E559" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F559" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -12659,8 +13428,11 @@
       <c r="E560" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F560" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -12676,8 +13448,11 @@
       <c r="E561" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F561" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -12693,8 +13468,11 @@
       <c r="E562" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F562" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -12710,8 +13488,11 @@
       <c r="E563" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F563" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -12727,8 +13508,11 @@
       <c r="E564" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F564" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -12744,8 +13528,11 @@
       <c r="E565" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F565" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -12760,6 +13547,9 @@
       </c>
       <c r="E566" t="s">
         <v>7</v>
+      </c>
+      <c r="F566" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A8F497-EA37-8241-9E78-692AE15C67E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04645D6A-E8E2-1D49-91A4-8EE2C3B5D485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1933,9 +1933,6 @@
     <t>Total antioxidant capacity (nmol/mg prot)</t>
   </si>
   <si>
-    <t>Total antioxidant capacity</t>
-  </si>
-  <si>
     <t>Absorbance</t>
   </si>
   <si>
@@ -2027,6 +2024,9 @@
   </si>
   <si>
     <t>Prediction metric</t>
+  </si>
+  <si>
+    <t>Signal</t>
   </si>
 </sst>
 </file>
@@ -2431,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J565"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="265" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2440,7 +2440,8 @@
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -2597,7 +2598,7 @@
         <v>609</v>
       </c>
       <c r="I5" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="J5" t="s">
         <v>604</v>
@@ -3397,7 +3398,7 @@
         <v>623</v>
       </c>
       <c r="I30" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
       <c r="J30" t="s">
         <v>604</v>
@@ -3781,7 +3782,7 @@
         <v>609</v>
       </c>
       <c r="I42" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="J42" t="s">
         <v>604</v>
@@ -4703,7 +4704,7 @@
         <v>601</v>
       </c>
       <c r="G71" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="H71" t="s">
         <v>633</v>
@@ -4735,7 +4736,7 @@
         <v>601</v>
       </c>
       <c r="G72" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="H72" t="s">
         <v>633</v>
@@ -4767,7 +4768,7 @@
         <v>601</v>
       </c>
       <c r="G73" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="H73" t="s">
         <v>633</v>
@@ -4799,7 +4800,7 @@
         <v>601</v>
       </c>
       <c r="G74" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="H74" t="s">
         <v>633</v>
@@ -4831,7 +4832,7 @@
         <v>601</v>
       </c>
       <c r="G75" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="H75" t="s">
         <v>633</v>
@@ -4863,7 +4864,7 @@
         <v>601</v>
       </c>
       <c r="G76" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="H76" t="s">
         <v>633</v>
@@ -4895,7 +4896,7 @@
         <v>601</v>
       </c>
       <c r="G77" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="H77" t="s">
         <v>633</v>
@@ -4927,7 +4928,7 @@
         <v>601</v>
       </c>
       <c r="G78" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="H78" t="s">
         <v>633</v>
@@ -5058,7 +5059,7 @@
         <v>608</v>
       </c>
       <c r="H82" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I82" t="s">
         <v>626</v>
@@ -5506,7 +5507,7 @@
         <v>602</v>
       </c>
       <c r="H96" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="I96" t="s">
         <v>612</v>
@@ -6210,10 +6211,10 @@
         <v>602</v>
       </c>
       <c r="H118" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I118" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J118" t="s">
         <v>604</v>
@@ -6594,10 +6595,10 @@
         <v>602</v>
       </c>
       <c r="H130" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I130" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J130" t="s">
         <v>604</v>
@@ -6722,7 +6723,7 @@
         <v>602</v>
       </c>
       <c r="H134" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I134" t="s">
         <v>626</v>
@@ -6754,7 +6755,7 @@
         <v>602</v>
       </c>
       <c r="H135" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I135" t="s">
         <v>626</v>
@@ -6786,7 +6787,7 @@
         <v>602</v>
       </c>
       <c r="H136" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I136" t="s">
         <v>626</v>
@@ -6818,7 +6819,7 @@
         <v>602</v>
       </c>
       <c r="H137" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I137" t="s">
         <v>626</v>
@@ -6850,7 +6851,7 @@
         <v>602</v>
       </c>
       <c r="H138" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I138" t="s">
         <v>626</v>
@@ -6882,7 +6883,7 @@
         <v>602</v>
       </c>
       <c r="H139" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I139" t="s">
         <v>626</v>
@@ -7237,7 +7238,7 @@
         <v>633</v>
       </c>
       <c r="I150" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="J150" t="s">
         <v>604</v>
@@ -7269,7 +7270,7 @@
         <v>633</v>
       </c>
       <c r="I151" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="J151" t="s">
         <v>604</v>
@@ -7301,7 +7302,7 @@
         <v>311</v>
       </c>
       <c r="I152" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J152" t="s">
         <v>604</v>
@@ -7333,7 +7334,7 @@
         <v>311</v>
       </c>
       <c r="I153" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J153" t="s">
         <v>604</v>
@@ -7365,7 +7366,7 @@
         <v>311</v>
       </c>
       <c r="I154" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J154" t="s">
         <v>604</v>
@@ -7397,7 +7398,7 @@
         <v>311</v>
       </c>
       <c r="I155" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J155" t="s">
         <v>604</v>
@@ -7522,10 +7523,10 @@
         <v>602</v>
       </c>
       <c r="H159" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I159" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J159" t="s">
         <v>604</v>
@@ -7554,7 +7555,7 @@
         <v>602</v>
       </c>
       <c r="H160" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I160" t="s">
         <v>612</v>
@@ -7586,7 +7587,7 @@
         <v>602</v>
       </c>
       <c r="H161" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I161" t="s">
         <v>612</v>
@@ -7618,7 +7619,7 @@
         <v>602</v>
       </c>
       <c r="H162" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I162" t="s">
         <v>612</v>
@@ -7874,7 +7875,7 @@
         <v>602</v>
       </c>
       <c r="H170" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I170" t="s">
         <v>612</v>
@@ -7906,7 +7907,7 @@
         <v>602</v>
       </c>
       <c r="H171" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I171" t="s">
         <v>614</v>
@@ -7938,7 +7939,7 @@
         <v>602</v>
       </c>
       <c r="H172" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I172" t="s">
         <v>614</v>
@@ -7970,7 +7971,7 @@
         <v>602</v>
       </c>
       <c r="H173" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I173" t="s">
         <v>612</v>
@@ -8002,7 +8003,7 @@
         <v>602</v>
       </c>
       <c r="H174" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I174" t="s">
         <v>612</v>
@@ -9125,7 +9126,7 @@
         <v>633</v>
       </c>
       <c r="I209" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="J209" t="s">
         <v>604</v>
@@ -9657,7 +9658,7 @@
         <v>7</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F226" t="s">
         <v>601</v>
@@ -10178,7 +10179,7 @@
         <v>602</v>
       </c>
       <c r="H242" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I242" t="s">
         <v>614</v>
@@ -10210,7 +10211,7 @@
         <v>602</v>
       </c>
       <c r="H243" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I243" t="s">
         <v>614</v>
@@ -10690,10 +10691,10 @@
         <v>602</v>
       </c>
       <c r="H258" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I258" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J258" t="s">
         <v>604</v>
@@ -10754,7 +10755,7 @@
         <v>606</v>
       </c>
       <c r="H260" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I260" t="s">
         <v>606</v>
@@ -10786,7 +10787,7 @@
         <v>606</v>
       </c>
       <c r="H261" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I261" t="s">
         <v>606</v>
@@ -10946,7 +10947,7 @@
         <v>606</v>
       </c>
       <c r="H266" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I266" t="s">
         <v>606</v>
@@ -10978,7 +10979,7 @@
         <v>606</v>
       </c>
       <c r="H267" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I267" t="s">
         <v>606</v>
@@ -11010,7 +11011,7 @@
         <v>606</v>
       </c>
       <c r="H268" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I268" t="s">
         <v>606</v>
@@ -11170,7 +11171,7 @@
         <v>608</v>
       </c>
       <c r="H273" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I273" t="s">
         <v>626</v>
@@ -11193,7 +11194,7 @@
         <v>7</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F274" t="s">
         <v>601</v>
@@ -11202,7 +11203,7 @@
         <v>608</v>
       </c>
       <c r="H274" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I274" t="s">
         <v>626</v>
@@ -11257,7 +11258,7 @@
         <v>7</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F276" t="s">
         <v>607</v>
@@ -11266,7 +11267,7 @@
         <v>602</v>
       </c>
       <c r="H276" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I276" t="s">
         <v>614</v>
@@ -11458,7 +11459,7 @@
         <v>602</v>
       </c>
       <c r="H282" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I282" t="s">
         <v>628</v>
@@ -11490,7 +11491,7 @@
         <v>602</v>
       </c>
       <c r="H283" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I283" t="s">
         <v>628</v>
@@ -11810,7 +11811,7 @@
         <v>602</v>
       </c>
       <c r="H293" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I293" t="s">
         <v>614</v>
@@ -12578,7 +12579,7 @@
         <v>602</v>
       </c>
       <c r="H317" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I317" t="s">
         <v>628</v>
@@ -12738,7 +12739,7 @@
         <v>602</v>
       </c>
       <c r="H322" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I322" t="s">
         <v>612</v>
@@ -12770,7 +12771,7 @@
         <v>602</v>
       </c>
       <c r="H323" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I323" t="s">
         <v>612</v>
@@ -12802,7 +12803,7 @@
         <v>602</v>
       </c>
       <c r="H324" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I324" t="s">
         <v>612</v>
@@ -13503,13 +13504,13 @@
         <v>601</v>
       </c>
       <c r="G346" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H346" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I346" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J346" t="s">
         <v>604</v>
@@ -13538,7 +13539,7 @@
         <v>602</v>
       </c>
       <c r="H347" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I347" s="7" t="s">
         <v>612</v>
@@ -13570,7 +13571,7 @@
         <v>602</v>
       </c>
       <c r="H348" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I348" t="s">
         <v>614</v>
@@ -13602,7 +13603,7 @@
         <v>602</v>
       </c>
       <c r="H349" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I349" t="s">
         <v>614</v>
@@ -13634,7 +13635,7 @@
         <v>602</v>
       </c>
       <c r="H350" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I350" s="7" t="s">
         <v>612</v>
@@ -13666,7 +13667,7 @@
         <v>602</v>
       </c>
       <c r="H351" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I351" s="7" t="s">
         <v>612</v>
@@ -13698,7 +13699,7 @@
         <v>602</v>
       </c>
       <c r="H352" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I352" s="7" t="s">
         <v>612</v>
@@ -13730,7 +13731,7 @@
         <v>602</v>
       </c>
       <c r="H353" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I353" s="7" t="s">
         <v>612</v>
@@ -13954,7 +13955,7 @@
         <v>608</v>
       </c>
       <c r="H360" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I360" t="s">
         <v>626</v>
@@ -13977,7 +13978,7 @@
         <v>7</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F361" t="s">
         <v>601</v>
@@ -13986,7 +13987,7 @@
         <v>608</v>
       </c>
       <c r="H361" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I361" t="s">
         <v>626</v>
@@ -14146,10 +14147,10 @@
         <v>602</v>
       </c>
       <c r="H366" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I366" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J366" t="s">
         <v>604</v>
@@ -14370,10 +14371,10 @@
         <v>602</v>
       </c>
       <c r="H373" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I373" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J373" t="s">
         <v>604</v>
@@ -14809,7 +14810,7 @@
         <v>7</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F387" t="s">
         <v>607</v>
@@ -14914,10 +14915,10 @@
         <v>602</v>
       </c>
       <c r="H390" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I390" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J390" t="s">
         <v>604</v>
@@ -14946,7 +14947,7 @@
         <v>608</v>
       </c>
       <c r="H391" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I391" t="s">
         <v>626</v>
@@ -14969,7 +14970,7 @@
         <v>7</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F392" t="s">
         <v>601</v>
@@ -14978,7 +14979,7 @@
         <v>608</v>
       </c>
       <c r="H392" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I392" t="s">
         <v>626</v>
@@ -15682,10 +15683,10 @@
         <v>602</v>
       </c>
       <c r="H414" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I414" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J414" t="s">
         <v>604</v>
@@ -15714,10 +15715,10 @@
         <v>602</v>
       </c>
       <c r="H415" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I415" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J415" t="s">
         <v>604</v>
@@ -15906,10 +15907,10 @@
         <v>602</v>
       </c>
       <c r="H421" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I421" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J421" t="s">
         <v>604</v>
@@ -15938,10 +15939,10 @@
         <v>602</v>
       </c>
       <c r="H422" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I422" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J422" t="s">
         <v>604</v>
@@ -16066,7 +16067,7 @@
         <v>602</v>
       </c>
       <c r="H426" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I426" t="s">
         <v>628</v>
@@ -16098,7 +16099,7 @@
         <v>602</v>
       </c>
       <c r="H427" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I427" t="s">
         <v>628</v>
@@ -16610,10 +16611,10 @@
         <v>602</v>
       </c>
       <c r="H443" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I443" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J443" t="s">
         <v>604</v>
@@ -16642,10 +16643,10 @@
         <v>602</v>
       </c>
       <c r="H444" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I444" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J444" t="s">
         <v>604</v>
@@ -16674,10 +16675,10 @@
         <v>602</v>
       </c>
       <c r="H445" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I445" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J445" t="s">
         <v>604</v>
@@ -16706,7 +16707,7 @@
         <v>608</v>
       </c>
       <c r="H446" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I446" t="s">
         <v>626</v>
@@ -16738,10 +16739,10 @@
         <v>602</v>
       </c>
       <c r="H447" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I447" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J447" t="s">
         <v>604</v>
@@ -16898,7 +16899,7 @@
         <v>608</v>
       </c>
       <c r="H452" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I452" t="s">
         <v>626</v>
@@ -17122,7 +17123,7 @@
         <v>608</v>
       </c>
       <c r="H459" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I459" t="s">
         <v>626</v>
@@ -17154,7 +17155,7 @@
         <v>608</v>
       </c>
       <c r="H460" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I460" t="s">
         <v>626</v>
@@ -17433,7 +17434,7 @@
         <v>7</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F469" t="s">
         <v>601</v>
@@ -17465,7 +17466,7 @@
         <v>7</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F470" t="s">
         <v>601</v>
@@ -17497,7 +17498,7 @@
         <v>7</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F471" t="s">
         <v>601</v>
@@ -17529,7 +17530,7 @@
         <v>7</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F472" t="s">
         <v>601</v>
@@ -17561,7 +17562,7 @@
         <v>7</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F473" t="s">
         <v>601</v>
@@ -17593,7 +17594,7 @@
         <v>7</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F474" t="s">
         <v>601</v>
@@ -17625,7 +17626,7 @@
         <v>7</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F475" t="s">
         <v>601</v>
@@ -17657,7 +17658,7 @@
         <v>7</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F476" t="s">
         <v>601</v>
@@ -17698,7 +17699,7 @@
         <v>606</v>
       </c>
       <c r="H477" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I477" t="s">
         <v>606</v>
@@ -17730,7 +17731,7 @@
         <v>606</v>
       </c>
       <c r="H478" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I478" t="s">
         <v>606</v>
@@ -17762,7 +17763,7 @@
         <v>606</v>
       </c>
       <c r="H479" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I479" t="s">
         <v>606</v>
@@ -17785,7 +17786,7 @@
         <v>7</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F480" t="s">
         <v>601</v>
@@ -17826,7 +17827,7 @@
         <v>606</v>
       </c>
       <c r="H481" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I481" t="s">
         <v>606</v>
@@ -17858,7 +17859,7 @@
         <v>606</v>
       </c>
       <c r="H482" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I482" t="s">
         <v>606</v>
@@ -17890,7 +17891,7 @@
         <v>606</v>
       </c>
       <c r="H483" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I483" t="s">
         <v>606</v>
@@ -17922,7 +17923,7 @@
         <v>606</v>
       </c>
       <c r="H484" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I484" t="s">
         <v>606</v>
@@ -17954,7 +17955,7 @@
         <v>606</v>
       </c>
       <c r="H485" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I485" t="s">
         <v>606</v>
@@ -17986,7 +17987,7 @@
         <v>606</v>
       </c>
       <c r="H486" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I486" t="s">
         <v>606</v>
@@ -18009,7 +18010,7 @@
         <v>7</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F487" t="s">
         <v>601</v>
@@ -18041,7 +18042,7 @@
         <v>7</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F488" t="s">
         <v>601</v>
@@ -18073,7 +18074,7 @@
         <v>7</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F489" t="s">
         <v>601</v>
@@ -18105,7 +18106,7 @@
         <v>7</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F490" t="s">
         <v>601</v>
@@ -18137,7 +18138,7 @@
         <v>7</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F491" t="s">
         <v>601</v>
@@ -18169,7 +18170,7 @@
         <v>7</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F492" t="s">
         <v>601</v>
@@ -18201,7 +18202,7 @@
         <v>7</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F493" t="s">
         <v>601</v>
@@ -18498,10 +18499,10 @@
         <v>602</v>
       </c>
       <c r="H502" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I502" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J502" t="s">
         <v>604</v>
@@ -18530,10 +18531,10 @@
         <v>602</v>
       </c>
       <c r="H503" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I503" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J503" t="s">
         <v>604</v>
@@ -18562,10 +18563,10 @@
         <v>602</v>
       </c>
       <c r="H504" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I504" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J504" t="s">
         <v>604</v>
@@ -18594,10 +18595,10 @@
         <v>602</v>
       </c>
       <c r="H505" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I505" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J505" t="s">
         <v>604</v>
@@ -18626,10 +18627,10 @@
         <v>602</v>
       </c>
       <c r="H506" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I506" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J506" t="s">
         <v>604</v>
@@ -18658,10 +18659,10 @@
         <v>602</v>
       </c>
       <c r="H507" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I507" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J507" t="s">
         <v>604</v>
@@ -18690,10 +18691,10 @@
         <v>602</v>
       </c>
       <c r="H508" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I508" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J508" t="s">
         <v>604</v>
@@ -18722,10 +18723,10 @@
         <v>602</v>
       </c>
       <c r="H509" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I509" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J509" t="s">
         <v>604</v>
@@ -18754,10 +18755,10 @@
         <v>602</v>
       </c>
       <c r="H510" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I510" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J510" t="s">
         <v>604</v>
@@ -18850,7 +18851,7 @@
         <v>602</v>
       </c>
       <c r="H513" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I513" t="s">
         <v>612</v>
@@ -18882,7 +18883,7 @@
         <v>602</v>
       </c>
       <c r="H514" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I514" t="s">
         <v>612</v>
@@ -18914,7 +18915,7 @@
         <v>602</v>
       </c>
       <c r="H515" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I515" t="s">
         <v>612</v>
@@ -19074,7 +19075,7 @@
         <v>602</v>
       </c>
       <c r="H520" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I520" t="s">
         <v>612</v>
@@ -19106,7 +19107,7 @@
         <v>602</v>
       </c>
       <c r="H521" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I521" t="s">
         <v>612</v>
@@ -19170,7 +19171,7 @@
         <v>608</v>
       </c>
       <c r="H523" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I523" t="s">
         <v>626</v>
@@ -19202,7 +19203,7 @@
         <v>608</v>
       </c>
       <c r="H524" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I524" t="s">
         <v>626</v>
@@ -19426,7 +19427,7 @@
         <v>608</v>
       </c>
       <c r="H531" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I531" t="s">
         <v>610</v>
@@ -19458,7 +19459,7 @@
         <v>608</v>
       </c>
       <c r="H532" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I532" t="s">
         <v>610</v>
@@ -19490,7 +19491,7 @@
         <v>608</v>
       </c>
       <c r="H533" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I533" t="s">
         <v>610</v>
@@ -19545,7 +19546,7 @@
         <v>7</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F535" t="s">
         <v>607</v>
@@ -19554,10 +19555,10 @@
         <v>602</v>
       </c>
       <c r="H535" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I535" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J535" t="s">
         <v>604</v>
@@ -19586,7 +19587,7 @@
         <v>606</v>
       </c>
       <c r="H536" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I536" t="s">
         <v>606</v>
@@ -19650,7 +19651,7 @@
         <v>617</v>
       </c>
       <c r="H538" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I538" t="s">
         <v>617</v>
@@ -19682,7 +19683,7 @@
         <v>617</v>
       </c>
       <c r="H539" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I539" t="s">
         <v>617</v>
@@ -19714,7 +19715,7 @@
         <v>606</v>
       </c>
       <c r="H540" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I540" t="s">
         <v>606</v>
@@ -19746,7 +19747,7 @@
         <v>606</v>
       </c>
       <c r="H541" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I541" t="s">
         <v>606</v>
@@ -19781,7 +19782,7 @@
         <v>609</v>
       </c>
       <c r="I542" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="J542" t="s">
         <v>604</v>
@@ -19813,7 +19814,7 @@
         <v>609</v>
       </c>
       <c r="I543" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="J543" t="s">
         <v>604</v>
@@ -19970,10 +19971,10 @@
         <v>602</v>
       </c>
       <c r="H548" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I548" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J548" t="s">
         <v>604</v>
@@ -20354,10 +20355,10 @@
         <v>602</v>
       </c>
       <c r="H560" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I560" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J560" t="s">
         <v>604</v>
@@ -20514,7 +20515,7 @@
         <v>602</v>
       </c>
       <c r="H565" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I565" t="s">
         <v>628</v>

--- a/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04645D6A-E8E2-1D49-91A4-8EE2C3B5D485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94D6C2C-9370-1249-9AC6-84B5CB583805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5638" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5638" uniqueCount="670">
   <si>
     <t>DOI</t>
   </si>
@@ -1894,9 +1894,6 @@
     <t>MRI signal</t>
   </si>
   <si>
-    <t>Cytokine in cell percentage</t>
-  </si>
-  <si>
     <t>p-value</t>
   </si>
   <si>
@@ -2027,6 +2024,12 @@
   </si>
   <si>
     <t>Signal</t>
+  </si>
+  <si>
+    <t>Protein in cell percentage</t>
+  </si>
+  <si>
+    <t>Statistics</t>
   </si>
 </sst>
 </file>
@@ -2431,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="265" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="142" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2598,7 +2601,7 @@
         <v>609</v>
       </c>
       <c r="I5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J5" t="s">
         <v>604</v>
@@ -3398,7 +3401,7 @@
         <v>623</v>
       </c>
       <c r="I30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J30" t="s">
         <v>604</v>
@@ -3427,7 +3430,7 @@
         <v>606</v>
       </c>
       <c r="H31" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I31" t="s">
         <v>606</v>
@@ -3491,7 +3494,7 @@
         <v>606</v>
       </c>
       <c r="H33" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I33" t="s">
         <v>606</v>
@@ -3523,7 +3526,7 @@
         <v>606</v>
       </c>
       <c r="H34" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I34" t="s">
         <v>606</v>
@@ -3555,7 +3558,7 @@
         <v>606</v>
       </c>
       <c r="H35" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I35" t="s">
         <v>606</v>
@@ -3587,7 +3590,7 @@
         <v>606</v>
       </c>
       <c r="H36" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I36" t="s">
         <v>606</v>
@@ -3619,7 +3622,7 @@
         <v>606</v>
       </c>
       <c r="H37" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I37" t="s">
         <v>606</v>
@@ -3651,7 +3654,7 @@
         <v>606</v>
       </c>
       <c r="H38" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I38" t="s">
         <v>606</v>
@@ -3683,7 +3686,7 @@
         <v>606</v>
       </c>
       <c r="H39" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I39" t="s">
         <v>606</v>
@@ -3715,7 +3718,7 @@
         <v>606</v>
       </c>
       <c r="H40" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I40" t="s">
         <v>606</v>
@@ -3747,10 +3750,10 @@
         <v>602</v>
       </c>
       <c r="H41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I41" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
       <c r="J41">
         <v>10</v>
@@ -3782,7 +3785,7 @@
         <v>609</v>
       </c>
       <c r="I42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J42" t="s">
         <v>604</v>
@@ -3814,7 +3817,7 @@
         <v>251</v>
       </c>
       <c r="I43" t="s">
-        <v>626</v>
+        <v>669</v>
       </c>
       <c r="J43" t="s">
         <v>604</v>
@@ -3843,10 +3846,10 @@
         <v>602</v>
       </c>
       <c r="H44" t="s">
+        <v>626</v>
+      </c>
+      <c r="I44" t="s">
         <v>627</v>
-      </c>
-      <c r="I44" t="s">
-        <v>628</v>
       </c>
       <c r="J44" t="s">
         <v>604</v>
@@ -3875,10 +3878,10 @@
         <v>602</v>
       </c>
       <c r="H45" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I45" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J45" t="s">
         <v>604</v>
@@ -4035,10 +4038,10 @@
         <v>602</v>
       </c>
       <c r="H50" t="s">
+        <v>629</v>
+      </c>
+      <c r="I50" t="s">
         <v>630</v>
-      </c>
-      <c r="I50" t="s">
-        <v>631</v>
       </c>
       <c r="J50" t="s">
         <v>604</v>
@@ -4099,10 +4102,10 @@
         <v>602</v>
       </c>
       <c r="H52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J52" t="s">
         <v>604</v>
@@ -4358,7 +4361,7 @@
         <v>611</v>
       </c>
       <c r="I60" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J60" t="s">
         <v>604</v>
@@ -4390,7 +4393,7 @@
         <v>611</v>
       </c>
       <c r="I61" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J61" t="s">
         <v>604</v>
@@ -4422,7 +4425,7 @@
         <v>611</v>
       </c>
       <c r="I62" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J62" t="s">
         <v>604</v>
@@ -4454,7 +4457,7 @@
         <v>611</v>
       </c>
       <c r="I63" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J63" t="s">
         <v>604</v>
@@ -4486,7 +4489,7 @@
         <v>611</v>
       </c>
       <c r="I64" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J64" t="s">
         <v>604</v>
@@ -4518,7 +4521,7 @@
         <v>611</v>
       </c>
       <c r="I65" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J65" t="s">
         <v>604</v>
@@ -4707,10 +4710,10 @@
         <v>617</v>
       </c>
       <c r="H71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J71" t="s">
         <v>604</v>
@@ -4739,10 +4742,10 @@
         <v>617</v>
       </c>
       <c r="H72" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I72" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J72" t="s">
         <v>604</v>
@@ -4771,10 +4774,10 @@
         <v>617</v>
       </c>
       <c r="H73" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I73" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J73" t="s">
         <v>604</v>
@@ -4803,10 +4806,10 @@
         <v>617</v>
       </c>
       <c r="H74" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I74" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J74" t="s">
         <v>604</v>
@@ -4835,10 +4838,10 @@
         <v>617</v>
       </c>
       <c r="H75" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I75" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J75" t="s">
         <v>604</v>
@@ -4867,10 +4870,10 @@
         <v>617</v>
       </c>
       <c r="H76" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I76" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J76" t="s">
         <v>604</v>
@@ -4899,10 +4902,10 @@
         <v>617</v>
       </c>
       <c r="H77" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I77" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J77" t="s">
         <v>604</v>
@@ -4931,10 +4934,10 @@
         <v>617</v>
       </c>
       <c r="H78" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I78" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J78" t="s">
         <v>604</v>
@@ -4966,7 +4969,7 @@
         <v>611</v>
       </c>
       <c r="I79" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J79" t="s">
         <v>604</v>
@@ -4998,7 +5001,7 @@
         <v>611</v>
       </c>
       <c r="I80" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J80" t="s">
         <v>604</v>
@@ -5059,10 +5062,10 @@
         <v>608</v>
       </c>
       <c r="H82" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I82" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J82" t="s">
         <v>604</v>
@@ -5091,10 +5094,10 @@
         <v>617</v>
       </c>
       <c r="H83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J83" t="s">
         <v>604</v>
@@ -5123,10 +5126,10 @@
         <v>617</v>
       </c>
       <c r="H84" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I84" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J84" t="s">
         <v>604</v>
@@ -5155,10 +5158,10 @@
         <v>617</v>
       </c>
       <c r="H85" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I85" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J85" t="s">
         <v>604</v>
@@ -5187,10 +5190,10 @@
         <v>617</v>
       </c>
       <c r="H86" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I86" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J86" t="s">
         <v>604</v>
@@ -5219,10 +5222,10 @@
         <v>617</v>
       </c>
       <c r="H87" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I87" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J87" t="s">
         <v>604</v>
@@ -5251,10 +5254,10 @@
         <v>617</v>
       </c>
       <c r="H88" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I88" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J88" t="s">
         <v>604</v>
@@ -5283,10 +5286,10 @@
         <v>617</v>
       </c>
       <c r="H89" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I89" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J89" t="s">
         <v>604</v>
@@ -5347,10 +5350,10 @@
         <v>617</v>
       </c>
       <c r="H91" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I91" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J91" t="s">
         <v>604</v>
@@ -5379,10 +5382,10 @@
         <v>617</v>
       </c>
       <c r="H92" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I92" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J92" t="s">
         <v>604</v>
@@ -5411,10 +5414,10 @@
         <v>617</v>
       </c>
       <c r="H93" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I93" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J93" t="s">
         <v>604</v>
@@ -5443,10 +5446,10 @@
         <v>602</v>
       </c>
       <c r="H94" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I94" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J94" t="s">
         <v>604</v>
@@ -5475,10 +5478,10 @@
         <v>602</v>
       </c>
       <c r="H95" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I95" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J95" t="s">
         <v>604</v>
@@ -5498,7 +5501,7 @@
         <v>7</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F96" t="s">
         <v>607</v>
@@ -5539,10 +5542,10 @@
         <v>602</v>
       </c>
       <c r="H97" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I97" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J97" t="s">
         <v>604</v>
@@ -5955,10 +5958,10 @@
         <v>602</v>
       </c>
       <c r="H110" t="s">
+        <v>626</v>
+      </c>
+      <c r="I110" t="s">
         <v>627</v>
-      </c>
-      <c r="I110" t="s">
-        <v>628</v>
       </c>
       <c r="J110" t="s">
         <v>604</v>
@@ -5987,10 +5990,10 @@
         <v>602</v>
       </c>
       <c r="H111" t="s">
+        <v>626</v>
+      </c>
+      <c r="I111" t="s">
         <v>627</v>
-      </c>
-      <c r="I111" t="s">
-        <v>628</v>
       </c>
       <c r="J111" t="s">
         <v>604</v>
@@ -6211,10 +6214,10 @@
         <v>602</v>
       </c>
       <c r="H118" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I118" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J118" t="s">
         <v>604</v>
@@ -6246,7 +6249,7 @@
         <v>251</v>
       </c>
       <c r="I119" t="s">
-        <v>626</v>
+        <v>669</v>
       </c>
       <c r="J119" t="s">
         <v>604</v>
@@ -6275,10 +6278,10 @@
         <v>602</v>
       </c>
       <c r="H120" t="s">
+        <v>626</v>
+      </c>
+      <c r="I120" t="s">
         <v>627</v>
-      </c>
-      <c r="I120" t="s">
-        <v>628</v>
       </c>
       <c r="J120" t="s">
         <v>604</v>
@@ -6595,10 +6598,10 @@
         <v>602</v>
       </c>
       <c r="H130" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I130" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J130" t="s">
         <v>604</v>
@@ -6691,10 +6694,10 @@
         <v>602</v>
       </c>
       <c r="H133" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I133" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J133" t="s">
         <v>604</v>
@@ -6723,10 +6726,10 @@
         <v>602</v>
       </c>
       <c r="H134" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I134" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J134" t="s">
         <v>604</v>
@@ -6755,10 +6758,10 @@
         <v>602</v>
       </c>
       <c r="H135" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I135" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J135" t="s">
         <v>604</v>
@@ -6787,10 +6790,10 @@
         <v>602</v>
       </c>
       <c r="H136" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I136" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J136" t="s">
         <v>604</v>
@@ -6819,10 +6822,10 @@
         <v>602</v>
       </c>
       <c r="H137" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I137" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J137" t="s">
         <v>604</v>
@@ -6851,10 +6854,10 @@
         <v>602</v>
       </c>
       <c r="H138" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I138" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J138" t="s">
         <v>604</v>
@@ -6883,10 +6886,10 @@
         <v>602</v>
       </c>
       <c r="H139" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I139" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J139" t="s">
         <v>604</v>
@@ -6947,10 +6950,10 @@
         <v>602</v>
       </c>
       <c r="H141" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I141" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J141" t="s">
         <v>604</v>
@@ -6979,10 +6982,10 @@
         <v>602</v>
       </c>
       <c r="H142" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I142" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J142" t="s">
         <v>604</v>
@@ -7014,7 +7017,7 @@
         <v>304</v>
       </c>
       <c r="I143" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J143" t="s">
         <v>604</v>
@@ -7107,10 +7110,10 @@
         <v>602</v>
       </c>
       <c r="H146" t="s">
+        <v>626</v>
+      </c>
+      <c r="I146" t="s">
         <v>627</v>
-      </c>
-      <c r="I146" t="s">
-        <v>628</v>
       </c>
       <c r="J146" t="s">
         <v>604</v>
@@ -7235,10 +7238,10 @@
         <v>617</v>
       </c>
       <c r="H150" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I150" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J150" t="s">
         <v>604</v>
@@ -7267,10 +7270,10 @@
         <v>617</v>
       </c>
       <c r="H151" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I151" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J151" t="s">
         <v>604</v>
@@ -7302,7 +7305,7 @@
         <v>311</v>
       </c>
       <c r="I152" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J152" t="s">
         <v>604</v>
@@ -7334,7 +7337,7 @@
         <v>311</v>
       </c>
       <c r="I153" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J153" t="s">
         <v>604</v>
@@ -7366,7 +7369,7 @@
         <v>311</v>
       </c>
       <c r="I154" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J154" t="s">
         <v>604</v>
@@ -7398,7 +7401,7 @@
         <v>311</v>
       </c>
       <c r="I155" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J155" t="s">
         <v>604</v>
@@ -7523,10 +7526,10 @@
         <v>602</v>
       </c>
       <c r="H159" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I159" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J159" t="s">
         <v>604</v>
@@ -7555,7 +7558,7 @@
         <v>602</v>
       </c>
       <c r="H160" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I160" t="s">
         <v>612</v>
@@ -7587,7 +7590,7 @@
         <v>602</v>
       </c>
       <c r="H161" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I161" t="s">
         <v>612</v>
@@ -7619,7 +7622,7 @@
         <v>602</v>
       </c>
       <c r="H162" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I162" t="s">
         <v>612</v>
@@ -7779,10 +7782,10 @@
         <v>602</v>
       </c>
       <c r="H167" t="s">
+        <v>626</v>
+      </c>
+      <c r="I167" t="s">
         <v>627</v>
-      </c>
-      <c r="I167" t="s">
-        <v>628</v>
       </c>
       <c r="J167" t="s">
         <v>604</v>
@@ -7811,10 +7814,10 @@
         <v>602</v>
       </c>
       <c r="H168" t="s">
+        <v>629</v>
+      </c>
+      <c r="I168" t="s">
         <v>630</v>
-      </c>
-      <c r="I168" t="s">
-        <v>631</v>
       </c>
       <c r="J168" t="s">
         <v>604</v>
@@ -7875,7 +7878,7 @@
         <v>602</v>
       </c>
       <c r="H170" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I170" t="s">
         <v>612</v>
@@ -7907,7 +7910,7 @@
         <v>602</v>
       </c>
       <c r="H171" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I171" t="s">
         <v>614</v>
@@ -7939,7 +7942,7 @@
         <v>602</v>
       </c>
       <c r="H172" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I172" t="s">
         <v>614</v>
@@ -7971,7 +7974,7 @@
         <v>602</v>
       </c>
       <c r="H173" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I173" t="s">
         <v>612</v>
@@ -8003,7 +8006,7 @@
         <v>602</v>
       </c>
       <c r="H174" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I174" t="s">
         <v>612</v>
@@ -8067,10 +8070,10 @@
         <v>602</v>
       </c>
       <c r="H176" t="s">
+        <v>629</v>
+      </c>
+      <c r="I176" t="s">
         <v>630</v>
-      </c>
-      <c r="I176" t="s">
-        <v>631</v>
       </c>
       <c r="J176" t="s">
         <v>604</v>
@@ -8771,7 +8774,7 @@
         <v>606</v>
       </c>
       <c r="H198" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I198" t="s">
         <v>606</v>
@@ -8870,7 +8873,7 @@
         <v>348</v>
       </c>
       <c r="I201" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J201" t="s">
         <v>604</v>
@@ -8902,7 +8905,7 @@
         <v>348</v>
       </c>
       <c r="I202" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J202" t="s">
         <v>604</v>
@@ -8934,7 +8937,7 @@
         <v>348</v>
       </c>
       <c r="I203" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J203" t="s">
         <v>604</v>
@@ -9123,10 +9126,10 @@
         <v>617</v>
       </c>
       <c r="H209" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I209" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J209" t="s">
         <v>604</v>
@@ -9155,10 +9158,10 @@
         <v>602</v>
       </c>
       <c r="H210" t="s">
+        <v>626</v>
+      </c>
+      <c r="I210" t="s">
         <v>627</v>
-      </c>
-      <c r="I210" t="s">
-        <v>628</v>
       </c>
       <c r="J210" t="s">
         <v>604</v>
@@ -9254,7 +9257,7 @@
         <v>611</v>
       </c>
       <c r="I213" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J213" t="s">
         <v>604</v>
@@ -9283,10 +9286,10 @@
         <v>602</v>
       </c>
       <c r="H214" t="s">
+        <v>626</v>
+      </c>
+      <c r="I214" t="s">
         <v>627</v>
-      </c>
-      <c r="I214" t="s">
-        <v>628</v>
       </c>
       <c r="J214" t="s">
         <v>604</v>
@@ -9315,10 +9318,10 @@
         <v>602</v>
       </c>
       <c r="H215" t="s">
+        <v>626</v>
+      </c>
+      <c r="I215" t="s">
         <v>627</v>
-      </c>
-      <c r="I215" t="s">
-        <v>628</v>
       </c>
       <c r="J215" t="s">
         <v>604</v>
@@ -9411,10 +9414,10 @@
         <v>602</v>
       </c>
       <c r="H218" t="s">
+        <v>626</v>
+      </c>
+      <c r="I218" t="s">
         <v>627</v>
-      </c>
-      <c r="I218" t="s">
-        <v>628</v>
       </c>
       <c r="J218" t="s">
         <v>604</v>
@@ -9635,10 +9638,10 @@
         <v>602</v>
       </c>
       <c r="H225" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I225" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J225" t="s">
         <v>604</v>
@@ -9658,7 +9661,7 @@
         <v>7</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F226" t="s">
         <v>601</v>
@@ -9699,7 +9702,7 @@
         <v>606</v>
       </c>
       <c r="H227" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I227" t="s">
         <v>606</v>
@@ -9859,7 +9862,7 @@
         <v>606</v>
       </c>
       <c r="H232" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I232" t="s">
         <v>606</v>
@@ -9891,7 +9894,7 @@
         <v>606</v>
       </c>
       <c r="H233" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I233" t="s">
         <v>606</v>
@@ -9923,7 +9926,7 @@
         <v>606</v>
       </c>
       <c r="H234" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I234" t="s">
         <v>606</v>
@@ -9955,10 +9958,10 @@
         <v>602</v>
       </c>
       <c r="H235" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I235" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J235" t="s">
         <v>604</v>
@@ -10179,7 +10182,7 @@
         <v>602</v>
       </c>
       <c r="H242" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I242" t="s">
         <v>614</v>
@@ -10211,7 +10214,7 @@
         <v>602</v>
       </c>
       <c r="H243" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I243" t="s">
         <v>614</v>
@@ -10371,10 +10374,10 @@
         <v>602</v>
       </c>
       <c r="H248" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I248" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J248" t="s">
         <v>604</v>
@@ -10435,7 +10438,7 @@
         <v>606</v>
       </c>
       <c r="H250" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I250" t="s">
         <v>606</v>
@@ -10691,10 +10694,10 @@
         <v>602</v>
       </c>
       <c r="H258" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I258" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J258" t="s">
         <v>604</v>
@@ -10723,7 +10726,7 @@
         <v>606</v>
       </c>
       <c r="H259" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I259" t="s">
         <v>606</v>
@@ -10755,7 +10758,7 @@
         <v>606</v>
       </c>
       <c r="H260" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I260" t="s">
         <v>606</v>
@@ -10787,7 +10790,7 @@
         <v>606</v>
       </c>
       <c r="H261" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I261" t="s">
         <v>606</v>
@@ -10819,7 +10822,7 @@
         <v>606</v>
       </c>
       <c r="H262" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I262" t="s">
         <v>606</v>
@@ -10915,7 +10918,7 @@
         <v>606</v>
       </c>
       <c r="H265" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I265" t="s">
         <v>606</v>
@@ -10947,7 +10950,7 @@
         <v>606</v>
       </c>
       <c r="H266" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I266" t="s">
         <v>606</v>
@@ -10979,7 +10982,7 @@
         <v>606</v>
       </c>
       <c r="H267" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I267" t="s">
         <v>606</v>
@@ -11011,7 +11014,7 @@
         <v>606</v>
       </c>
       <c r="H268" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I268" t="s">
         <v>606</v>
@@ -11043,7 +11046,7 @@
         <v>606</v>
       </c>
       <c r="H269" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I269" t="s">
         <v>606</v>
@@ -11075,7 +11078,7 @@
         <v>606</v>
       </c>
       <c r="H270" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I270" t="s">
         <v>606</v>
@@ -11107,7 +11110,7 @@
         <v>606</v>
       </c>
       <c r="H271" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I271" t="s">
         <v>606</v>
@@ -11171,10 +11174,10 @@
         <v>608</v>
       </c>
       <c r="H273" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I273" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J273" t="s">
         <v>604</v>
@@ -11194,7 +11197,7 @@
         <v>7</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F274" t="s">
         <v>601</v>
@@ -11203,10 +11206,10 @@
         <v>608</v>
       </c>
       <c r="H274" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I274" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J274" t="s">
         <v>604</v>
@@ -11258,7 +11261,7 @@
         <v>7</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F276" t="s">
         <v>607</v>
@@ -11267,7 +11270,7 @@
         <v>602</v>
       </c>
       <c r="H276" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I276" t="s">
         <v>614</v>
@@ -11427,10 +11430,10 @@
         <v>602</v>
       </c>
       <c r="H281" t="s">
+        <v>626</v>
+      </c>
+      <c r="I281" t="s">
         <v>627</v>
-      </c>
-      <c r="I281" t="s">
-        <v>628</v>
       </c>
       <c r="J281" t="s">
         <v>604</v>
@@ -11459,10 +11462,10 @@
         <v>602</v>
       </c>
       <c r="H282" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I282" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J282" t="s">
         <v>604</v>
@@ -11491,10 +11494,10 @@
         <v>602</v>
       </c>
       <c r="H283" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I283" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J283" t="s">
         <v>604</v>
@@ -11523,10 +11526,10 @@
         <v>602</v>
       </c>
       <c r="H284" t="s">
+        <v>629</v>
+      </c>
+      <c r="I284" t="s">
         <v>630</v>
-      </c>
-      <c r="I284" t="s">
-        <v>631</v>
       </c>
       <c r="J284" t="s">
         <v>604</v>
@@ -11558,7 +11561,7 @@
         <v>304</v>
       </c>
       <c r="I285" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J285" t="s">
         <v>604</v>
@@ -11590,7 +11593,7 @@
         <v>304</v>
       </c>
       <c r="I286" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J286" t="s">
         <v>604</v>
@@ -11622,7 +11625,7 @@
         <v>304</v>
       </c>
       <c r="I287" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J287" t="s">
         <v>604</v>
@@ -11654,7 +11657,7 @@
         <v>304</v>
       </c>
       <c r="I288" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J288" t="s">
         <v>604</v>
@@ -11811,7 +11814,7 @@
         <v>602</v>
       </c>
       <c r="H293" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I293" t="s">
         <v>614</v>
@@ -11907,7 +11910,7 @@
         <v>606</v>
       </c>
       <c r="H296" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I296" t="s">
         <v>606</v>
@@ -11971,7 +11974,7 @@
         <v>606</v>
       </c>
       <c r="H298" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I298" t="s">
         <v>606</v>
@@ -12003,7 +12006,7 @@
         <v>606</v>
       </c>
       <c r="H299" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I299" t="s">
         <v>606</v>
@@ -12323,7 +12326,7 @@
         <v>606</v>
       </c>
       <c r="H309" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I309" t="s">
         <v>606</v>
@@ -12579,10 +12582,10 @@
         <v>602</v>
       </c>
       <c r="H317" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I317" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J317" t="s">
         <v>604</v>
@@ -12643,10 +12646,10 @@
         <v>602</v>
       </c>
       <c r="H319" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I319" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J319" t="s">
         <v>604</v>
@@ -12739,7 +12742,7 @@
         <v>602</v>
       </c>
       <c r="H322" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I322" t="s">
         <v>612</v>
@@ -12771,7 +12774,7 @@
         <v>602</v>
       </c>
       <c r="H323" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I323" t="s">
         <v>612</v>
@@ -12803,7 +12806,7 @@
         <v>602</v>
       </c>
       <c r="H324" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I324" t="s">
         <v>612</v>
@@ -13030,7 +13033,7 @@
         <v>611</v>
       </c>
       <c r="I331" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J331" s="7" t="s">
         <v>604</v>
@@ -13123,10 +13126,10 @@
         <v>617</v>
       </c>
       <c r="H334" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I334" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J334" s="7" t="s">
         <v>604</v>
@@ -13155,10 +13158,10 @@
         <v>617</v>
       </c>
       <c r="H335" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I335" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J335" s="7" t="s">
         <v>604</v>
@@ -13187,10 +13190,10 @@
         <v>617</v>
       </c>
       <c r="H336" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I336" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J336" s="7" t="s">
         <v>604</v>
@@ -13283,10 +13286,10 @@
         <v>602</v>
       </c>
       <c r="H339" t="s">
+        <v>626</v>
+      </c>
+      <c r="I339" t="s">
         <v>627</v>
-      </c>
-      <c r="I339" t="s">
-        <v>628</v>
       </c>
       <c r="J339" t="s">
         <v>604</v>
@@ -13379,10 +13382,10 @@
         <v>602</v>
       </c>
       <c r="H342" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I342" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J342" t="s">
         <v>604</v>
@@ -13411,10 +13414,10 @@
         <v>602</v>
       </c>
       <c r="H343" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I343" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J343" t="s">
         <v>604</v>
@@ -13443,10 +13446,10 @@
         <v>602</v>
       </c>
       <c r="H344" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I344" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J344" t="s">
         <v>604</v>
@@ -13475,10 +13478,10 @@
         <v>602</v>
       </c>
       <c r="H345" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I345" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J345" t="s">
         <v>604</v>
@@ -13504,13 +13507,13 @@
         <v>601</v>
       </c>
       <c r="G346" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H346" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I346" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J346" t="s">
         <v>604</v>
@@ -13539,7 +13542,7 @@
         <v>602</v>
       </c>
       <c r="H347" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I347" s="7" t="s">
         <v>612</v>
@@ -13571,7 +13574,7 @@
         <v>602</v>
       </c>
       <c r="H348" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I348" t="s">
         <v>614</v>
@@ -13603,7 +13606,7 @@
         <v>602</v>
       </c>
       <c r="H349" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I349" t="s">
         <v>614</v>
@@ -13635,7 +13638,7 @@
         <v>602</v>
       </c>
       <c r="H350" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I350" s="7" t="s">
         <v>612</v>
@@ -13667,7 +13670,7 @@
         <v>602</v>
       </c>
       <c r="H351" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I351" s="7" t="s">
         <v>612</v>
@@ -13699,7 +13702,7 @@
         <v>602</v>
       </c>
       <c r="H352" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I352" s="7" t="s">
         <v>612</v>
@@ -13731,7 +13734,7 @@
         <v>602</v>
       </c>
       <c r="H353" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I353" s="7" t="s">
         <v>612</v>
@@ -13763,10 +13766,10 @@
         <v>602</v>
       </c>
       <c r="H354" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I354" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J354" t="s">
         <v>604</v>
@@ -13955,10 +13958,10 @@
         <v>608</v>
       </c>
       <c r="H360" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I360" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J360" t="s">
         <v>604</v>
@@ -13978,7 +13981,7 @@
         <v>7</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F361" t="s">
         <v>601</v>
@@ -13987,10 +13990,10 @@
         <v>608</v>
       </c>
       <c r="H361" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I361" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J361" t="s">
         <v>604</v>
@@ -14115,10 +14118,10 @@
         <v>602</v>
       </c>
       <c r="H365" t="s">
+        <v>629</v>
+      </c>
+      <c r="I365" t="s">
         <v>630</v>
-      </c>
-      <c r="I365" t="s">
-        <v>631</v>
       </c>
       <c r="J365" t="s">
         <v>604</v>
@@ -14147,10 +14150,10 @@
         <v>602</v>
       </c>
       <c r="H366" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I366" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J366" t="s">
         <v>604</v>
@@ -14243,10 +14246,10 @@
         <v>602</v>
       </c>
       <c r="H369" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I369" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J369" t="s">
         <v>604</v>
@@ -14275,10 +14278,10 @@
         <v>602</v>
       </c>
       <c r="H370" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I370" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J370" t="s">
         <v>604</v>
@@ -14371,10 +14374,10 @@
         <v>602</v>
       </c>
       <c r="H373" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I373" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J373" t="s">
         <v>604</v>
@@ -14810,7 +14813,7 @@
         <v>7</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F387" t="s">
         <v>607</v>
@@ -14915,10 +14918,10 @@
         <v>602</v>
       </c>
       <c r="H390" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I390" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J390" t="s">
         <v>604</v>
@@ -14947,10 +14950,10 @@
         <v>608</v>
       </c>
       <c r="H391" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I391" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J391" t="s">
         <v>604</v>
@@ -14970,7 +14973,7 @@
         <v>7</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F392" t="s">
         <v>601</v>
@@ -14979,10 +14982,10 @@
         <v>608</v>
       </c>
       <c r="H392" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I392" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J392" t="s">
         <v>604</v>
@@ -15043,10 +15046,10 @@
         <v>602</v>
       </c>
       <c r="H394" t="s">
+        <v>626</v>
+      </c>
+      <c r="I394" t="s">
         <v>627</v>
-      </c>
-      <c r="I394" t="s">
-        <v>628</v>
       </c>
       <c r="J394" t="s">
         <v>604</v>
@@ -15139,7 +15142,7 @@
         <v>606</v>
       </c>
       <c r="H397" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I397" t="s">
         <v>606</v>
@@ -15171,7 +15174,7 @@
         <v>606</v>
       </c>
       <c r="H398" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I398" t="s">
         <v>606</v>
@@ -15203,10 +15206,10 @@
         <v>602</v>
       </c>
       <c r="H399" t="s">
+        <v>626</v>
+      </c>
+      <c r="I399" t="s">
         <v>627</v>
-      </c>
-      <c r="I399" t="s">
-        <v>628</v>
       </c>
       <c r="J399" t="s">
         <v>604</v>
@@ -15235,10 +15238,10 @@
         <v>602</v>
       </c>
       <c r="H400" t="s">
+        <v>626</v>
+      </c>
+      <c r="I400" t="s">
         <v>627</v>
-      </c>
-      <c r="I400" t="s">
-        <v>628</v>
       </c>
       <c r="J400" t="s">
         <v>604</v>
@@ -15299,7 +15302,7 @@
         <v>606</v>
       </c>
       <c r="H402" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I402" t="s">
         <v>606</v>
@@ -15331,7 +15334,7 @@
         <v>606</v>
       </c>
       <c r="H403" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I403" t="s">
         <v>606</v>
@@ -15683,10 +15686,10 @@
         <v>602</v>
       </c>
       <c r="H414" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I414" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J414" t="s">
         <v>604</v>
@@ -15715,10 +15718,10 @@
         <v>602</v>
       </c>
       <c r="H415" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I415" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J415" t="s">
         <v>604</v>
@@ -15779,10 +15782,10 @@
         <v>602</v>
       </c>
       <c r="H417" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I417" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J417" t="s">
         <v>604</v>
@@ -15811,10 +15814,10 @@
         <v>602</v>
       </c>
       <c r="H418" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I418" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J418" t="s">
         <v>604</v>
@@ -15907,10 +15910,10 @@
         <v>602</v>
       </c>
       <c r="H421" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I421" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J421" t="s">
         <v>604</v>
@@ -15939,10 +15942,10 @@
         <v>602</v>
       </c>
       <c r="H422" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I422" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J422" t="s">
         <v>604</v>
@@ -16003,10 +16006,10 @@
         <v>602</v>
       </c>
       <c r="H424" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I424" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J424" t="s">
         <v>604</v>
@@ -16067,10 +16070,10 @@
         <v>602</v>
       </c>
       <c r="H426" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I426" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J426" t="s">
         <v>604</v>
@@ -16099,10 +16102,10 @@
         <v>602</v>
       </c>
       <c r="H427" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I427" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J427" t="s">
         <v>604</v>
@@ -16611,10 +16614,10 @@
         <v>602</v>
       </c>
       <c r="H443" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I443" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J443" t="s">
         <v>604</v>
@@ -16643,10 +16646,10 @@
         <v>602</v>
       </c>
       <c r="H444" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I444" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J444" t="s">
         <v>604</v>
@@ -16675,10 +16678,10 @@
         <v>602</v>
       </c>
       <c r="H445" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I445" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J445" t="s">
         <v>604</v>
@@ -16707,10 +16710,10 @@
         <v>608</v>
       </c>
       <c r="H446" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I446" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J446" t="s">
         <v>604</v>
@@ -16739,10 +16742,10 @@
         <v>602</v>
       </c>
       <c r="H447" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I447" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J447" t="s">
         <v>604</v>
@@ -16867,10 +16870,10 @@
         <v>602</v>
       </c>
       <c r="H451" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I451" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J451" t="s">
         <v>604</v>
@@ -16899,10 +16902,10 @@
         <v>608</v>
       </c>
       <c r="H452" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I452" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J452" t="s">
         <v>604</v>
@@ -17123,10 +17126,10 @@
         <v>608</v>
       </c>
       <c r="H459" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I459" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J459" t="s">
         <v>604</v>
@@ -17155,10 +17158,10 @@
         <v>608</v>
       </c>
       <c r="H460" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I460" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J460" t="s">
         <v>604</v>
@@ -17434,7 +17437,7 @@
         <v>7</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F469" t="s">
         <v>601</v>
@@ -17443,10 +17446,10 @@
         <v>617</v>
       </c>
       <c r="H469" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I469" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J469" t="s">
         <v>604</v>
@@ -17466,7 +17469,7 @@
         <v>7</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F470" t="s">
         <v>601</v>
@@ -17475,10 +17478,10 @@
         <v>617</v>
       </c>
       <c r="H470" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I470" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J470" t="s">
         <v>604</v>
@@ -17498,7 +17501,7 @@
         <v>7</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F471" t="s">
         <v>601</v>
@@ -17507,10 +17510,10 @@
         <v>617</v>
       </c>
       <c r="H471" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I471" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J471" t="s">
         <v>604</v>
@@ -17530,7 +17533,7 @@
         <v>7</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F472" t="s">
         <v>601</v>
@@ -17539,10 +17542,10 @@
         <v>617</v>
       </c>
       <c r="H472" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I472" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J472" t="s">
         <v>604</v>
@@ -17562,7 +17565,7 @@
         <v>7</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F473" t="s">
         <v>601</v>
@@ -17571,10 +17574,10 @@
         <v>617</v>
       </c>
       <c r="H473" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I473" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J473" t="s">
         <v>604</v>
@@ -17594,7 +17597,7 @@
         <v>7</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F474" t="s">
         <v>601</v>
@@ -17603,10 +17606,10 @@
         <v>617</v>
       </c>
       <c r="H474" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I474" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J474" t="s">
         <v>604</v>
@@ -17626,7 +17629,7 @@
         <v>7</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F475" t="s">
         <v>601</v>
@@ -17635,10 +17638,10 @@
         <v>617</v>
       </c>
       <c r="H475" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I475" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J475" t="s">
         <v>604</v>
@@ -17658,7 +17661,7 @@
         <v>7</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F476" t="s">
         <v>601</v>
@@ -17667,10 +17670,10 @@
         <v>617</v>
       </c>
       <c r="H476" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I476" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J476" t="s">
         <v>604</v>
@@ -17699,7 +17702,7 @@
         <v>606</v>
       </c>
       <c r="H477" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I477" t="s">
         <v>606</v>
@@ -17731,7 +17734,7 @@
         <v>606</v>
       </c>
       <c r="H478" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I478" t="s">
         <v>606</v>
@@ -17763,7 +17766,7 @@
         <v>606</v>
       </c>
       <c r="H479" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I479" t="s">
         <v>606</v>
@@ -17786,7 +17789,7 @@
         <v>7</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F480" t="s">
         <v>601</v>
@@ -17795,10 +17798,10 @@
         <v>617</v>
       </c>
       <c r="H480" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I480" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J480" t="s">
         <v>604</v>
@@ -17827,7 +17830,7 @@
         <v>606</v>
       </c>
       <c r="H481" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I481" t="s">
         <v>606</v>
@@ -17859,7 +17862,7 @@
         <v>606</v>
       </c>
       <c r="H482" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I482" t="s">
         <v>606</v>
@@ -17891,7 +17894,7 @@
         <v>606</v>
       </c>
       <c r="H483" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I483" t="s">
         <v>606</v>
@@ -17923,7 +17926,7 @@
         <v>606</v>
       </c>
       <c r="H484" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I484" t="s">
         <v>606</v>
@@ -17955,7 +17958,7 @@
         <v>606</v>
       </c>
       <c r="H485" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I485" t="s">
         <v>606</v>
@@ -17987,7 +17990,7 @@
         <v>606</v>
       </c>
       <c r="H486" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I486" t="s">
         <v>606</v>
@@ -18010,7 +18013,7 @@
         <v>7</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F487" t="s">
         <v>601</v>
@@ -18019,10 +18022,10 @@
         <v>617</v>
       </c>
       <c r="H487" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I487" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J487" t="s">
         <v>604</v>
@@ -18042,7 +18045,7 @@
         <v>7</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F488" t="s">
         <v>601</v>
@@ -18051,10 +18054,10 @@
         <v>617</v>
       </c>
       <c r="H488" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I488" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J488" t="s">
         <v>604</v>
@@ -18074,7 +18077,7 @@
         <v>7</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F489" t="s">
         <v>601</v>
@@ -18083,10 +18086,10 @@
         <v>617</v>
       </c>
       <c r="H489" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I489" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J489" t="s">
         <v>604</v>
@@ -18106,7 +18109,7 @@
         <v>7</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F490" t="s">
         <v>601</v>
@@ -18115,10 +18118,10 @@
         <v>617</v>
       </c>
       <c r="H490" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I490" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J490" t="s">
         <v>604</v>
@@ -18138,7 +18141,7 @@
         <v>7</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F491" t="s">
         <v>601</v>
@@ -18147,10 +18150,10 @@
         <v>617</v>
       </c>
       <c r="H491" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I491" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J491" t="s">
         <v>604</v>
@@ -18170,7 +18173,7 @@
         <v>7</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F492" t="s">
         <v>601</v>
@@ -18179,10 +18182,10 @@
         <v>617</v>
       </c>
       <c r="H492" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I492" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J492" t="s">
         <v>604</v>
@@ -18202,7 +18205,7 @@
         <v>7</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F493" t="s">
         <v>601</v>
@@ -18211,10 +18214,10 @@
         <v>617</v>
       </c>
       <c r="H493" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I493" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J493" t="s">
         <v>604</v>
@@ -18243,10 +18246,10 @@
         <v>602</v>
       </c>
       <c r="H494" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I494" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J494" t="s">
         <v>604</v>
@@ -18499,10 +18502,10 @@
         <v>602</v>
       </c>
       <c r="H502" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I502" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J502" t="s">
         <v>604</v>
@@ -18531,10 +18534,10 @@
         <v>602</v>
       </c>
       <c r="H503" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I503" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J503" t="s">
         <v>604</v>
@@ -18563,10 +18566,10 @@
         <v>602</v>
       </c>
       <c r="H504" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I504" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J504" t="s">
         <v>604</v>
@@ -18595,10 +18598,10 @@
         <v>602</v>
       </c>
       <c r="H505" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I505" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J505" t="s">
         <v>604</v>
@@ -18627,10 +18630,10 @@
         <v>602</v>
       </c>
       <c r="H506" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I506" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J506" t="s">
         <v>604</v>
@@ -18659,10 +18662,10 @@
         <v>602</v>
       </c>
       <c r="H507" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I507" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J507" t="s">
         <v>604</v>
@@ -18691,10 +18694,10 @@
         <v>602</v>
       </c>
       <c r="H508" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I508" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J508" t="s">
         <v>604</v>
@@ -18723,10 +18726,10 @@
         <v>602</v>
       </c>
       <c r="H509" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I509" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J509" t="s">
         <v>604</v>
@@ -18755,10 +18758,10 @@
         <v>602</v>
       </c>
       <c r="H510" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I510" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J510" t="s">
         <v>604</v>
@@ -18851,7 +18854,7 @@
         <v>602</v>
       </c>
       <c r="H513" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I513" t="s">
         <v>612</v>
@@ -18883,7 +18886,7 @@
         <v>602</v>
       </c>
       <c r="H514" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I514" t="s">
         <v>612</v>
@@ -18915,7 +18918,7 @@
         <v>602</v>
       </c>
       <c r="H515" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I515" t="s">
         <v>612</v>
@@ -18979,7 +18982,7 @@
         <v>606</v>
       </c>
       <c r="H517" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I517" t="s">
         <v>606</v>
@@ -19011,7 +19014,7 @@
         <v>606</v>
       </c>
       <c r="H518" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I518" t="s">
         <v>606</v>
@@ -19043,7 +19046,7 @@
         <v>606</v>
       </c>
       <c r="H519" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="I519" t="s">
         <v>606</v>
@@ -19075,7 +19078,7 @@
         <v>602</v>
       </c>
       <c r="H520" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I520" t="s">
         <v>612</v>
@@ -19107,7 +19110,7 @@
         <v>602</v>
       </c>
       <c r="H521" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I521" t="s">
         <v>612</v>
@@ -19171,10 +19174,10 @@
         <v>608</v>
       </c>
       <c r="H523" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I523" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J523" t="s">
         <v>604</v>
@@ -19203,10 +19206,10 @@
         <v>608</v>
       </c>
       <c r="H524" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I524" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J524" t="s">
         <v>604</v>
@@ -19235,10 +19238,10 @@
         <v>602</v>
       </c>
       <c r="H525" t="s">
+        <v>626</v>
+      </c>
+      <c r="I525" t="s">
         <v>627</v>
-      </c>
-      <c r="I525" t="s">
-        <v>628</v>
       </c>
       <c r="J525" t="s">
         <v>604</v>
@@ -19363,10 +19366,10 @@
         <v>602</v>
       </c>
       <c r="H529" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I529" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J529" t="s">
         <v>604</v>
@@ -19427,7 +19430,7 @@
         <v>608</v>
       </c>
       <c r="H531" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I531" t="s">
         <v>610</v>
@@ -19459,7 +19462,7 @@
         <v>608</v>
       </c>
       <c r="H532" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I532" t="s">
         <v>610</v>
@@ -19491,7 +19494,7 @@
         <v>608</v>
       </c>
       <c r="H533" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I533" t="s">
         <v>610</v>
@@ -19523,10 +19526,10 @@
         <v>602</v>
       </c>
       <c r="H534" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I534" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J534" t="s">
         <v>604</v>
@@ -19546,7 +19549,7 @@
         <v>7</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F535" t="s">
         <v>607</v>
@@ -19555,10 +19558,10 @@
         <v>602</v>
       </c>
       <c r="H535" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I535" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J535" t="s">
         <v>604</v>
@@ -19587,7 +19590,7 @@
         <v>606</v>
       </c>
       <c r="H536" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I536" t="s">
         <v>606</v>
@@ -19651,7 +19654,7 @@
         <v>617</v>
       </c>
       <c r="H538" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I538" t="s">
         <v>617</v>
@@ -19683,7 +19686,7 @@
         <v>617</v>
       </c>
       <c r="H539" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I539" t="s">
         <v>617</v>
@@ -19715,7 +19718,7 @@
         <v>606</v>
       </c>
       <c r="H540" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I540" t="s">
         <v>606</v>
@@ -19747,7 +19750,7 @@
         <v>606</v>
       </c>
       <c r="H541" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I541" t="s">
         <v>606</v>
@@ -19782,7 +19785,7 @@
         <v>609</v>
       </c>
       <c r="I542" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J542" t="s">
         <v>604</v>
@@ -19814,7 +19817,7 @@
         <v>609</v>
       </c>
       <c r="I543" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J543" t="s">
         <v>604</v>
@@ -19971,10 +19974,10 @@
         <v>602</v>
       </c>
       <c r="H548" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I548" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J548" t="s">
         <v>604</v>
@@ -20006,7 +20009,7 @@
         <v>611</v>
       </c>
       <c r="I549" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J549" t="s">
         <v>604</v>
@@ -20038,7 +20041,7 @@
         <v>611</v>
       </c>
       <c r="I550" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J550" t="s">
         <v>604</v>
@@ -20134,7 +20137,7 @@
         <v>611</v>
       </c>
       <c r="I553" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J553" t="s">
         <v>604</v>
@@ -20166,7 +20169,7 @@
         <v>611</v>
       </c>
       <c r="I554" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J554" t="s">
         <v>604</v>
@@ -20198,7 +20201,7 @@
         <v>611</v>
       </c>
       <c r="I555" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J555" t="s">
         <v>604</v>
@@ -20355,10 +20358,10 @@
         <v>602</v>
       </c>
       <c r="H560" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I560" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J560" t="s">
         <v>604</v>
@@ -20515,10 +20518,10 @@
         <v>602</v>
       </c>
       <c r="H565" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I565" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J565" t="s">
         <v>604</v>

--- a/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94D6C2C-9370-1249-9AC6-84B5CB583805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FBFC44-8E69-FA48-BE9A-386344AF67DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2014,9 +2014,6 @@
     <t>Titer</t>
   </si>
   <si>
-    <t>Visible</t>
-  </si>
-  <si>
     <t>Water vapor transmission rate (kg m-2 d-1)</t>
   </si>
   <si>
@@ -2030,6 +2027,9 @@
   </si>
   <si>
     <t>Statistics</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -2434,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="142" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="B523" zoomScale="190" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="H541" sqref="H541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3401,7 +3401,7 @@
         <v>623</v>
       </c>
       <c r="I30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J30" t="s">
         <v>604</v>
@@ -3430,7 +3430,7 @@
         <v>606</v>
       </c>
       <c r="H31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I31" t="s">
         <v>606</v>
@@ -3494,7 +3494,7 @@
         <v>606</v>
       </c>
       <c r="H33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I33" t="s">
         <v>606</v>
@@ -3526,7 +3526,7 @@
         <v>606</v>
       </c>
       <c r="H34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I34" t="s">
         <v>606</v>
@@ -3558,7 +3558,7 @@
         <v>606</v>
       </c>
       <c r="H35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I35" t="s">
         <v>606</v>
@@ -3590,7 +3590,7 @@
         <v>606</v>
       </c>
       <c r="H36" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I36" t="s">
         <v>606</v>
@@ -3622,7 +3622,7 @@
         <v>606</v>
       </c>
       <c r="H37" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I37" t="s">
         <v>606</v>
@@ -3654,7 +3654,7 @@
         <v>606</v>
       </c>
       <c r="H38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I38" t="s">
         <v>606</v>
@@ -3686,7 +3686,7 @@
         <v>606</v>
       </c>
       <c r="H39" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I39" t="s">
         <v>606</v>
@@ -3718,7 +3718,7 @@
         <v>606</v>
       </c>
       <c r="H40" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I40" t="s">
         <v>606</v>
@@ -3753,7 +3753,7 @@
         <v>624</v>
       </c>
       <c r="I41" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J41">
         <v>10</v>
@@ -3817,7 +3817,7 @@
         <v>251</v>
       </c>
       <c r="I43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J43" t="s">
         <v>604</v>
@@ -6249,7 +6249,7 @@
         <v>251</v>
       </c>
       <c r="I119" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J119" t="s">
         <v>604</v>
@@ -8774,7 +8774,7 @@
         <v>606</v>
       </c>
       <c r="H198" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I198" t="s">
         <v>606</v>
@@ -9702,7 +9702,7 @@
         <v>606</v>
       </c>
       <c r="H227" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I227" t="s">
         <v>606</v>
@@ -9862,7 +9862,7 @@
         <v>606</v>
       </c>
       <c r="H232" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I232" t="s">
         <v>606</v>
@@ -9894,7 +9894,7 @@
         <v>606</v>
       </c>
       <c r="H233" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I233" t="s">
         <v>606</v>
@@ -9926,7 +9926,7 @@
         <v>606</v>
       </c>
       <c r="H234" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I234" t="s">
         <v>606</v>
@@ -10438,7 +10438,7 @@
         <v>606</v>
       </c>
       <c r="H250" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I250" t="s">
         <v>606</v>
@@ -10726,7 +10726,7 @@
         <v>606</v>
       </c>
       <c r="H259" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I259" t="s">
         <v>606</v>
@@ -10822,7 +10822,7 @@
         <v>606</v>
       </c>
       <c r="H262" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I262" t="s">
         <v>606</v>
@@ -10918,7 +10918,7 @@
         <v>606</v>
       </c>
       <c r="H265" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I265" t="s">
         <v>606</v>
@@ -11046,7 +11046,7 @@
         <v>606</v>
       </c>
       <c r="H269" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I269" t="s">
         <v>606</v>
@@ -11078,7 +11078,7 @@
         <v>606</v>
       </c>
       <c r="H270" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I270" t="s">
         <v>606</v>
@@ -11110,7 +11110,7 @@
         <v>606</v>
       </c>
       <c r="H271" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I271" t="s">
         <v>606</v>
@@ -11910,7 +11910,7 @@
         <v>606</v>
       </c>
       <c r="H296" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I296" t="s">
         <v>606</v>
@@ -11974,7 +11974,7 @@
         <v>606</v>
       </c>
       <c r="H298" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I298" t="s">
         <v>606</v>
@@ -12006,7 +12006,7 @@
         <v>606</v>
       </c>
       <c r="H299" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I299" t="s">
         <v>606</v>
@@ -12326,7 +12326,7 @@
         <v>606</v>
       </c>
       <c r="H309" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I309" t="s">
         <v>606</v>
@@ -15142,7 +15142,7 @@
         <v>606</v>
       </c>
       <c r="H397" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I397" t="s">
         <v>606</v>
@@ -15174,7 +15174,7 @@
         <v>606</v>
       </c>
       <c r="H398" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I398" t="s">
         <v>606</v>
@@ -15302,7 +15302,7 @@
         <v>606</v>
       </c>
       <c r="H402" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I402" t="s">
         <v>606</v>
@@ -15334,7 +15334,7 @@
         <v>606</v>
       </c>
       <c r="H403" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I403" t="s">
         <v>606</v>
@@ -18982,7 +18982,7 @@
         <v>606</v>
       </c>
       <c r="H517" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I517" t="s">
         <v>606</v>
@@ -19014,7 +19014,7 @@
         <v>606</v>
       </c>
       <c r="H518" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I518" t="s">
         <v>606</v>
@@ -19046,7 +19046,7 @@
         <v>606</v>
       </c>
       <c r="H519" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I519" t="s">
         <v>606</v>
@@ -19430,7 +19430,7 @@
         <v>608</v>
       </c>
       <c r="H531" t="s">
-        <v>664</v>
+        <v>611</v>
       </c>
       <c r="I531" t="s">
         <v>610</v>
@@ -19462,7 +19462,7 @@
         <v>608</v>
       </c>
       <c r="H532" t="s">
-        <v>664</v>
+        <v>611</v>
       </c>
       <c r="I532" t="s">
         <v>610</v>
@@ -19494,7 +19494,7 @@
         <v>608</v>
       </c>
       <c r="H533" t="s">
-        <v>664</v>
+        <v>611</v>
       </c>
       <c r="I533" t="s">
         <v>610</v>
@@ -19549,7 +19549,7 @@
         <v>7</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F535" t="s">
         <v>607</v>
@@ -19587,13 +19587,13 @@
         <v>601</v>
       </c>
       <c r="G536" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H536" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="I536" t="s">
-        <v>606</v>
+        <v>665</v>
       </c>
       <c r="J536" t="s">
         <v>604</v>
@@ -19651,13 +19651,13 @@
         <v>601</v>
       </c>
       <c r="G538" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="H538" t="s">
-        <v>666</v>
+        <v>348</v>
       </c>
       <c r="I538" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
       <c r="J538" t="s">
         <v>604</v>
@@ -19683,13 +19683,13 @@
         <v>601</v>
       </c>
       <c r="G539" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="H539" t="s">
-        <v>666</v>
+        <v>348</v>
       </c>
       <c r="I539" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
       <c r="J539" t="s">
         <v>604</v>
@@ -19715,13 +19715,13 @@
         <v>601</v>
       </c>
       <c r="G540" t="s">
-        <v>606</v>
-      </c>
-      <c r="H540" t="s">
-        <v>666</v>
+        <v>608</v>
+      </c>
+      <c r="H540" s="7" t="s">
+        <v>669</v>
       </c>
       <c r="I540" t="s">
-        <v>606</v>
+        <v>665</v>
       </c>
       <c r="J540" t="s">
         <v>604</v>
@@ -19747,13 +19747,13 @@
         <v>601</v>
       </c>
       <c r="G541" t="s">
-        <v>606</v>
-      </c>
-      <c r="H541" t="s">
-        <v>666</v>
+        <v>608</v>
+      </c>
+      <c r="H541" s="7" t="s">
+        <v>669</v>
       </c>
       <c r="I541" t="s">
-        <v>606</v>
+        <v>665</v>
       </c>
       <c r="J541" t="s">
         <v>604</v>

--- a/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD574B7-07B1-C146-99EC-276234688B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A54808C-4BF3-314E-85B9-86DE90130F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6203" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6203" uniqueCount="1232">
   <si>
     <t>DOI</t>
   </si>
@@ -1888,9 +1888,6 @@
     <t>Cell viability</t>
   </si>
   <si>
-    <t>MRI signal</t>
-  </si>
-  <si>
     <t>p-value</t>
   </si>
   <si>
@@ -1906,9 +1903,6 @@
     <t>Cq value</t>
   </si>
   <si>
-    <t>Zeta potential</t>
-  </si>
-  <si>
     <t>Potential</t>
   </si>
   <si>
@@ -1918,9 +1912,6 @@
     <t>Relative expression</t>
   </si>
   <si>
-    <t>Membrane potential</t>
-  </si>
-  <si>
     <t>Optical density</t>
   </si>
   <si>
@@ -1963,9 +1954,6 @@
     <t>Modulus</t>
   </si>
   <si>
-    <t>Tensile modulus</t>
-  </si>
-  <si>
     <t>Biofluid biochemical concentration</t>
   </si>
   <si>
@@ -1993,9 +1981,6 @@
     <t>log bacterial counts</t>
   </si>
   <si>
-    <t>Fraction</t>
-  </si>
-  <si>
     <t>Observed operational taxonomic units</t>
   </si>
   <si>
@@ -3728,6 +3713,9 @@
   </si>
   <si>
     <t>Fig Index</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -4135,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K565"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="G522" zoomScale="189" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="J530" sqref="J530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4150,7 +4138,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4180,12 +4168,12 @@
         <v>599</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4220,7 +4208,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -4255,7 +4243,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -4290,7 +4278,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -4314,10 +4302,10 @@
         <v>601</v>
       </c>
       <c r="I5" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="J5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K5" t="s">
         <v>603</v>
@@ -4325,7 +4313,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -4360,7 +4348,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -4395,7 +4383,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -4430,7 +4418,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -4465,7 +4453,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -4500,7 +4488,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -4535,7 +4523,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -4562,7 +4550,7 @@
         <v>615</v>
       </c>
       <c r="J12" t="s">
-        <v>615</v>
+        <v>1231</v>
       </c>
       <c r="K12" t="s">
         <v>603</v>
@@ -4570,7 +4558,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -4605,7 +4593,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -4640,7 +4628,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -4675,7 +4663,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -4710,7 +4698,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -4745,7 +4733,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -4780,7 +4768,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -4815,7 +4803,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -4850,7 +4838,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -4885,7 +4873,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -4920,7 +4908,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -4955,7 +4943,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -4990,7 +4978,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -5025,7 +5013,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -5060,7 +5048,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -5095,7 +5083,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -5130,7 +5118,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -5165,7 +5153,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -5186,13 +5174,13 @@
         <v>600</v>
       </c>
       <c r="H30" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="I30" t="s">
-        <v>622</v>
+        <v>660</v>
       </c>
       <c r="J30" t="s">
-        <v>665</v>
+        <v>1231</v>
       </c>
       <c r="K30" t="s">
         <v>603</v>
@@ -5200,7 +5188,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
@@ -5224,7 +5212,7 @@
         <v>605</v>
       </c>
       <c r="I31" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J31" t="s">
         <v>605</v>
@@ -5235,7 +5223,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -5270,7 +5258,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -5294,7 +5282,7 @@
         <v>605</v>
       </c>
       <c r="I33" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J33" t="s">
         <v>605</v>
@@ -5305,7 +5293,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
@@ -5329,7 +5317,7 @@
         <v>605</v>
       </c>
       <c r="I34" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J34" t="s">
         <v>605</v>
@@ -5340,7 +5328,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -5364,7 +5352,7 @@
         <v>605</v>
       </c>
       <c r="I35" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J35" t="s">
         <v>605</v>
@@ -5375,7 +5363,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
@@ -5399,7 +5387,7 @@
         <v>605</v>
       </c>
       <c r="I36" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J36" t="s">
         <v>605</v>
@@ -5410,7 +5398,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
@@ -5434,7 +5422,7 @@
         <v>605</v>
       </c>
       <c r="I37" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J37" t="s">
         <v>605</v>
@@ -5445,7 +5433,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
@@ -5469,7 +5457,7 @@
         <v>605</v>
       </c>
       <c r="I38" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J38" t="s">
         <v>605</v>
@@ -5480,7 +5468,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
@@ -5504,7 +5492,7 @@
         <v>605</v>
       </c>
       <c r="I39" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J39" t="s">
         <v>605</v>
@@ -5515,7 +5503,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -5539,7 +5527,7 @@
         <v>605</v>
       </c>
       <c r="I40" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J40" t="s">
         <v>605</v>
@@ -5550,7 +5538,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
@@ -5574,10 +5562,10 @@
         <v>601</v>
       </c>
       <c r="I41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J41" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="K41">
         <v>10</v>
@@ -5585,7 +5573,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -5609,10 +5597,10 @@
         <v>601</v>
       </c>
       <c r="I42" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="J42" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K42" t="s">
         <v>603</v>
@@ -5620,7 +5608,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -5644,10 +5632,10 @@
         <v>601</v>
       </c>
       <c r="I43" t="s">
-        <v>251</v>
+        <v>662</v>
       </c>
       <c r="J43" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="K43" t="s">
         <v>603</v>
@@ -5655,7 +5643,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -5679,10 +5667,10 @@
         <v>601</v>
       </c>
       <c r="I44" t="s">
+        <v>624</v>
+      </c>
+      <c r="J44" t="s">
         <v>625</v>
-      </c>
-      <c r="J44" t="s">
-        <v>626</v>
       </c>
       <c r="K44" t="s">
         <v>603</v>
@@ -5690,7 +5678,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
@@ -5714,10 +5702,10 @@
         <v>601</v>
       </c>
       <c r="I45" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K45" t="s">
         <v>603</v>
@@ -5725,7 +5713,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
@@ -5760,7 +5748,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -5795,7 +5783,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -5830,7 +5818,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -5865,7 +5853,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="B50" t="s">
         <v>38</v>
@@ -5889,10 +5877,10 @@
         <v>601</v>
       </c>
       <c r="I50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J50" t="s">
-        <v>629</v>
+        <v>1231</v>
       </c>
       <c r="K50" t="s">
         <v>603</v>
@@ -5900,7 +5888,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
@@ -5935,7 +5923,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -5959,10 +5947,10 @@
         <v>601</v>
       </c>
       <c r="I52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K52" t="s">
         <v>603</v>
@@ -5970,7 +5958,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -6005,7 +5993,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="B54" t="s">
         <v>40</v>
@@ -6040,7 +6028,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B55" t="s">
         <v>41</v>
@@ -6075,7 +6063,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="B56" t="s">
         <v>41</v>
@@ -6110,7 +6098,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
@@ -6145,7 +6133,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
@@ -6180,7 +6168,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="B59" t="s">
         <v>41</v>
@@ -6215,7 +6203,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="B60" t="s">
         <v>41</v>
@@ -6242,7 +6230,7 @@
         <v>610</v>
       </c>
       <c r="J60" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K60" t="s">
         <v>603</v>
@@ -6250,7 +6238,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
@@ -6277,7 +6265,7 @@
         <v>610</v>
       </c>
       <c r="J61" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K61" t="s">
         <v>603</v>
@@ -6285,7 +6273,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="B62" t="s">
         <v>41</v>
@@ -6312,7 +6300,7 @@
         <v>610</v>
       </c>
       <c r="J62" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K62" t="s">
         <v>603</v>
@@ -6320,7 +6308,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B63" t="s">
         <v>41</v>
@@ -6347,7 +6335,7 @@
         <v>610</v>
       </c>
       <c r="J63" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K63" t="s">
         <v>603</v>
@@ -6355,7 +6343,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -6382,7 +6370,7 @@
         <v>610</v>
       </c>
       <c r="J64" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K64" t="s">
         <v>603</v>
@@ -6390,7 +6378,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="B65" t="s">
         <v>41</v>
@@ -6417,7 +6405,7 @@
         <v>610</v>
       </c>
       <c r="J65" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K65" t="s">
         <v>603</v>
@@ -6425,7 +6413,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="B66" t="s">
         <v>41</v>
@@ -6460,7 +6448,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="B67" t="s">
         <v>41</v>
@@ -6495,7 +6483,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="B68" t="s">
         <v>41</v>
@@ -6530,7 +6518,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
@@ -6565,7 +6553,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="B70" t="s">
         <v>47</v>
@@ -6600,7 +6588,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="B71" t="s">
         <v>48</v>
@@ -6624,10 +6612,10 @@
         <v>616</v>
       </c>
       <c r="I71" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J71" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K71" t="s">
         <v>603</v>
@@ -6635,7 +6623,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
@@ -6659,10 +6647,10 @@
         <v>616</v>
       </c>
       <c r="I72" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J72" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K72" t="s">
         <v>603</v>
@@ -6670,7 +6658,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
@@ -6694,10 +6682,10 @@
         <v>616</v>
       </c>
       <c r="I73" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J73" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K73" t="s">
         <v>603</v>
@@ -6705,7 +6693,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
@@ -6729,10 +6717,10 @@
         <v>616</v>
       </c>
       <c r="I74" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J74" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K74" t="s">
         <v>603</v>
@@ -6740,7 +6728,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
@@ -6764,10 +6752,10 @@
         <v>616</v>
       </c>
       <c r="I75" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J75" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K75" t="s">
         <v>603</v>
@@ -6775,7 +6763,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
@@ -6799,10 +6787,10 @@
         <v>616</v>
       </c>
       <c r="I76" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J76" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K76" t="s">
         <v>603</v>
@@ -6810,7 +6798,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
@@ -6834,10 +6822,10 @@
         <v>616</v>
       </c>
       <c r="I77" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J77" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K77" t="s">
         <v>603</v>
@@ -6845,7 +6833,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
@@ -6869,10 +6857,10 @@
         <v>616</v>
       </c>
       <c r="I78" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J78" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K78" t="s">
         <v>603</v>
@@ -6880,7 +6868,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="B79" t="s">
         <v>49</v>
@@ -6907,7 +6895,7 @@
         <v>610</v>
       </c>
       <c r="J79" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="K79" t="s">
         <v>603</v>
@@ -6915,7 +6903,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="B80" t="s">
         <v>49</v>
@@ -6942,7 +6930,7 @@
         <v>610</v>
       </c>
       <c r="J80" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="K80" t="s">
         <v>603</v>
@@ -6950,7 +6938,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="B81" t="s">
         <v>50</v>
@@ -6985,7 +6973,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B82" t="s">
         <v>51</v>
@@ -7009,10 +6997,10 @@
         <v>607</v>
       </c>
       <c r="I82" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K82" t="s">
         <v>603</v>
@@ -7020,7 +7008,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="B83" t="s">
         <v>51</v>
@@ -7044,10 +7032,10 @@
         <v>616</v>
       </c>
       <c r="I83" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J83" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K83" t="s">
         <v>603</v>
@@ -7055,7 +7043,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="B84" t="s">
         <v>51</v>
@@ -7079,10 +7067,10 @@
         <v>616</v>
       </c>
       <c r="I84" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J84" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K84" t="s">
         <v>603</v>
@@ -7090,7 +7078,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="B85" t="s">
         <v>51</v>
@@ -7114,10 +7102,10 @@
         <v>616</v>
       </c>
       <c r="I85" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J85" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K85" t="s">
         <v>603</v>
@@ -7125,7 +7113,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="B86" t="s">
         <v>51</v>
@@ -7149,10 +7137,10 @@
         <v>616</v>
       </c>
       <c r="I86" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J86" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K86" t="s">
         <v>603</v>
@@ -7160,7 +7148,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="B87" t="s">
         <v>51</v>
@@ -7184,10 +7172,10 @@
         <v>616</v>
       </c>
       <c r="I87" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J87" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K87" t="s">
         <v>603</v>
@@ -7195,7 +7183,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="B88" t="s">
         <v>51</v>
@@ -7219,10 +7207,10 @@
         <v>616</v>
       </c>
       <c r="I88" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J88" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K88" t="s">
         <v>603</v>
@@ -7230,7 +7218,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="B89" t="s">
         <v>51</v>
@@ -7254,10 +7242,10 @@
         <v>616</v>
       </c>
       <c r="I89" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J89" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K89" t="s">
         <v>603</v>
@@ -7265,7 +7253,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="B90" t="s">
         <v>51</v>
@@ -7300,7 +7288,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="B91" t="s">
         <v>51</v>
@@ -7324,10 +7312,10 @@
         <v>616</v>
       </c>
       <c r="I91" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J91" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K91" t="s">
         <v>603</v>
@@ -7335,7 +7323,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="B92" t="s">
         <v>51</v>
@@ -7359,10 +7347,10 @@
         <v>616</v>
       </c>
       <c r="I92" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J92" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K92" t="s">
         <v>603</v>
@@ -7370,7 +7358,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="B93" t="s">
         <v>51</v>
@@ -7394,10 +7382,10 @@
         <v>616</v>
       </c>
       <c r="I93" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J93" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K93" t="s">
         <v>603</v>
@@ -7405,7 +7393,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="B94" t="s">
         <v>52</v>
@@ -7429,10 +7417,10 @@
         <v>601</v>
       </c>
       <c r="I94" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="J94" t="s">
-        <v>629</v>
+        <v>1231</v>
       </c>
       <c r="K94" t="s">
         <v>603</v>
@@ -7440,7 +7428,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="B95" t="s">
         <v>53</v>
@@ -7464,10 +7452,10 @@
         <v>601</v>
       </c>
       <c r="I95" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="J95" t="s">
-        <v>633</v>
+        <v>1231</v>
       </c>
       <c r="K95" t="s">
         <v>603</v>
@@ -7475,7 +7463,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="B96" t="s">
         <v>54</v>
@@ -7490,7 +7478,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G96" t="s">
         <v>606</v>
@@ -7510,7 +7498,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="B97" t="s">
         <v>54</v>
@@ -7534,10 +7522,10 @@
         <v>601</v>
       </c>
       <c r="I97" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J97" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K97" t="s">
         <v>603</v>
@@ -7545,7 +7533,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="B98" t="s">
         <v>54</v>
@@ -7580,7 +7568,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="B99" t="s">
         <v>54</v>
@@ -7615,7 +7603,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="B100" t="s">
         <v>55</v>
@@ -7650,7 +7638,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="B101" t="s">
         <v>56</v>
@@ -7685,7 +7673,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="B102" t="s">
         <v>56</v>
@@ -7720,7 +7708,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="B103" t="s">
         <v>57</v>
@@ -7755,7 +7743,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="B104" t="s">
         <v>57</v>
@@ -7790,7 +7778,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
@@ -7825,7 +7813,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="B106" t="s">
         <v>57</v>
@@ -7860,7 +7848,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B107" t="s">
         <v>57</v>
@@ -7895,7 +7883,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B108" t="s">
         <v>57</v>
@@ -7930,7 +7918,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="B109" t="s">
         <v>57</v>
@@ -7965,7 +7953,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="B110" t="s">
         <v>57</v>
@@ -7989,10 +7977,10 @@
         <v>601</v>
       </c>
       <c r="I110" t="s">
+        <v>624</v>
+      </c>
+      <c r="J110" t="s">
         <v>625</v>
-      </c>
-      <c r="J110" t="s">
-        <v>626</v>
       </c>
       <c r="K110" t="s">
         <v>603</v>
@@ -8000,7 +7988,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="B111" t="s">
         <v>57</v>
@@ -8024,10 +8012,10 @@
         <v>601</v>
       </c>
       <c r="I111" t="s">
+        <v>624</v>
+      </c>
+      <c r="J111" t="s">
         <v>625</v>
-      </c>
-      <c r="J111" t="s">
-        <v>626</v>
       </c>
       <c r="K111" t="s">
         <v>603</v>
@@ -8035,7 +8023,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B112" t="s">
         <v>58</v>
@@ -8070,7 +8058,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B113" t="s">
         <v>59</v>
@@ -8105,7 +8093,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="B114" t="s">
         <v>59</v>
@@ -8140,7 +8128,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B115" t="s">
         <v>59</v>
@@ -8175,7 +8163,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="B116" t="s">
         <v>59</v>
@@ -8210,7 +8198,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B117" t="s">
         <v>59</v>
@@ -8245,7 +8233,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="B118" t="s">
         <v>59</v>
@@ -8269,10 +8257,10 @@
         <v>601</v>
       </c>
       <c r="I118" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="J118" t="s">
-        <v>635</v>
+        <v>1231</v>
       </c>
       <c r="K118" t="s">
         <v>603</v>
@@ -8280,7 +8268,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B119" t="s">
         <v>59</v>
@@ -8304,10 +8292,10 @@
         <v>601</v>
       </c>
       <c r="I119" t="s">
-        <v>251</v>
+        <v>662</v>
       </c>
       <c r="J119" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="K119" t="s">
         <v>603</v>
@@ -8315,7 +8303,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="B120" t="s">
         <v>59</v>
@@ -8339,10 +8327,10 @@
         <v>601</v>
       </c>
       <c r="I120" t="s">
+        <v>624</v>
+      </c>
+      <c r="J120" t="s">
         <v>625</v>
-      </c>
-      <c r="J120" t="s">
-        <v>626</v>
       </c>
       <c r="K120" t="s">
         <v>603</v>
@@ -8350,7 +8338,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B121" t="s">
         <v>59</v>
@@ -8385,7 +8373,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B122" t="s">
         <v>59</v>
@@ -8420,7 +8408,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B123" t="s">
         <v>59</v>
@@ -8455,7 +8443,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="B124" t="s">
         <v>59</v>
@@ -8490,7 +8478,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="B125" t="s">
         <v>59</v>
@@ -8525,7 +8513,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="B126" t="s">
         <v>59</v>
@@ -8560,7 +8548,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B127" t="s">
         <v>59</v>
@@ -8595,7 +8583,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B128" t="s">
         <v>59</v>
@@ -8630,7 +8618,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="B129" t="s">
         <v>61</v>
@@ -8665,7 +8653,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="B130" t="s">
         <v>61</v>
@@ -8689,10 +8677,10 @@
         <v>601</v>
       </c>
       <c r="I130" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J130" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K130" t="s">
         <v>603</v>
@@ -8700,7 +8688,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="B131" t="s">
         <v>61</v>
@@ -8735,7 +8723,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B132" t="s">
         <v>62</v>
@@ -8770,7 +8758,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="B133" t="s">
         <v>62</v>
@@ -8794,10 +8782,10 @@
         <v>601</v>
       </c>
       <c r="I133" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J133" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K133" t="s">
         <v>603</v>
@@ -8805,7 +8793,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="B134" t="s">
         <v>63</v>
@@ -8829,10 +8817,10 @@
         <v>601</v>
       </c>
       <c r="I134" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="J134" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K134" t="s">
         <v>603</v>
@@ -8840,7 +8828,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="B135" t="s">
         <v>63</v>
@@ -8864,10 +8852,10 @@
         <v>601</v>
       </c>
       <c r="I135" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="J135" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K135" t="s">
         <v>603</v>
@@ -8875,7 +8863,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="B136" t="s">
         <v>63</v>
@@ -8899,10 +8887,10 @@
         <v>601</v>
       </c>
       <c r="I136" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="J136" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K136" t="s">
         <v>603</v>
@@ -8910,7 +8898,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="B137" t="s">
         <v>63</v>
@@ -8934,10 +8922,10 @@
         <v>601</v>
       </c>
       <c r="I137" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="J137" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K137" t="s">
         <v>603</v>
@@ -8945,7 +8933,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B138" t="s">
         <v>63</v>
@@ -8969,10 +8957,10 @@
         <v>601</v>
       </c>
       <c r="I138" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="J138" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K138" t="s">
         <v>603</v>
@@ -8980,7 +8968,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="B139" t="s">
         <v>63</v>
@@ -9004,10 +8992,10 @@
         <v>601</v>
       </c>
       <c r="I139" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="J139" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K139" t="s">
         <v>603</v>
@@ -9015,7 +9003,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="B140" t="s">
         <v>64</v>
@@ -9050,7 +9038,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="B141" t="s">
         <v>65</v>
@@ -9074,10 +9062,10 @@
         <v>601</v>
       </c>
       <c r="I141" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J141" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K141" t="s">
         <v>603</v>
@@ -9085,7 +9073,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B142" t="s">
         <v>65</v>
@@ -9109,10 +9097,10 @@
         <v>601</v>
       </c>
       <c r="I142" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J142" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K142" t="s">
         <v>603</v>
@@ -9120,7 +9108,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B143" t="s">
         <v>66</v>
@@ -9147,7 +9135,7 @@
         <v>304</v>
       </c>
       <c r="J143" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K143" t="s">
         <v>603</v>
@@ -9155,7 +9143,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="B144" t="s">
         <v>67</v>
@@ -9190,7 +9178,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="B145" t="s">
         <v>67</v>
@@ -9225,7 +9213,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="B146" t="s">
         <v>67</v>
@@ -9249,10 +9237,10 @@
         <v>601</v>
       </c>
       <c r="I146" t="s">
+        <v>624</v>
+      </c>
+      <c r="J146" t="s">
         <v>625</v>
-      </c>
-      <c r="J146" t="s">
-        <v>626</v>
       </c>
       <c r="K146" t="s">
         <v>603</v>
@@ -9260,7 +9248,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="B147" t="s">
         <v>67</v>
@@ -9295,7 +9283,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="B148" t="s">
         <v>67</v>
@@ -9330,7 +9318,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B149" t="s">
         <v>67</v>
@@ -9365,7 +9353,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B150" t="s">
         <v>67</v>
@@ -9389,10 +9377,10 @@
         <v>616</v>
       </c>
       <c r="I150" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J150" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K150" t="s">
         <v>603</v>
@@ -9400,7 +9388,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="B151" t="s">
         <v>67</v>
@@ -9424,10 +9412,10 @@
         <v>616</v>
       </c>
       <c r="I151" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J151" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K151" t="s">
         <v>603</v>
@@ -9435,7 +9423,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="B152" t="s">
         <v>68</v>
@@ -9459,10 +9447,10 @@
         <v>601</v>
       </c>
       <c r="I152" t="s">
-        <v>311</v>
+        <v>635</v>
       </c>
       <c r="J152" t="s">
-        <v>638</v>
+        <v>1231</v>
       </c>
       <c r="K152" t="s">
         <v>603</v>
@@ -9470,7 +9458,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="B153" t="s">
         <v>68</v>
@@ -9494,10 +9482,10 @@
         <v>601</v>
       </c>
       <c r="I153" t="s">
-        <v>311</v>
+        <v>635</v>
       </c>
       <c r="J153" t="s">
-        <v>638</v>
+        <v>1231</v>
       </c>
       <c r="K153" t="s">
         <v>603</v>
@@ -9505,7 +9493,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="B154" t="s">
         <v>68</v>
@@ -9529,10 +9517,10 @@
         <v>601</v>
       </c>
       <c r="I154" t="s">
-        <v>311</v>
+        <v>635</v>
       </c>
       <c r="J154" t="s">
-        <v>638</v>
+        <v>1231</v>
       </c>
       <c r="K154" t="s">
         <v>603</v>
@@ -9540,7 +9528,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="B155" t="s">
         <v>68</v>
@@ -9564,10 +9552,10 @@
         <v>601</v>
       </c>
       <c r="I155" t="s">
-        <v>311</v>
+        <v>635</v>
       </c>
       <c r="J155" t="s">
-        <v>638</v>
+        <v>1231</v>
       </c>
       <c r="K155" t="s">
         <v>603</v>
@@ -9575,7 +9563,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="B156" t="s">
         <v>69</v>
@@ -9610,7 +9598,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B157" t="s">
         <v>69</v>
@@ -9645,7 +9633,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B158" t="s">
         <v>70</v>
@@ -9680,7 +9668,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="B159" t="s">
         <v>71</v>
@@ -9704,10 +9692,10 @@
         <v>601</v>
       </c>
       <c r="I159" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J159" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="K159" t="s">
         <v>603</v>
@@ -9715,7 +9703,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="B160" t="s">
         <v>71</v>
@@ -9739,7 +9727,7 @@
         <v>601</v>
       </c>
       <c r="I160" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J160" t="s">
         <v>611</v>
@@ -9750,7 +9738,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="B161" t="s">
         <v>71</v>
@@ -9774,7 +9762,7 @@
         <v>601</v>
       </c>
       <c r="I161" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J161" t="s">
         <v>611</v>
@@ -9785,7 +9773,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="B162" t="s">
         <v>71</v>
@@ -9809,7 +9797,7 @@
         <v>601</v>
       </c>
       <c r="I162" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J162" t="s">
         <v>611</v>
@@ -9820,7 +9808,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="B163" t="s">
         <v>71</v>
@@ -9855,7 +9843,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="B164" t="s">
         <v>71</v>
@@ -9890,7 +9878,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="B165" t="s">
         <v>71</v>
@@ -9925,7 +9913,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="B166" t="s">
         <v>72</v>
@@ -9960,7 +9948,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="B167" t="s">
         <v>73</v>
@@ -9984,10 +9972,10 @@
         <v>601</v>
       </c>
       <c r="I167" t="s">
+        <v>624</v>
+      </c>
+      <c r="J167" t="s">
         <v>625</v>
-      </c>
-      <c r="J167" t="s">
-        <v>626</v>
       </c>
       <c r="K167" t="s">
         <v>603</v>
@@ -9995,7 +9983,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="B168" t="s">
         <v>73</v>
@@ -10019,10 +10007,10 @@
         <v>601</v>
       </c>
       <c r="I168" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J168" t="s">
-        <v>629</v>
+        <v>1231</v>
       </c>
       <c r="K168" t="s">
         <v>603</v>
@@ -10030,7 +10018,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="B169" t="s">
         <v>74</v>
@@ -10065,7 +10053,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="B170" t="s">
         <v>75</v>
@@ -10089,7 +10077,7 @@
         <v>601</v>
       </c>
       <c r="I170" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J170" t="s">
         <v>611</v>
@@ -10100,7 +10088,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="B171" t="s">
         <v>75</v>
@@ -10124,7 +10112,7 @@
         <v>601</v>
       </c>
       <c r="I171" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J171" t="s">
         <v>613</v>
@@ -10135,7 +10123,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="B172" t="s">
         <v>75</v>
@@ -10159,7 +10147,7 @@
         <v>601</v>
       </c>
       <c r="I172" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J172" t="s">
         <v>613</v>
@@ -10170,7 +10158,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B173" t="s">
         <v>75</v>
@@ -10194,7 +10182,7 @@
         <v>601</v>
       </c>
       <c r="I173" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J173" t="s">
         <v>611</v>
@@ -10205,7 +10193,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="B174" t="s">
         <v>76</v>
@@ -10229,7 +10217,7 @@
         <v>601</v>
       </c>
       <c r="I174" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J174" t="s">
         <v>611</v>
@@ -10240,7 +10228,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="B175" t="s">
         <v>77</v>
@@ -10275,7 +10263,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B176" t="s">
         <v>78</v>
@@ -10299,10 +10287,10 @@
         <v>601</v>
       </c>
       <c r="I176" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J176" t="s">
-        <v>629</v>
+        <v>1231</v>
       </c>
       <c r="K176" t="s">
         <v>603</v>
@@ -10310,7 +10298,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="B177" t="s">
         <v>79</v>
@@ -10345,7 +10333,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="B178" t="s">
         <v>79</v>
@@ -10380,7 +10368,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="B179" t="s">
         <v>80</v>
@@ -10415,7 +10403,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B180" t="s">
         <v>80</v>
@@ -10450,7 +10438,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="B181" t="s">
         <v>80</v>
@@ -10485,7 +10473,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="B182" t="s">
         <v>81</v>
@@ -10520,7 +10508,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B183" t="s">
         <v>82</v>
@@ -10555,7 +10543,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B184" t="s">
         <v>83</v>
@@ -10590,7 +10578,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B185" t="s">
         <v>84</v>
@@ -10625,7 +10613,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B186" t="s">
         <v>85</v>
@@ -10660,7 +10648,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B187" t="s">
         <v>85</v>
@@ -10695,7 +10683,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B188" t="s">
         <v>85</v>
@@ -10730,7 +10718,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B189" t="s">
         <v>85</v>
@@ -10765,7 +10753,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B190" t="s">
         <v>85</v>
@@ -10800,7 +10788,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B191" t="s">
         <v>85</v>
@@ -10835,7 +10823,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="B192" t="s">
         <v>85</v>
@@ -10870,7 +10858,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B193" t="s">
         <v>85</v>
@@ -10905,7 +10893,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B194" t="s">
         <v>85</v>
@@ -10940,7 +10928,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B195" t="s">
         <v>85</v>
@@ -10975,7 +10963,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B196" t="s">
         <v>85</v>
@@ -11010,7 +10998,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="B197" t="s">
         <v>85</v>
@@ -11045,7 +11033,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B198" t="s">
         <v>85</v>
@@ -11069,7 +11057,7 @@
         <v>605</v>
       </c>
       <c r="I198" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J198" t="s">
         <v>605</v>
@@ -11080,7 +11068,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B199" t="s">
         <v>85</v>
@@ -11115,7 +11103,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B200" t="s">
         <v>85</v>
@@ -11150,7 +11138,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B201" t="s">
         <v>91</v>
@@ -11177,7 +11165,7 @@
         <v>348</v>
       </c>
       <c r="J201" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K201" t="s">
         <v>603</v>
@@ -11185,7 +11173,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B202" t="s">
         <v>92</v>
@@ -11212,7 +11200,7 @@
         <v>348</v>
       </c>
       <c r="J202" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K202" t="s">
         <v>603</v>
@@ -11220,7 +11208,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B203" t="s">
         <v>92</v>
@@ -11247,7 +11235,7 @@
         <v>348</v>
       </c>
       <c r="J203" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K203" t="s">
         <v>603</v>
@@ -11255,7 +11243,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B204" t="s">
         <v>93</v>
@@ -11290,7 +11278,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B205" t="s">
         <v>93</v>
@@ -11325,7 +11313,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B206" t="s">
         <v>93</v>
@@ -11360,7 +11348,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B207" t="s">
         <v>93</v>
@@ -11395,7 +11383,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B208" t="s">
         <v>93</v>
@@ -11430,7 +11418,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B209" t="s">
         <v>94</v>
@@ -11454,10 +11442,10 @@
         <v>616</v>
       </c>
       <c r="I209" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J209" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K209" t="s">
         <v>603</v>
@@ -11465,7 +11453,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B210" t="s">
         <v>95</v>
@@ -11489,10 +11477,10 @@
         <v>601</v>
       </c>
       <c r="I210" t="s">
+        <v>624</v>
+      </c>
+      <c r="J210" t="s">
         <v>625</v>
-      </c>
-      <c r="J210" t="s">
-        <v>626</v>
       </c>
       <c r="K210" t="s">
         <v>603</v>
@@ -11500,7 +11488,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B211" t="s">
         <v>96</v>
@@ -11535,7 +11523,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B212" t="s">
         <v>96</v>
@@ -11570,7 +11558,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B213" t="s">
         <v>97</v>
@@ -11597,7 +11585,7 @@
         <v>610</v>
       </c>
       <c r="J213" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K213" t="s">
         <v>603</v>
@@ -11605,7 +11593,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B214" t="s">
         <v>97</v>
@@ -11629,10 +11617,10 @@
         <v>601</v>
       </c>
       <c r="I214" t="s">
+        <v>624</v>
+      </c>
+      <c r="J214" t="s">
         <v>625</v>
-      </c>
-      <c r="J214" t="s">
-        <v>626</v>
       </c>
       <c r="K214" t="s">
         <v>603</v>
@@ -11640,7 +11628,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B215" t="s">
         <v>97</v>
@@ -11664,10 +11652,10 @@
         <v>601</v>
       </c>
       <c r="I215" t="s">
+        <v>624</v>
+      </c>
+      <c r="J215" t="s">
         <v>625</v>
-      </c>
-      <c r="J215" t="s">
-        <v>626</v>
       </c>
       <c r="K215" t="s">
         <v>603</v>
@@ -11675,7 +11663,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B216" t="s">
         <v>98</v>
@@ -11710,7 +11698,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B217" t="s">
         <v>98</v>
@@ -11745,7 +11733,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B218" t="s">
         <v>99</v>
@@ -11769,10 +11757,10 @@
         <v>601</v>
       </c>
       <c r="I218" t="s">
+        <v>624</v>
+      </c>
+      <c r="J218" t="s">
         <v>625</v>
-      </c>
-      <c r="J218" t="s">
-        <v>626</v>
       </c>
       <c r="K218" t="s">
         <v>603</v>
@@ -11780,7 +11768,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B219" t="s">
         <v>100</v>
@@ -11815,7 +11803,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B220" t="s">
         <v>100</v>
@@ -11850,7 +11838,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B221" t="s">
         <v>101</v>
@@ -11885,7 +11873,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B222" t="s">
         <v>101</v>
@@ -11920,7 +11908,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B223" t="s">
         <v>102</v>
@@ -11955,7 +11943,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B224" t="s">
         <v>102</v>
@@ -11990,7 +11978,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B225" t="s">
         <v>102</v>
@@ -12014,10 +12002,10 @@
         <v>601</v>
       </c>
       <c r="I225" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J225" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K225" t="s">
         <v>603</v>
@@ -12025,7 +12013,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B226" t="s">
         <v>102</v>
@@ -12040,7 +12028,7 @@
         <v>7</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G226" t="s">
         <v>600</v>
@@ -12060,7 +12048,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B227" t="s">
         <v>103</v>
@@ -12084,7 +12072,7 @@
         <v>605</v>
       </c>
       <c r="I227" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J227" t="s">
         <v>605</v>
@@ -12095,7 +12083,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B228" t="s">
         <v>104</v>
@@ -12130,7 +12118,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B229" t="s">
         <v>104</v>
@@ -12165,7 +12153,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B230" t="s">
         <v>104</v>
@@ -12200,7 +12188,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B231" t="s">
         <v>105</v>
@@ -12235,7 +12223,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B232" t="s">
         <v>105</v>
@@ -12259,7 +12247,7 @@
         <v>605</v>
       </c>
       <c r="I232" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J232" t="s">
         <v>605</v>
@@ -12270,7 +12258,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B233" t="s">
         <v>105</v>
@@ -12294,7 +12282,7 @@
         <v>605</v>
       </c>
       <c r="I233" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J233" t="s">
         <v>605</v>
@@ -12305,7 +12293,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B234" t="s">
         <v>105</v>
@@ -12329,7 +12317,7 @@
         <v>605</v>
       </c>
       <c r="I234" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J234" t="s">
         <v>605</v>
@@ -12340,7 +12328,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="B235" t="s">
         <v>106</v>
@@ -12364,10 +12352,10 @@
         <v>601</v>
       </c>
       <c r="I235" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J235" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K235" t="s">
         <v>603</v>
@@ -12375,7 +12363,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="B236" t="s">
         <v>106</v>
@@ -12410,7 +12398,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B237" t="s">
         <v>106</v>
@@ -12445,7 +12433,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="B238" t="s">
         <v>106</v>
@@ -12480,7 +12468,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B239" t="s">
         <v>106</v>
@@ -12515,7 +12503,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B240" t="s">
         <v>106</v>
@@ -12550,7 +12538,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B241" t="s">
         <v>106</v>
@@ -12585,7 +12573,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B242" t="s">
         <v>107</v>
@@ -12609,7 +12597,7 @@
         <v>601</v>
       </c>
       <c r="I242" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J242" t="s">
         <v>613</v>
@@ -12620,7 +12608,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B243" t="s">
         <v>108</v>
@@ -12644,7 +12632,7 @@
         <v>601</v>
       </c>
       <c r="I243" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="J243" t="s">
         <v>613</v>
@@ -12655,7 +12643,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="B244" t="s">
         <v>109</v>
@@ -12690,7 +12678,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B245" t="s">
         <v>110</v>
@@ -12725,7 +12713,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B246" t="s">
         <v>111</v>
@@ -12760,7 +12748,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="8" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B247" t="s">
         <v>111</v>
@@ -12795,7 +12783,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B248" t="s">
         <v>112</v>
@@ -12819,10 +12807,10 @@
         <v>601</v>
       </c>
       <c r="I248" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J248" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K248" t="s">
         <v>603</v>
@@ -12830,7 +12818,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B249" t="s">
         <v>113</v>
@@ -12865,7 +12853,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B250" t="s">
         <v>114</v>
@@ -12889,7 +12877,7 @@
         <v>605</v>
       </c>
       <c r="I250" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J250" t="s">
         <v>605</v>
@@ -12900,7 +12888,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B251" t="s">
         <v>115</v>
@@ -12935,7 +12923,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="B252" t="s">
         <v>116</v>
@@ -12970,7 +12958,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B253" t="s">
         <v>116</v>
@@ -13005,7 +12993,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B254" t="s">
         <v>116</v>
@@ -13040,7 +13028,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B255" t="s">
         <v>117</v>
@@ -13075,7 +13063,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B256" t="s">
         <v>117</v>
@@ -13110,7 +13098,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="8" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B257" t="s">
         <v>117</v>
@@ -13145,7 +13133,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B258" t="s">
         <v>118</v>
@@ -13169,10 +13157,10 @@
         <v>601</v>
       </c>
       <c r="I258" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="J258" t="s">
-        <v>653</v>
+        <v>1231</v>
       </c>
       <c r="K258" t="s">
         <v>603</v>
@@ -13180,7 +13168,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="8" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B259" t="s">
         <v>119</v>
@@ -13204,7 +13192,7 @@
         <v>605</v>
       </c>
       <c r="I259" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J259" t="s">
         <v>605</v>
@@ -13215,7 +13203,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B260" t="s">
         <v>119</v>
@@ -13239,7 +13227,7 @@
         <v>605</v>
       </c>
       <c r="I260" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J260" t="s">
         <v>605</v>
@@ -13250,7 +13238,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="8" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B261" t="s">
         <v>119</v>
@@ -13274,7 +13262,7 @@
         <v>605</v>
       </c>
       <c r="I261" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J261" t="s">
         <v>605</v>
@@ -13285,7 +13273,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="8" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B262" t="s">
         <v>119</v>
@@ -13309,7 +13297,7 @@
         <v>605</v>
       </c>
       <c r="I262" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J262" t="s">
         <v>605</v>
@@ -13320,7 +13308,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B263" t="s">
         <v>119</v>
@@ -13355,7 +13343,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="B264" t="s">
         <v>119</v>
@@ -13390,7 +13378,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="8" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B265" t="s">
         <v>119</v>
@@ -13414,7 +13402,7 @@
         <v>605</v>
       </c>
       <c r="I265" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J265" t="s">
         <v>605</v>
@@ -13425,7 +13413,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="B266" t="s">
         <v>119</v>
@@ -13449,7 +13437,7 @@
         <v>605</v>
       </c>
       <c r="I266" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J266" t="s">
         <v>605</v>
@@ -13460,7 +13448,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="8" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B267" t="s">
         <v>119</v>
@@ -13484,7 +13472,7 @@
         <v>605</v>
       </c>
       <c r="I267" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J267" t="s">
         <v>605</v>
@@ -13495,7 +13483,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="B268" t="s">
         <v>119</v>
@@ -13519,7 +13507,7 @@
         <v>605</v>
       </c>
       <c r="I268" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J268" t="s">
         <v>605</v>
@@ -13530,7 +13518,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="8" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B269" t="s">
         <v>119</v>
@@ -13554,7 +13542,7 @@
         <v>605</v>
       </c>
       <c r="I269" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J269" t="s">
         <v>605</v>
@@ -13565,7 +13553,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="B270" t="s">
         <v>119</v>
@@ -13589,7 +13577,7 @@
         <v>605</v>
       </c>
       <c r="I270" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J270" t="s">
         <v>605</v>
@@ -13600,7 +13588,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="8" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="B271" t="s">
         <v>119</v>
@@ -13624,7 +13612,7 @@
         <v>605</v>
       </c>
       <c r="I271" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J271" t="s">
         <v>605</v>
@@ -13635,7 +13623,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B272" t="s">
         <v>119</v>
@@ -13670,7 +13658,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="8" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B273" t="s">
         <v>120</v>
@@ -13694,10 +13682,10 @@
         <v>607</v>
       </c>
       <c r="I273" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J273" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K273" t="s">
         <v>603</v>
@@ -13705,7 +13693,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B274" t="s">
         <v>120</v>
@@ -13720,7 +13708,7 @@
         <v>7</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="G274" t="s">
         <v>600</v>
@@ -13729,10 +13717,10 @@
         <v>607</v>
       </c>
       <c r="I274" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J274" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K274" t="s">
         <v>603</v>
@@ -13740,7 +13728,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="B275" t="s">
         <v>120</v>
@@ -13764,7 +13752,7 @@
         <v>601</v>
       </c>
       <c r="I275" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J275" t="s">
         <v>617</v>
@@ -13775,7 +13763,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="B276" t="s">
         <v>120</v>
@@ -13790,7 +13778,7 @@
         <v>7</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G276" t="s">
         <v>606</v>
@@ -13799,7 +13787,7 @@
         <v>601</v>
       </c>
       <c r="I276" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J276" t="s">
         <v>613</v>
@@ -13810,7 +13798,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="8" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B277" t="s">
         <v>121</v>
@@ -13845,7 +13833,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B278" t="s">
         <v>122</v>
@@ -13880,7 +13868,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="8" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="B279" t="s">
         <v>122</v>
@@ -13915,7 +13903,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B280" t="s">
         <v>122</v>
@@ -13950,7 +13938,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="8" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B281" t="s">
         <v>123</v>
@@ -13974,10 +13962,10 @@
         <v>601</v>
       </c>
       <c r="I281" t="s">
+        <v>624</v>
+      </c>
+      <c r="J281" t="s">
         <v>625</v>
-      </c>
-      <c r="J281" t="s">
-        <v>626</v>
       </c>
       <c r="K281" t="s">
         <v>603</v>
@@ -13985,7 +13973,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="8" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B282" t="s">
         <v>123</v>
@@ -14009,10 +13997,10 @@
         <v>601</v>
       </c>
       <c r="I282" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="J282" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K282" t="s">
         <v>603</v>
@@ -14020,7 +14008,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B283" t="s">
         <v>123</v>
@@ -14044,10 +14032,10 @@
         <v>601</v>
       </c>
       <c r="I283" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="J283" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K283" t="s">
         <v>603</v>
@@ -14055,7 +14043,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="8" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B284" t="s">
         <v>123</v>
@@ -14079,10 +14067,10 @@
         <v>601</v>
       </c>
       <c r="I284" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J284" t="s">
-        <v>629</v>
+        <v>1231</v>
       </c>
       <c r="K284" t="s">
         <v>603</v>
@@ -14090,7 +14078,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="8" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="B285" t="s">
         <v>124</v>
@@ -14117,7 +14105,7 @@
         <v>304</v>
       </c>
       <c r="J285" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K285" t="s">
         <v>603</v>
@@ -14125,7 +14113,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="8" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B286" t="s">
         <v>124</v>
@@ -14152,7 +14140,7 @@
         <v>304</v>
       </c>
       <c r="J286" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K286" t="s">
         <v>603</v>
@@ -14160,7 +14148,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="8" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B287" t="s">
         <v>124</v>
@@ -14187,7 +14175,7 @@
         <v>304</v>
       </c>
       <c r="J287" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K287" t="s">
         <v>603</v>
@@ -14195,7 +14183,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="8" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B288" t="s">
         <v>124</v>
@@ -14222,7 +14210,7 @@
         <v>304</v>
       </c>
       <c r="J288" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K288" t="s">
         <v>603</v>
@@ -14230,7 +14218,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="8" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B289" t="s">
         <v>124</v>
@@ -14265,7 +14253,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="8" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B290" t="s">
         <v>125</v>
@@ -14300,7 +14288,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="8" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B291" t="s">
         <v>125</v>
@@ -14335,7 +14323,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="8" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B292" t="s">
         <v>125</v>
@@ -14370,7 +14358,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="8" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B293" t="s">
         <v>125</v>
@@ -14394,7 +14382,7 @@
         <v>601</v>
       </c>
       <c r="I293" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J293" t="s">
         <v>613</v>
@@ -14405,7 +14393,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="8" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B294" t="s">
         <v>125</v>
@@ -14440,7 +14428,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="8" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B295" t="s">
         <v>125</v>
@@ -14475,7 +14463,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="8" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B296" t="s">
         <v>125</v>
@@ -14499,7 +14487,7 @@
         <v>605</v>
       </c>
       <c r="I296" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J296" t="s">
         <v>605</v>
@@ -14510,7 +14498,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="8" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B297" t="s">
         <v>125</v>
@@ -14545,7 +14533,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B298" t="s">
         <v>125</v>
@@ -14569,7 +14557,7 @@
         <v>605</v>
       </c>
       <c r="I298" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J298" t="s">
         <v>605</v>
@@ -14580,7 +14568,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="8" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B299" t="s">
         <v>125</v>
@@ -14604,7 +14592,7 @@
         <v>605</v>
       </c>
       <c r="I299" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J299" t="s">
         <v>605</v>
@@ -14615,7 +14603,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="8" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B300" t="s">
         <v>125</v>
@@ -14650,7 +14638,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="8" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B301" t="s">
         <v>125</v>
@@ -14685,7 +14673,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="8" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B302" t="s">
         <v>125</v>
@@ -14720,7 +14708,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="8" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B303" t="s">
         <v>125</v>
@@ -14755,7 +14743,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="8" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="B304" t="s">
         <v>125</v>
@@ -14790,7 +14778,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="8" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B305" t="s">
         <v>125</v>
@@ -14825,7 +14813,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="8" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B306" t="s">
         <v>125</v>
@@ -14860,7 +14848,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="8" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="B307" t="s">
         <v>125</v>
@@ -14895,7 +14883,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="8" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B308" t="s">
         <v>125</v>
@@ -14930,7 +14918,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="8" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B309" t="s">
         <v>125</v>
@@ -14954,7 +14942,7 @@
         <v>605</v>
       </c>
       <c r="I309" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J309" t="s">
         <v>605</v>
@@ -14965,7 +14953,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="8" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="B310" t="s">
         <v>125</v>
@@ -15000,7 +14988,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="8" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B311" t="s">
         <v>125</v>
@@ -15035,7 +15023,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="8" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B312" t="s">
         <v>125</v>
@@ -15070,7 +15058,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="8" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B313" t="s">
         <v>125</v>
@@ -15105,7 +15093,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="8" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B314" t="s">
         <v>125</v>
@@ -15140,7 +15128,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="8" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B315" t="s">
         <v>125</v>
@@ -15175,7 +15163,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="8" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B316" t="s">
         <v>131</v>
@@ -15210,7 +15198,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="8" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B317" t="s">
         <v>132</v>
@@ -15234,10 +15222,10 @@
         <v>601</v>
       </c>
       <c r="I317" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="J317" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K317" t="s">
         <v>603</v>
@@ -15245,7 +15233,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="8" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B318" t="s">
         <v>133</v>
@@ -15280,7 +15268,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="8" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B319" t="s">
         <v>133</v>
@@ -15304,10 +15292,10 @@
         <v>601</v>
       </c>
       <c r="I319" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="J319" t="s">
-        <v>633</v>
+        <v>1231</v>
       </c>
       <c r="K319" t="s">
         <v>603</v>
@@ -15315,7 +15303,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="8" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B320" t="s">
         <v>133</v>
@@ -15350,7 +15338,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="8" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B321" t="s">
         <v>133</v>
@@ -15385,7 +15373,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="8" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B322" t="s">
         <v>134</v>
@@ -15409,7 +15397,7 @@
         <v>601</v>
       </c>
       <c r="I322" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J322" t="s">
         <v>611</v>
@@ -15420,7 +15408,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="8" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B323" t="s">
         <v>135</v>
@@ -15444,7 +15432,7 @@
         <v>601</v>
       </c>
       <c r="I323" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J323" t="s">
         <v>611</v>
@@ -15455,7 +15443,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="8" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B324" t="s">
         <v>135</v>
@@ -15479,7 +15467,7 @@
         <v>601</v>
       </c>
       <c r="I324" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J324" t="s">
         <v>611</v>
@@ -15490,7 +15478,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="8" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B325" t="s">
         <v>135</v>
@@ -15525,7 +15513,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="8" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B326" t="s">
         <v>135</v>
@@ -15560,7 +15548,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="8" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B327" t="s">
         <v>135</v>
@@ -15595,7 +15583,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="8" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B328" t="s">
         <v>136</v>
@@ -15630,7 +15618,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="8" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B329" t="s">
         <v>136</v>
@@ -15665,7 +15653,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="8" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B330" t="s">
         <v>136</v>
@@ -15700,7 +15688,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="8" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B331" t="s">
         <v>137</v>
@@ -15727,7 +15715,7 @@
         <v>610</v>
       </c>
       <c r="J331" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K331" s="7" t="s">
         <v>603</v>
@@ -15735,7 +15723,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="8" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B332" t="s">
         <v>138</v>
@@ -15770,7 +15758,7 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="8" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B333" t="s">
         <v>138</v>
@@ -15805,7 +15793,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="8" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B334" t="s">
         <v>139</v>
@@ -15829,10 +15817,10 @@
         <v>616</v>
       </c>
       <c r="I334" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J334" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K334" s="7" t="s">
         <v>603</v>
@@ -15840,7 +15828,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="8" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B335" t="s">
         <v>139</v>
@@ -15864,10 +15852,10 @@
         <v>616</v>
       </c>
       <c r="I335" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J335" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K335" s="7" t="s">
         <v>603</v>
@@ -15875,7 +15863,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="8" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B336" t="s">
         <v>139</v>
@@ -15899,10 +15887,10 @@
         <v>616</v>
       </c>
       <c r="I336" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J336" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K336" s="7" t="s">
         <v>603</v>
@@ -15910,7 +15898,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="8" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B337" t="s">
         <v>140</v>
@@ -15945,7 +15933,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="8" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B338" t="s">
         <v>141</v>
@@ -15980,7 +15968,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="8" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B339" t="s">
         <v>141</v>
@@ -16004,10 +15992,10 @@
         <v>601</v>
       </c>
       <c r="I339" t="s">
+        <v>624</v>
+      </c>
+      <c r="J339" t="s">
         <v>625</v>
-      </c>
-      <c r="J339" t="s">
-        <v>626</v>
       </c>
       <c r="K339" t="s">
         <v>603</v>
@@ -16015,7 +16003,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="8" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B340" t="s">
         <v>142</v>
@@ -16050,7 +16038,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="8" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B341" t="s">
         <v>142</v>
@@ -16085,7 +16073,7 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="8" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B342" t="s">
         <v>143</v>
@@ -16109,10 +16097,10 @@
         <v>601</v>
       </c>
       <c r="I342" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J342" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K342" t="s">
         <v>603</v>
@@ -16120,7 +16108,7 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="8" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B343" t="s">
         <v>143</v>
@@ -16144,10 +16132,10 @@
         <v>601</v>
       </c>
       <c r="I343" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J343" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K343" t="s">
         <v>603</v>
@@ -16155,7 +16143,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="8" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B344" t="s">
         <v>143</v>
@@ -16179,10 +16167,10 @@
         <v>601</v>
       </c>
       <c r="I344" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J344" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K344" t="s">
         <v>603</v>
@@ -16190,7 +16178,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="8" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B345" t="s">
         <v>143</v>
@@ -16214,10 +16202,10 @@
         <v>601</v>
       </c>
       <c r="I345" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J345" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K345" t="s">
         <v>603</v>
@@ -16225,7 +16213,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="8" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B346" t="s">
         <v>143</v>
@@ -16246,13 +16234,13 @@
         <v>600</v>
       </c>
       <c r="H346" t="s">
-        <v>657</v>
+        <v>605</v>
       </c>
       <c r="I346" t="s">
-        <v>657</v>
+        <v>605</v>
       </c>
       <c r="J346" t="s">
-        <v>657</v>
+        <v>605</v>
       </c>
       <c r="K346" t="s">
         <v>603</v>
@@ -16260,7 +16248,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="8" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B347" t="s">
         <v>144</v>
@@ -16284,7 +16272,7 @@
         <v>601</v>
       </c>
       <c r="I347" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J347" s="7" t="s">
         <v>611</v>
@@ -16295,7 +16283,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="8" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B348" t="s">
         <v>144</v>
@@ -16319,7 +16307,7 @@
         <v>601</v>
       </c>
       <c r="I348" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J348" t="s">
         <v>613</v>
@@ -16330,7 +16318,7 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="8" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B349" t="s">
         <v>144</v>
@@ -16354,7 +16342,7 @@
         <v>601</v>
       </c>
       <c r="I349" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J349" t="s">
         <v>613</v>
@@ -16365,7 +16353,7 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="8" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B350" t="s">
         <v>144</v>
@@ -16389,7 +16377,7 @@
         <v>601</v>
       </c>
       <c r="I350" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J350" s="7" t="s">
         <v>611</v>
@@ -16400,7 +16388,7 @@
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="8" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B351" t="s">
         <v>144</v>
@@ -16424,7 +16412,7 @@
         <v>601</v>
       </c>
       <c r="I351" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J351" s="7" t="s">
         <v>611</v>
@@ -16435,7 +16423,7 @@
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="8" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B352" t="s">
         <v>144</v>
@@ -16459,7 +16447,7 @@
         <v>601</v>
       </c>
       <c r="I352" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J352" s="7" t="s">
         <v>611</v>
@@ -16470,7 +16458,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B353" t="s">
         <v>144</v>
@@ -16494,7 +16482,7 @@
         <v>601</v>
       </c>
       <c r="I353" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J353" s="7" t="s">
         <v>611</v>
@@ -16505,7 +16493,7 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="8" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B354" t="s">
         <v>144</v>
@@ -16529,10 +16517,10 @@
         <v>601</v>
       </c>
       <c r="I354" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J354" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K354" t="s">
         <v>603</v>
@@ -16540,7 +16528,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="8" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B355" t="s">
         <v>145</v>
@@ -16575,7 +16563,7 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="8" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B356" t="s">
         <v>146</v>
@@ -16610,7 +16598,7 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="8" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B357" t="s">
         <v>147</v>
@@ -16645,7 +16633,7 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="8" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B358" t="s">
         <v>148</v>
@@ -16680,7 +16668,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="8" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B359" t="s">
         <v>149</v>
@@ -16715,7 +16703,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="8" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B360" t="s">
         <v>150</v>
@@ -16739,10 +16727,10 @@
         <v>607</v>
       </c>
       <c r="I360" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J360" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K360" t="s">
         <v>603</v>
@@ -16750,7 +16738,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="8" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B361" t="s">
         <v>150</v>
@@ -16765,7 +16753,7 @@
         <v>7</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G361" t="s">
         <v>600</v>
@@ -16774,10 +16762,10 @@
         <v>607</v>
       </c>
       <c r="I361" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J361" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K361" t="s">
         <v>603</v>
@@ -16785,7 +16773,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="8" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B362" t="s">
         <v>151</v>
@@ -16820,7 +16808,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="8" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B363" t="s">
         <v>151</v>
@@ -16855,7 +16843,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="8" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B364" t="s">
         <v>151</v>
@@ -16890,7 +16878,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="8" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B365" t="s">
         <v>152</v>
@@ -16914,10 +16902,10 @@
         <v>601</v>
       </c>
       <c r="I365" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J365" t="s">
-        <v>629</v>
+        <v>1231</v>
       </c>
       <c r="K365" t="s">
         <v>603</v>
@@ -16925,7 +16913,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B366" t="s">
         <v>152</v>
@@ -16949,10 +16937,10 @@
         <v>601</v>
       </c>
       <c r="I366" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J366" t="s">
-        <v>639</v>
+        <v>1231</v>
       </c>
       <c r="K366" t="s">
         <v>603</v>
@@ -16960,7 +16948,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="8" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B367" t="s">
         <v>153</v>
@@ -16995,7 +16983,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="8" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B368" t="s">
         <v>153</v>
@@ -17030,7 +17018,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B369" t="s">
         <v>154</v>
@@ -17054,10 +17042,10 @@
         <v>601</v>
       </c>
       <c r="I369" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J369" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K369" t="s">
         <v>603</v>
@@ -17065,7 +17053,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="8" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B370" t="s">
         <v>154</v>
@@ -17089,10 +17077,10 @@
         <v>601</v>
       </c>
       <c r="I370" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J370" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K370" t="s">
         <v>603</v>
@@ -17100,7 +17088,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="8" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B371" t="s">
         <v>155</v>
@@ -17135,7 +17123,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="8" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B372" t="s">
         <v>155</v>
@@ -17170,7 +17158,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="8" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B373" t="s">
         <v>156</v>
@@ -17194,10 +17182,10 @@
         <v>601</v>
       </c>
       <c r="I373" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J373" t="s">
-        <v>639</v>
+        <v>1231</v>
       </c>
       <c r="K373" t="s">
         <v>603</v>
@@ -17205,7 +17193,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="8" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B374" t="s">
         <v>157</v>
@@ -17240,7 +17228,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="8" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B375" t="s">
         <v>157</v>
@@ -17275,7 +17263,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="8" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B376" t="s">
         <v>157</v>
@@ -17310,7 +17298,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="8" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B377" t="s">
         <v>157</v>
@@ -17345,7 +17333,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="8" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B378" t="s">
         <v>157</v>
@@ -17380,7 +17368,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="8" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B379" t="s">
         <v>157</v>
@@ -17415,7 +17403,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="8" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B380" t="s">
         <v>157</v>
@@ -17450,7 +17438,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B381" t="s">
         <v>157</v>
@@ -17485,7 +17473,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" s="8" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B382" t="s">
         <v>158</v>
@@ -17520,7 +17508,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" s="8" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B383" t="s">
         <v>159</v>
@@ -17555,7 +17543,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" s="8" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B384" t="s">
         <v>160</v>
@@ -17590,7 +17578,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="8" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B385" t="s">
         <v>160</v>
@@ -17625,7 +17613,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="8" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B386" t="s">
         <v>161</v>
@@ -17660,7 +17648,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="8" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B387" t="s">
         <v>161</v>
@@ -17675,7 +17663,7 @@
         <v>7</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G387" t="s">
         <v>606</v>
@@ -17695,7 +17683,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="8" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B388" t="s">
         <v>161</v>
@@ -17730,7 +17718,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="8" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B389" t="s">
         <v>161</v>
@@ -17765,7 +17753,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="8" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B390" t="s">
         <v>161</v>
@@ -17789,10 +17777,10 @@
         <v>601</v>
       </c>
       <c r="I390" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="J390" t="s">
-        <v>659</v>
+        <v>1231</v>
       </c>
       <c r="K390" t="s">
         <v>603</v>
@@ -17800,7 +17788,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="8" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B391" t="s">
         <v>162</v>
@@ -17824,10 +17812,10 @@
         <v>607</v>
       </c>
       <c r="I391" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J391" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K391" t="s">
         <v>603</v>
@@ -17835,7 +17823,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="8" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B392" t="s">
         <v>162</v>
@@ -17850,7 +17838,7 @@
         <v>7</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G392" t="s">
         <v>600</v>
@@ -17859,10 +17847,10 @@
         <v>607</v>
       </c>
       <c r="I392" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J392" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K392" t="s">
         <v>603</v>
@@ -17870,7 +17858,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="8" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B393" t="s">
         <v>162</v>
@@ -17905,7 +17893,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="8" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B394" t="s">
         <v>162</v>
@@ -17929,10 +17917,10 @@
         <v>601</v>
       </c>
       <c r="I394" t="s">
+        <v>624</v>
+      </c>
+      <c r="J394" t="s">
         <v>625</v>
-      </c>
-      <c r="J394" t="s">
-        <v>626</v>
       </c>
       <c r="K394" t="s">
         <v>603</v>
@@ -17940,7 +17928,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="8" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B395" t="s">
         <v>163</v>
@@ -17975,7 +17963,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="8" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B396" t="s">
         <v>163</v>
@@ -18010,7 +17998,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="8" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B397" t="s">
         <v>163</v>
@@ -18034,7 +18022,7 @@
         <v>605</v>
       </c>
       <c r="I397" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J397" t="s">
         <v>605</v>
@@ -18045,7 +18033,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="8" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B398" t="s">
         <v>163</v>
@@ -18069,7 +18057,7 @@
         <v>605</v>
       </c>
       <c r="I398" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J398" t="s">
         <v>605</v>
@@ -18080,7 +18068,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="8" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B399" t="s">
         <v>164</v>
@@ -18104,10 +18092,10 @@
         <v>601</v>
       </c>
       <c r="I399" t="s">
+        <v>624</v>
+      </c>
+      <c r="J399" t="s">
         <v>625</v>
-      </c>
-      <c r="J399" t="s">
-        <v>626</v>
       </c>
       <c r="K399" t="s">
         <v>603</v>
@@ -18115,7 +18103,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="8" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B400" t="s">
         <v>164</v>
@@ -18139,10 +18127,10 @@
         <v>601</v>
       </c>
       <c r="I400" t="s">
+        <v>624</v>
+      </c>
+      <c r="J400" t="s">
         <v>625</v>
-      </c>
-      <c r="J400" t="s">
-        <v>626</v>
       </c>
       <c r="K400" t="s">
         <v>603</v>
@@ -18150,7 +18138,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="8" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B401" t="s">
         <v>165</v>
@@ -18185,7 +18173,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="8" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B402" t="s">
         <v>166</v>
@@ -18209,7 +18197,7 @@
         <v>605</v>
       </c>
       <c r="I402" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J402" t="s">
         <v>605</v>
@@ -18220,7 +18208,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="8" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B403" t="s">
         <v>166</v>
@@ -18244,7 +18232,7 @@
         <v>605</v>
       </c>
       <c r="I403" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J403" t="s">
         <v>605</v>
@@ -18255,7 +18243,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="8" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B404" t="s">
         <v>166</v>
@@ -18290,7 +18278,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="8" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B405" t="s">
         <v>166</v>
@@ -18325,7 +18313,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="8" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B406" t="s">
         <v>166</v>
@@ -18360,7 +18348,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="8" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B407" t="s">
         <v>166</v>
@@ -18395,7 +18383,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="8" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B408" t="s">
         <v>166</v>
@@ -18430,7 +18418,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="8" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B409" t="s">
         <v>167</v>
@@ -18465,7 +18453,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="8" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B410" t="s">
         <v>168</v>
@@ -18500,7 +18488,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="8" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B411" t="s">
         <v>168</v>
@@ -18535,7 +18523,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="8" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B412" t="s">
         <v>168</v>
@@ -18570,7 +18558,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="8" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B413" t="s">
         <v>169</v>
@@ -18605,7 +18593,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="8" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B414" t="s">
         <v>169</v>
@@ -18629,10 +18617,10 @@
         <v>601</v>
       </c>
       <c r="I414" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J414" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="K414" t="s">
         <v>603</v>
@@ -18640,7 +18628,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="8" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B415" t="s">
         <v>169</v>
@@ -18664,10 +18652,10 @@
         <v>601</v>
       </c>
       <c r="I415" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J415" t="s">
-        <v>651</v>
+        <v>613</v>
       </c>
       <c r="K415" t="s">
         <v>603</v>
@@ -18675,7 +18663,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="8" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B416" t="s">
         <v>169</v>
@@ -18710,7 +18698,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="8" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B417" t="s">
         <v>170</v>
@@ -18734,10 +18722,10 @@
         <v>601</v>
       </c>
       <c r="I417" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J417" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K417" t="s">
         <v>603</v>
@@ -18745,7 +18733,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="8" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B418" t="s">
         <v>170</v>
@@ -18769,10 +18757,10 @@
         <v>601</v>
       </c>
       <c r="I418" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J418" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K418" t="s">
         <v>603</v>
@@ -18780,7 +18768,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="8" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B419" t="s">
         <v>170</v>
@@ -18815,7 +18803,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="8" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B420" t="s">
         <v>171</v>
@@ -18850,7 +18838,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="8" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B421" t="s">
         <v>172</v>
@@ -18874,10 +18862,10 @@
         <v>601</v>
       </c>
       <c r="I421" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="J421" t="s">
-        <v>660</v>
+        <v>1231</v>
       </c>
       <c r="K421" t="s">
         <v>603</v>
@@ -18885,7 +18873,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="8" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B422" t="s">
         <v>172</v>
@@ -18909,10 +18897,10 @@
         <v>601</v>
       </c>
       <c r="I422" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="J422" t="s">
-        <v>660</v>
+        <v>1231</v>
       </c>
       <c r="K422" t="s">
         <v>603</v>
@@ -18920,7 +18908,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="8" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B423" t="s">
         <v>173</v>
@@ -18955,7 +18943,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="8" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B424" t="s">
         <v>174</v>
@@ -18979,10 +18967,10 @@
         <v>601</v>
       </c>
       <c r="I424" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J424" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K424" t="s">
         <v>603</v>
@@ -18990,7 +18978,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="8" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B425" t="s">
         <v>175</v>
@@ -19025,7 +19013,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="8" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B426" t="s">
         <v>176</v>
@@ -19049,10 +19037,10 @@
         <v>601</v>
       </c>
       <c r="I426" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="J426" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K426" t="s">
         <v>603</v>
@@ -19060,7 +19048,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="8" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B427" t="s">
         <v>176</v>
@@ -19084,10 +19072,10 @@
         <v>601</v>
       </c>
       <c r="I427" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="J427" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K427" t="s">
         <v>603</v>
@@ -19095,7 +19083,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="8" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B428" t="s">
         <v>177</v>
@@ -19130,7 +19118,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="8" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B429" t="s">
         <v>178</v>
@@ -19165,7 +19153,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="8" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B430" t="s">
         <v>179</v>
@@ -19200,7 +19188,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="8" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B431" t="s">
         <v>180</v>
@@ -19235,7 +19223,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="8" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B432" t="s">
         <v>180</v>
@@ -19270,7 +19258,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" s="8" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B433" t="s">
         <v>180</v>
@@ -19305,7 +19293,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" s="8" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B434" t="s">
         <v>180</v>
@@ -19340,7 +19328,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" s="8" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B435" t="s">
         <v>180</v>
@@ -19375,7 +19363,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" s="8" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B436" t="s">
         <v>180</v>
@@ -19410,7 +19398,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" s="8" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B437" t="s">
         <v>180</v>
@@ -19445,7 +19433,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" s="8" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B438" t="s">
         <v>180</v>
@@ -19480,7 +19468,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" s="8" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B439" t="s">
         <v>180</v>
@@ -19515,7 +19503,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" s="8" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B440" t="s">
         <v>180</v>
@@ -19550,7 +19538,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B441" t="s">
         <v>180</v>
@@ -19585,7 +19573,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" s="8" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B442" t="s">
         <v>181</v>
@@ -19620,7 +19608,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" s="8" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B443" t="s">
         <v>181</v>
@@ -19644,10 +19632,10 @@
         <v>601</v>
       </c>
       <c r="I443" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="J443" t="s">
-        <v>661</v>
+        <v>1231</v>
       </c>
       <c r="K443" t="s">
         <v>603</v>
@@ -19655,7 +19643,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" s="8" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B444" t="s">
         <v>181</v>
@@ -19679,10 +19667,10 @@
         <v>601</v>
       </c>
       <c r="I444" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="J444" t="s">
-        <v>661</v>
+        <v>1231</v>
       </c>
       <c r="K444" t="s">
         <v>603</v>
@@ -19690,7 +19678,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="8" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B445" t="s">
         <v>181</v>
@@ -19714,10 +19702,10 @@
         <v>601</v>
       </c>
       <c r="I445" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="J445" t="s">
-        <v>661</v>
+        <v>1231</v>
       </c>
       <c r="K445" t="s">
         <v>603</v>
@@ -19725,7 +19713,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="8" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B446" t="s">
         <v>181</v>
@@ -19749,10 +19737,10 @@
         <v>607</v>
       </c>
       <c r="I446" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J446" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K446" t="s">
         <v>603</v>
@@ -19760,7 +19748,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" s="8" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B447" t="s">
         <v>181</v>
@@ -19784,10 +19772,10 @@
         <v>601</v>
       </c>
       <c r="I447" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="J447" t="s">
-        <v>661</v>
+        <v>1231</v>
       </c>
       <c r="K447" t="s">
         <v>603</v>
@@ -19795,7 +19783,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" s="8" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B448" t="s">
         <v>182</v>
@@ -19830,7 +19818,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" s="8" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B449" t="s">
         <v>182</v>
@@ -19865,7 +19853,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" s="8" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B450" t="s">
         <v>183</v>
@@ -19900,7 +19888,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" s="8" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B451" t="s">
         <v>183</v>
@@ -19924,10 +19912,10 @@
         <v>601</v>
       </c>
       <c r="I451" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J451" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K451" t="s">
         <v>603</v>
@@ -19935,7 +19923,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" s="8" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B452" t="s">
         <v>184</v>
@@ -19959,10 +19947,10 @@
         <v>607</v>
       </c>
       <c r="I452" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J452" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K452" t="s">
         <v>603</v>
@@ -19970,7 +19958,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" s="8" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B453" t="s">
         <v>185</v>
@@ -20005,7 +19993,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" s="8" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B454" t="s">
         <v>185</v>
@@ -20040,7 +20028,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" s="8" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B455" t="s">
         <v>185</v>
@@ -20075,7 +20063,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" s="8" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B456" t="s">
         <v>186</v>
@@ -20110,7 +20098,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" s="8" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B457" t="s">
         <v>186</v>
@@ -20145,7 +20133,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" s="8" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B458" t="s">
         <v>187</v>
@@ -20180,7 +20168,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" s="8" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B459" t="s">
         <v>187</v>
@@ -20204,10 +20192,10 @@
         <v>607</v>
       </c>
       <c r="I459" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J459" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K459" t="s">
         <v>603</v>
@@ -20215,7 +20203,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" s="8" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B460" t="s">
         <v>187</v>
@@ -20239,10 +20227,10 @@
         <v>607</v>
       </c>
       <c r="I460" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J460" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K460" t="s">
         <v>603</v>
@@ -20250,7 +20238,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" s="8" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B461" t="s">
         <v>187</v>
@@ -20285,7 +20273,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" s="8" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B462" t="s">
         <v>188</v>
@@ -20320,7 +20308,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" s="8" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B463" t="s">
         <v>188</v>
@@ -20355,7 +20343,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464" s="8" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B464" t="s">
         <v>188</v>
@@ -20390,7 +20378,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465" s="8" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B465" t="s">
         <v>188</v>
@@ -20425,7 +20413,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466" s="8" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B466" t="s">
         <v>188</v>
@@ -20460,7 +20448,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467" s="8" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B467" t="s">
         <v>188</v>
@@ -20495,7 +20483,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" s="8" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B468" t="s">
         <v>188</v>
@@ -20530,7 +20518,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469" s="8" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B469" t="s">
         <v>189</v>
@@ -20545,7 +20533,7 @@
         <v>7</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G469" t="s">
         <v>600</v>
@@ -20554,10 +20542,10 @@
         <v>616</v>
       </c>
       <c r="I469" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J469" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K469" t="s">
         <v>603</v>
@@ -20565,7 +20553,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470" s="8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B470" t="s">
         <v>189</v>
@@ -20580,7 +20568,7 @@
         <v>7</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G470" t="s">
         <v>600</v>
@@ -20589,10 +20577,10 @@
         <v>616</v>
       </c>
       <c r="I470" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J470" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K470" t="s">
         <v>603</v>
@@ -20600,7 +20588,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" s="8" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B471" t="s">
         <v>189</v>
@@ -20615,7 +20603,7 @@
         <v>7</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G471" t="s">
         <v>600</v>
@@ -20624,10 +20612,10 @@
         <v>616</v>
       </c>
       <c r="I471" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J471" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K471" t="s">
         <v>603</v>
@@ -20635,7 +20623,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" s="8" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B472" t="s">
         <v>189</v>
@@ -20650,7 +20638,7 @@
         <v>7</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G472" t="s">
         <v>600</v>
@@ -20659,10 +20647,10 @@
         <v>616</v>
       </c>
       <c r="I472" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J472" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K472" t="s">
         <v>603</v>
@@ -20670,7 +20658,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473" s="8" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B473" t="s">
         <v>189</v>
@@ -20685,7 +20673,7 @@
         <v>7</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G473" t="s">
         <v>600</v>
@@ -20694,10 +20682,10 @@
         <v>616</v>
       </c>
       <c r="I473" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J473" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K473" t="s">
         <v>603</v>
@@ -20705,7 +20693,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474" s="8" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B474" t="s">
         <v>189</v>
@@ -20720,7 +20708,7 @@
         <v>7</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G474" t="s">
         <v>600</v>
@@ -20729,10 +20717,10 @@
         <v>616</v>
       </c>
       <c r="I474" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J474" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K474" t="s">
         <v>603</v>
@@ -20740,7 +20728,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475" s="8" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B475" t="s">
         <v>189</v>
@@ -20755,7 +20743,7 @@
         <v>7</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G475" t="s">
         <v>600</v>
@@ -20764,10 +20752,10 @@
         <v>616</v>
       </c>
       <c r="I475" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J475" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K475" t="s">
         <v>603</v>
@@ -20775,7 +20763,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476" s="8" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B476" t="s">
         <v>189</v>
@@ -20790,7 +20778,7 @@
         <v>7</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G476" t="s">
         <v>600</v>
@@ -20799,10 +20787,10 @@
         <v>616</v>
       </c>
       <c r="I476" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J476" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K476" t="s">
         <v>603</v>
@@ -20810,7 +20798,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A477" s="8" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B477" t="s">
         <v>189</v>
@@ -20834,7 +20822,7 @@
         <v>605</v>
       </c>
       <c r="I477" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J477" t="s">
         <v>605</v>
@@ -20845,7 +20833,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478" s="8" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B478" t="s">
         <v>189</v>
@@ -20869,7 +20857,7 @@
         <v>605</v>
       </c>
       <c r="I478" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J478" t="s">
         <v>605</v>
@@ -20880,7 +20868,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479" s="8" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B479" t="s">
         <v>189</v>
@@ -20904,7 +20892,7 @@
         <v>605</v>
       </c>
       <c r="I479" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J479" t="s">
         <v>605</v>
@@ -20915,7 +20903,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480" s="8" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B480" t="s">
         <v>189</v>
@@ -20930,7 +20918,7 @@
         <v>7</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G480" t="s">
         <v>600</v>
@@ -20939,10 +20927,10 @@
         <v>616</v>
       </c>
       <c r="I480" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J480" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K480" t="s">
         <v>603</v>
@@ -20950,7 +20938,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A481" s="8" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B481" t="s">
         <v>189</v>
@@ -20974,7 +20962,7 @@
         <v>605</v>
       </c>
       <c r="I481" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J481" t="s">
         <v>605</v>
@@ -20985,7 +20973,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A482" s="8" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B482" t="s">
         <v>189</v>
@@ -21009,7 +20997,7 @@
         <v>605</v>
       </c>
       <c r="I482" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J482" t="s">
         <v>605</v>
@@ -21020,7 +21008,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483" s="8" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B483" t="s">
         <v>189</v>
@@ -21044,7 +21032,7 @@
         <v>605</v>
       </c>
       <c r="I483" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J483" t="s">
         <v>605</v>
@@ -21055,7 +21043,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484" s="8" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B484" t="s">
         <v>189</v>
@@ -21079,7 +21067,7 @@
         <v>605</v>
       </c>
       <c r="I484" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J484" t="s">
         <v>605</v>
@@ -21090,7 +21078,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485" s="8" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B485" t="s">
         <v>189</v>
@@ -21114,7 +21102,7 @@
         <v>605</v>
       </c>
       <c r="I485" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J485" t="s">
         <v>605</v>
@@ -21125,7 +21113,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486" s="8" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B486" t="s">
         <v>189</v>
@@ -21149,7 +21137,7 @@
         <v>605</v>
       </c>
       <c r="I486" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J486" t="s">
         <v>605</v>
@@ -21160,7 +21148,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A487" s="8" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B487" t="s">
         <v>189</v>
@@ -21175,7 +21163,7 @@
         <v>7</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G487" t="s">
         <v>600</v>
@@ -21184,10 +21172,10 @@
         <v>616</v>
       </c>
       <c r="I487" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J487" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K487" t="s">
         <v>603</v>
@@ -21195,7 +21183,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488" s="8" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B488" t="s">
         <v>189</v>
@@ -21210,7 +21198,7 @@
         <v>7</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G488" t="s">
         <v>600</v>
@@ -21219,10 +21207,10 @@
         <v>616</v>
       </c>
       <c r="I488" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J488" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K488" t="s">
         <v>603</v>
@@ -21230,7 +21218,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489" s="8" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B489" t="s">
         <v>189</v>
@@ -21245,7 +21233,7 @@
         <v>7</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G489" t="s">
         <v>600</v>
@@ -21254,10 +21242,10 @@
         <v>616</v>
       </c>
       <c r="I489" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J489" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K489" t="s">
         <v>603</v>
@@ -21265,7 +21253,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490" s="8" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B490" t="s">
         <v>189</v>
@@ -21280,7 +21268,7 @@
         <v>7</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G490" t="s">
         <v>600</v>
@@ -21289,10 +21277,10 @@
         <v>616</v>
       </c>
       <c r="I490" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J490" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K490" t="s">
         <v>603</v>
@@ -21300,7 +21288,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491" s="8" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B491" t="s">
         <v>189</v>
@@ -21315,7 +21303,7 @@
         <v>7</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G491" t="s">
         <v>600</v>
@@ -21324,10 +21312,10 @@
         <v>616</v>
       </c>
       <c r="I491" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J491" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K491" t="s">
         <v>603</v>
@@ -21335,7 +21323,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492" s="8" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B492" t="s">
         <v>189</v>
@@ -21350,7 +21338,7 @@
         <v>7</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G492" t="s">
         <v>600</v>
@@ -21359,10 +21347,10 @@
         <v>616</v>
       </c>
       <c r="I492" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J492" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K492" t="s">
         <v>603</v>
@@ -21370,7 +21358,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493" s="8" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B493" t="s">
         <v>189</v>
@@ -21385,7 +21373,7 @@
         <v>7</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G493" t="s">
         <v>600</v>
@@ -21394,10 +21382,10 @@
         <v>616</v>
       </c>
       <c r="I493" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J493" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K493" t="s">
         <v>603</v>
@@ -21405,7 +21393,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494" s="8" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B494" t="s">
         <v>190</v>
@@ -21429,10 +21417,10 @@
         <v>601</v>
       </c>
       <c r="I494" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J494" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K494" t="s">
         <v>603</v>
@@ -21440,7 +21428,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495" s="8" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B495" t="s">
         <v>191</v>
@@ -21475,7 +21463,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496" s="8" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B496" t="s">
         <v>191</v>
@@ -21510,7 +21498,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" s="8" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B497" t="s">
         <v>191</v>
@@ -21545,7 +21533,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498" s="8" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B498" t="s">
         <v>192</v>
@@ -21580,7 +21568,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" s="8" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B499" t="s">
         <v>192</v>
@@ -21615,7 +21603,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" s="8" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B500" t="s">
         <v>192</v>
@@ -21650,7 +21638,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" s="8" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B501" t="s">
         <v>193</v>
@@ -21685,7 +21673,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" s="8" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B502" t="s">
         <v>193</v>
@@ -21709,10 +21697,10 @@
         <v>601</v>
       </c>
       <c r="I502" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J502" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="K502" t="s">
         <v>603</v>
@@ -21720,7 +21708,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503" s="8" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B503" t="s">
         <v>193</v>
@@ -21744,10 +21732,10 @@
         <v>601</v>
       </c>
       <c r="I503" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J503" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="K503" t="s">
         <v>603</v>
@@ -21755,7 +21743,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504" s="8" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B504" t="s">
         <v>193</v>
@@ -21779,10 +21767,10 @@
         <v>601</v>
       </c>
       <c r="I504" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J504" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="K504" t="s">
         <v>603</v>
@@ -21790,7 +21778,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" s="8" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B505" t="s">
         <v>193</v>
@@ -21814,10 +21802,10 @@
         <v>601</v>
       </c>
       <c r="I505" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J505" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="K505" t="s">
         <v>603</v>
@@ -21825,7 +21813,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506" s="8" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B506" t="s">
         <v>193</v>
@@ -21849,10 +21837,10 @@
         <v>601</v>
       </c>
       <c r="I506" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J506" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="K506" t="s">
         <v>603</v>
@@ -21860,7 +21848,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" s="8" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B507" t="s">
         <v>193</v>
@@ -21884,10 +21872,10 @@
         <v>601</v>
       </c>
       <c r="I507" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J507" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="K507" t="s">
         <v>603</v>
@@ -21895,7 +21883,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508" s="8" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B508" t="s">
         <v>193</v>
@@ -21919,10 +21907,10 @@
         <v>601</v>
       </c>
       <c r="I508" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J508" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="K508" t="s">
         <v>603</v>
@@ -21930,7 +21918,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" s="8" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B509" t="s">
         <v>194</v>
@@ -21954,10 +21942,10 @@
         <v>601</v>
       </c>
       <c r="I509" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J509" t="s">
-        <v>636</v>
+        <v>1231</v>
       </c>
       <c r="K509" t="s">
         <v>603</v>
@@ -21965,7 +21953,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" s="8" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B510" t="s">
         <v>194</v>
@@ -21989,10 +21977,10 @@
         <v>601</v>
       </c>
       <c r="I510" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J510" t="s">
-        <v>636</v>
+        <v>1231</v>
       </c>
       <c r="K510" t="s">
         <v>603</v>
@@ -22000,7 +21988,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" s="8" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B511" t="s">
         <v>195</v>
@@ -22035,7 +22023,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" s="8" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B512" t="s">
         <v>196</v>
@@ -22070,7 +22058,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513" s="8" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B513" t="s">
         <v>196</v>
@@ -22094,7 +22082,7 @@
         <v>601</v>
       </c>
       <c r="I513" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="J513" t="s">
         <v>611</v>
@@ -22105,7 +22093,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" s="8" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B514" t="s">
         <v>196</v>
@@ -22129,7 +22117,7 @@
         <v>601</v>
       </c>
       <c r="I514" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="J514" t="s">
         <v>611</v>
@@ -22140,7 +22128,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" s="8" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B515" t="s">
         <v>196</v>
@@ -22164,7 +22152,7 @@
         <v>601</v>
       </c>
       <c r="I515" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="J515" t="s">
         <v>611</v>
@@ -22175,7 +22163,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" s="8" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B516" t="s">
         <v>196</v>
@@ -22210,7 +22198,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517" s="8" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B517" t="s">
         <v>197</v>
@@ -22234,7 +22222,7 @@
         <v>605</v>
       </c>
       <c r="I517" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J517" t="s">
         <v>605</v>
@@ -22245,7 +22233,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518" s="8" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B518" t="s">
         <v>197</v>
@@ -22269,7 +22257,7 @@
         <v>605</v>
       </c>
       <c r="I518" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J518" t="s">
         <v>605</v>
@@ -22280,7 +22268,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519" s="8" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B519" t="s">
         <v>197</v>
@@ -22304,7 +22292,7 @@
         <v>605</v>
       </c>
       <c r="I519" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="J519" t="s">
         <v>605</v>
@@ -22315,7 +22303,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520" s="8" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B520" t="s">
         <v>198</v>
@@ -22339,7 +22327,7 @@
         <v>601</v>
       </c>
       <c r="I520" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J520" t="s">
         <v>611</v>
@@ -22350,7 +22338,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521" s="8" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B521" t="s">
         <v>198</v>
@@ -22374,7 +22362,7 @@
         <v>601</v>
       </c>
       <c r="I521" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J521" t="s">
         <v>611</v>
@@ -22385,7 +22373,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522" s="8" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B522" t="s">
         <v>199</v>
@@ -22420,7 +22408,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A523" s="8" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B523" t="s">
         <v>200</v>
@@ -22444,10 +22432,10 @@
         <v>607</v>
       </c>
       <c r="I523" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J523" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K523" t="s">
         <v>603</v>
@@ -22455,7 +22443,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524" s="8" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B524" t="s">
         <v>200</v>
@@ -22479,10 +22467,10 @@
         <v>607</v>
       </c>
       <c r="I524" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J524" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K524" t="s">
         <v>603</v>
@@ -22490,7 +22478,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A525" s="8" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B525" t="s">
         <v>201</v>
@@ -22514,10 +22502,10 @@
         <v>601</v>
       </c>
       <c r="I525" t="s">
+        <v>624</v>
+      </c>
+      <c r="J525" t="s">
         <v>625</v>
-      </c>
-      <c r="J525" t="s">
-        <v>626</v>
       </c>
       <c r="K525" t="s">
         <v>603</v>
@@ -22525,7 +22513,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526" s="8" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B526" t="s">
         <v>202</v>
@@ -22560,7 +22548,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B527" t="s">
         <v>203</v>
@@ -22595,7 +22583,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528" s="8" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B528" t="s">
         <v>204</v>
@@ -22630,7 +22618,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A529" s="8" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B529" t="s">
         <v>205</v>
@@ -22654,10 +22642,10 @@
         <v>601</v>
       </c>
       <c r="I529" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J529" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K529" t="s">
         <v>603</v>
@@ -22665,7 +22653,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A530" s="8" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B530" t="s">
         <v>205</v>
@@ -22700,7 +22688,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A531" s="8" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B531" t="s">
         <v>205</v>
@@ -22735,7 +22723,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A532" s="8" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B532" t="s">
         <v>205</v>
@@ -22770,7 +22758,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A533" s="8" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B533" t="s">
         <v>205</v>
@@ -22805,7 +22793,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534" s="8" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B534" t="s">
         <v>205</v>
@@ -22829,10 +22817,10 @@
         <v>601</v>
       </c>
       <c r="I534" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J534" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K534" t="s">
         <v>603</v>
@@ -22840,7 +22828,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A535" s="8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B535" t="s">
         <v>206</v>
@@ -22855,7 +22843,7 @@
         <v>7</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G535" t="s">
         <v>606</v>
@@ -22864,10 +22852,10 @@
         <v>601</v>
       </c>
       <c r="I535" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="J535" t="s">
-        <v>638</v>
+        <v>1231</v>
       </c>
       <c r="K535" t="s">
         <v>603</v>
@@ -22875,7 +22863,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536" s="8" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B536" t="s">
         <v>207</v>
@@ -22899,10 +22887,10 @@
         <v>607</v>
       </c>
       <c r="I536" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="J536" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="K536" t="s">
         <v>603</v>
@@ -22910,7 +22898,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A537" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B537" t="s">
         <v>208</v>
@@ -22945,7 +22933,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A538" s="8" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B538" t="s">
         <v>209</v>
@@ -22972,7 +22960,7 @@
         <v>348</v>
       </c>
       <c r="J538" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="K538" t="s">
         <v>603</v>
@@ -22980,7 +22968,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A539" s="8" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B539" t="s">
         <v>209</v>
@@ -23007,7 +22995,7 @@
         <v>348</v>
       </c>
       <c r="J539" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="K539" t="s">
         <v>603</v>
@@ -23015,7 +23003,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A540" s="8" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B540" t="s">
         <v>209</v>
@@ -23039,10 +23027,10 @@
         <v>607</v>
       </c>
       <c r="I540" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="J540" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="K540" t="s">
         <v>603</v>
@@ -23050,7 +23038,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A541" s="8" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B541" t="s">
         <v>209</v>
@@ -23074,10 +23062,10 @@
         <v>607</v>
       </c>
       <c r="I541" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="J541" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="K541" t="s">
         <v>603</v>
@@ -23085,7 +23073,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A542" s="8" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B542" t="s">
         <v>210</v>
@@ -23112,7 +23100,7 @@
         <v>608</v>
       </c>
       <c r="J542" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K542" t="s">
         <v>603</v>
@@ -23120,7 +23108,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A543" s="8" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B543" t="s">
         <v>210</v>
@@ -23147,7 +23135,7 @@
         <v>608</v>
       </c>
       <c r="J543" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K543" t="s">
         <v>603</v>
@@ -23155,7 +23143,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A544" s="8" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B544" t="s">
         <v>211</v>
@@ -23190,7 +23178,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A545" s="8" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B545" t="s">
         <v>211</v>
@@ -23225,7 +23213,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A546" s="8" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B546" t="s">
         <v>211</v>
@@ -23260,7 +23248,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547" s="8" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B547" t="s">
         <v>211</v>
@@ -23295,7 +23283,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A548" s="8" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B548" t="s">
         <v>211</v>
@@ -23319,10 +23307,10 @@
         <v>601</v>
       </c>
       <c r="I548" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J548" t="s">
-        <v>639</v>
+        <v>1231</v>
       </c>
       <c r="K548" t="s">
         <v>603</v>
@@ -23330,7 +23318,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A549" s="8" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B549" t="s">
         <v>212</v>
@@ -23357,7 +23345,7 @@
         <v>610</v>
       </c>
       <c r="J549" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K549" t="s">
         <v>603</v>
@@ -23365,7 +23353,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A550" s="8" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B550" t="s">
         <v>212</v>
@@ -23392,7 +23380,7 @@
         <v>610</v>
       </c>
       <c r="J550" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K550" t="s">
         <v>603</v>
@@ -23400,7 +23388,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A551" s="8" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B551" t="s">
         <v>212</v>
@@ -23435,7 +23423,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A552" s="8" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B552" t="s">
         <v>212</v>
@@ -23470,7 +23458,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A553" s="8" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B553" t="s">
         <v>212</v>
@@ -23497,7 +23485,7 @@
         <v>610</v>
       </c>
       <c r="J553" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K553" t="s">
         <v>603</v>
@@ -23505,7 +23493,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A554" s="8" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B554" t="s">
         <v>212</v>
@@ -23532,7 +23520,7 @@
         <v>610</v>
       </c>
       <c r="J554" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K554" t="s">
         <v>603</v>
@@ -23540,7 +23528,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A555" s="8" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B555" t="s">
         <v>212</v>
@@ -23567,7 +23555,7 @@
         <v>610</v>
       </c>
       <c r="J555" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K555" t="s">
         <v>603</v>
@@ -23575,7 +23563,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A556" s="8" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B556" t="s">
         <v>212</v>
@@ -23610,7 +23598,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A557" s="8" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B557" t="s">
         <v>212</v>
@@ -23645,7 +23633,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A558" s="8" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B558" t="s">
         <v>213</v>
@@ -23680,7 +23668,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A559" s="8" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B559" t="s">
         <v>213</v>
@@ -23715,7 +23703,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A560" s="8" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B560" t="s">
         <v>214</v>
@@ -23739,10 +23727,10 @@
         <v>601</v>
       </c>
       <c r="I560" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="J560" t="s">
-        <v>646</v>
+        <v>1231</v>
       </c>
       <c r="K560" t="s">
         <v>603</v>
@@ -23750,7 +23738,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A561" s="8" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B561" t="s">
         <v>214</v>
@@ -23785,7 +23773,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A562" s="8" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B562" t="s">
         <v>214</v>
@@ -23820,7 +23808,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A563" s="8" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B563" t="s">
         <v>214</v>
@@ -23855,7 +23843,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A564" s="8" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B564" t="s">
         <v>214</v>
@@ -23890,7 +23878,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A565" s="8" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B565" t="s">
         <v>215</v>
@@ -23914,10 +23902,10 @@
         <v>601</v>
       </c>
       <c r="I565" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="J565" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K565" t="s">
         <v>603</v>

--- a/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40867063-1B14-054A-B532-DA8C68D96610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809BCA80-BBD4-5D4F-B198-C2545BCC0E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6203" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6203" uniqueCount="1211">
   <si>
     <t>DOI</t>
   </si>
@@ -1850,9 +1850,6 @@
   </si>
   <si>
     <t>Concentration</t>
-  </si>
-  <si>
-    <t>Colony count</t>
   </si>
   <si>
     <t>Count</t>
@@ -4063,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F76" zoomScale="125" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" topLeftCell="F196" zoomScale="125" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="J210" sqref="J210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4078,7 +4075,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4108,12 +4105,12 @@
         <v>598</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4148,7 +4145,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -4183,7 +4180,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -4218,7 +4215,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -4242,10 +4239,10 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K5" t="s">
         <v>602</v>
@@ -4253,7 +4250,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -4288,7 +4285,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -4323,7 +4320,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -4347,10 +4344,10 @@
         <v>600</v>
       </c>
       <c r="I8" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="J8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -4358,7 +4355,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -4393,7 +4390,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -4428,7 +4425,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -4452,7 +4449,7 @@
         <v>600</v>
       </c>
       <c r="I11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J11" t="s">
         <v>609</v>
@@ -4463,7 +4460,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -4487,10 +4484,10 @@
         <v>600</v>
       </c>
       <c r="I12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J12" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K12" t="s">
         <v>602</v>
@@ -4498,7 +4495,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -4533,7 +4530,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -4554,13 +4551,13 @@
         <v>599</v>
       </c>
       <c r="H14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K14" t="s">
         <v>602</v>
@@ -4568,7 +4565,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -4589,13 +4586,13 @@
         <v>599</v>
       </c>
       <c r="H15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K15" t="s">
         <v>602</v>
@@ -4603,7 +4600,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -4627,10 +4624,10 @@
         <v>600</v>
       </c>
       <c r="I16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K16" t="s">
         <v>602</v>
@@ -4638,7 +4635,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -4662,10 +4659,10 @@
         <v>600</v>
       </c>
       <c r="I17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K17" t="s">
         <v>602</v>
@@ -4673,7 +4670,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -4697,10 +4694,10 @@
         <v>600</v>
       </c>
       <c r="I18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K18" t="s">
         <v>602</v>
@@ -4708,7 +4705,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -4732,10 +4729,10 @@
         <v>600</v>
       </c>
       <c r="I19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K19" t="s">
         <v>602</v>
@@ -4743,7 +4740,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -4764,13 +4761,13 @@
         <v>599</v>
       </c>
       <c r="H20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K20" t="s">
         <v>602</v>
@@ -4778,7 +4775,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -4799,13 +4796,13 @@
         <v>599</v>
       </c>
       <c r="H21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K21" t="s">
         <v>602</v>
@@ -4813,7 +4810,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -4837,10 +4834,10 @@
         <v>600</v>
       </c>
       <c r="I22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J22" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K22" t="s">
         <v>602</v>
@@ -4848,7 +4845,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -4883,7 +4880,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -4907,7 +4904,7 @@
         <v>604</v>
       </c>
       <c r="I24" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J24" t="s">
         <v>604</v>
@@ -4918,7 +4915,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -4942,7 +4939,7 @@
         <v>604</v>
       </c>
       <c r="I25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J25" t="s">
         <v>604</v>
@@ -4953,7 +4950,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -4977,7 +4974,7 @@
         <v>604</v>
       </c>
       <c r="I26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J26" t="s">
         <v>604</v>
@@ -4988,7 +4985,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -5023,7 +5020,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -5058,7 +5055,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -5082,7 +5079,7 @@
         <v>604</v>
       </c>
       <c r="I29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J29" t="s">
         <v>604</v>
@@ -5093,7 +5090,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -5117,10 +5114,10 @@
         <v>600</v>
       </c>
       <c r="I30" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J30" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K30" t="s">
         <v>602</v>
@@ -5128,7 +5125,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
@@ -5163,7 +5160,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -5198,7 +5195,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -5233,7 +5230,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
@@ -5268,7 +5265,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -5303,7 +5300,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
@@ -5338,7 +5335,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
@@ -5373,7 +5370,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
@@ -5408,7 +5405,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
@@ -5443,7 +5440,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -5478,7 +5475,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
@@ -5502,10 +5499,10 @@
         <v>600</v>
       </c>
       <c r="I41" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J41" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K41">
         <v>10</v>
@@ -5513,7 +5510,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -5537,10 +5534,10 @@
         <v>600</v>
       </c>
       <c r="I42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K42" t="s">
         <v>602</v>
@@ -5548,7 +5545,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -5572,10 +5569,10 @@
         <v>600</v>
       </c>
       <c r="I43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K43" t="s">
         <v>602</v>
@@ -5583,7 +5580,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -5607,10 +5604,10 @@
         <v>600</v>
       </c>
       <c r="I44" t="s">
+        <v>619</v>
+      </c>
+      <c r="J44" t="s">
         <v>620</v>
-      </c>
-      <c r="J44" t="s">
-        <v>621</v>
       </c>
       <c r="K44" t="s">
         <v>602</v>
@@ -5618,7 +5615,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
@@ -5642,10 +5639,10 @@
         <v>600</v>
       </c>
       <c r="I45" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J45" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K45" t="s">
         <v>602</v>
@@ -5653,7 +5650,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
@@ -5677,7 +5674,7 @@
         <v>600</v>
       </c>
       <c r="I46" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J46" t="s">
         <v>609</v>
@@ -5688,7 +5685,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -5712,7 +5709,7 @@
         <v>600</v>
       </c>
       <c r="I47" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J47" t="s">
         <v>609</v>
@@ -5723,7 +5720,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -5747,7 +5744,7 @@
         <v>600</v>
       </c>
       <c r="I48" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J48" t="s">
         <v>609</v>
@@ -5758,7 +5755,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -5782,7 +5779,7 @@
         <v>600</v>
       </c>
       <c r="I49" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J49" t="s">
         <v>609</v>
@@ -5793,7 +5790,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B50" t="s">
         <v>38</v>
@@ -5817,10 +5814,10 @@
         <v>600</v>
       </c>
       <c r="I50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J50" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K50" t="s">
         <v>602</v>
@@ -5828,7 +5825,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
@@ -5863,7 +5860,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -5887,10 +5884,10 @@
         <v>600</v>
       </c>
       <c r="I52" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J52" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K52" t="s">
         <v>602</v>
@@ -5898,7 +5895,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -5922,7 +5919,7 @@
         <v>604</v>
       </c>
       <c r="I53" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J53" t="s">
         <v>604</v>
@@ -5933,7 +5930,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B54" t="s">
         <v>40</v>
@@ -5968,7 +5965,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B55" t="s">
         <v>41</v>
@@ -6003,7 +6000,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B56" t="s">
         <v>41</v>
@@ -6038,7 +6035,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
@@ -6073,7 +6070,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
@@ -6108,7 +6105,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B59" t="s">
         <v>41</v>
@@ -6143,7 +6140,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B60" t="s">
         <v>41</v>
@@ -6167,7 +6164,7 @@
         <v>600</v>
       </c>
       <c r="I60" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J60" t="s">
         <v>608</v>
@@ -6178,7 +6175,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
@@ -6202,7 +6199,7 @@
         <v>600</v>
       </c>
       <c r="I61" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J61" t="s">
         <v>608</v>
@@ -6213,7 +6210,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B62" t="s">
         <v>41</v>
@@ -6237,7 +6234,7 @@
         <v>600</v>
       </c>
       <c r="I62" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J62" t="s">
         <v>608</v>
@@ -6248,7 +6245,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B63" t="s">
         <v>41</v>
@@ -6272,7 +6269,7 @@
         <v>600</v>
       </c>
       <c r="I63" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J63" t="s">
         <v>608</v>
@@ -6283,7 +6280,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -6307,7 +6304,7 @@
         <v>600</v>
       </c>
       <c r="I64" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J64" t="s">
         <v>608</v>
@@ -6318,7 +6315,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B65" t="s">
         <v>41</v>
@@ -6342,7 +6339,7 @@
         <v>600</v>
       </c>
       <c r="I65" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J65" t="s">
         <v>608</v>
@@ -6353,7 +6350,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B66" t="s">
         <v>41</v>
@@ -6388,7 +6385,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B67" t="s">
         <v>41</v>
@@ -6423,7 +6420,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B68" t="s">
         <v>41</v>
@@ -6458,7 +6455,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
@@ -6493,7 +6490,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B70" t="s">
         <v>47</v>
@@ -6528,7 +6525,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B71" t="s">
         <v>48</v>
@@ -6549,13 +6546,13 @@
         <v>599</v>
       </c>
       <c r="H71" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I71" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J71" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K71" t="s">
         <v>602</v>
@@ -6563,7 +6560,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
@@ -6584,13 +6581,13 @@
         <v>599</v>
       </c>
       <c r="H72" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I72" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J72" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K72" t="s">
         <v>602</v>
@@ -6598,7 +6595,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
@@ -6619,13 +6616,13 @@
         <v>599</v>
       </c>
       <c r="H73" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I73" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J73" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K73" t="s">
         <v>602</v>
@@ -6633,7 +6630,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
@@ -6654,13 +6651,13 @@
         <v>599</v>
       </c>
       <c r="H74" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I74" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J74" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K74" t="s">
         <v>602</v>
@@ -6668,7 +6665,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
@@ -6689,13 +6686,13 @@
         <v>599</v>
       </c>
       <c r="H75" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I75" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J75" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K75" t="s">
         <v>602</v>
@@ -6703,7 +6700,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
@@ -6724,13 +6721,13 @@
         <v>599</v>
       </c>
       <c r="H76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K76" t="s">
         <v>602</v>
@@ -6738,7 +6735,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
@@ -6759,13 +6756,13 @@
         <v>599</v>
       </c>
       <c r="H77" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I77" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J77" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K77" t="s">
         <v>602</v>
@@ -6773,7 +6770,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
@@ -6794,13 +6791,13 @@
         <v>599</v>
       </c>
       <c r="H78" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I78" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J78" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K78" t="s">
         <v>602</v>
@@ -6808,7 +6805,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B79" t="s">
         <v>49</v>
@@ -6832,7 +6829,7 @@
         <v>600</v>
       </c>
       <c r="I79" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J79" t="s">
         <v>608</v>
@@ -6843,7 +6840,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B80" t="s">
         <v>49</v>
@@ -6867,7 +6864,7 @@
         <v>600</v>
       </c>
       <c r="I80" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J80" t="s">
         <v>608</v>
@@ -6878,7 +6875,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B81" t="s">
         <v>50</v>
@@ -6902,7 +6899,7 @@
         <v>604</v>
       </c>
       <c r="I81" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J81" t="s">
         <v>604</v>
@@ -6913,7 +6910,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B82" t="s">
         <v>51</v>
@@ -6937,10 +6934,10 @@
         <v>606</v>
       </c>
       <c r="I82" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J82" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K82" t="s">
         <v>602</v>
@@ -6948,7 +6945,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B83" t="s">
         <v>51</v>
@@ -6969,13 +6966,13 @@
         <v>599</v>
       </c>
       <c r="H83" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I83" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J83" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K83" t="s">
         <v>602</v>
@@ -6983,7 +6980,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B84" t="s">
         <v>51</v>
@@ -7004,13 +7001,13 @@
         <v>599</v>
       </c>
       <c r="H84" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I84" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J84" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K84" t="s">
         <v>602</v>
@@ -7018,7 +7015,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B85" t="s">
         <v>51</v>
@@ -7039,13 +7036,13 @@
         <v>599</v>
       </c>
       <c r="H85" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I85" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J85" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K85" t="s">
         <v>602</v>
@@ -7053,7 +7050,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B86" t="s">
         <v>51</v>
@@ -7074,13 +7071,13 @@
         <v>599</v>
       </c>
       <c r="H86" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I86" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J86" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K86" t="s">
         <v>602</v>
@@ -7088,7 +7085,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B87" t="s">
         <v>51</v>
@@ -7109,13 +7106,13 @@
         <v>599</v>
       </c>
       <c r="H87" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I87" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J87" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K87" t="s">
         <v>602</v>
@@ -7123,7 +7120,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B88" t="s">
         <v>51</v>
@@ -7144,13 +7141,13 @@
         <v>599</v>
       </c>
       <c r="H88" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I88" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J88" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K88" t="s">
         <v>602</v>
@@ -7158,7 +7155,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B89" t="s">
         <v>51</v>
@@ -7179,13 +7176,13 @@
         <v>599</v>
       </c>
       <c r="H89" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I89" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J89" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K89" t="s">
         <v>602</v>
@@ -7193,7 +7190,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B90" t="s">
         <v>51</v>
@@ -7228,7 +7225,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B91" t="s">
         <v>51</v>
@@ -7249,13 +7246,13 @@
         <v>599</v>
       </c>
       <c r="H91" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I91" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J91" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K91" t="s">
         <v>602</v>
@@ -7263,7 +7260,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B92" t="s">
         <v>51</v>
@@ -7284,13 +7281,13 @@
         <v>599</v>
       </c>
       <c r="H92" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I92" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J92" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K92" t="s">
         <v>602</v>
@@ -7298,7 +7295,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B93" t="s">
         <v>51</v>
@@ -7319,13 +7316,13 @@
         <v>599</v>
       </c>
       <c r="H93" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I93" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J93" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K93" t="s">
         <v>602</v>
@@ -7333,7 +7330,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B94" t="s">
         <v>52</v>
@@ -7357,10 +7354,10 @@
         <v>600</v>
       </c>
       <c r="I94" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J94" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K94" t="s">
         <v>602</v>
@@ -7368,7 +7365,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B95" t="s">
         <v>53</v>
@@ -7392,10 +7389,10 @@
         <v>600</v>
       </c>
       <c r="I95" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J95" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K95" t="s">
         <v>602</v>
@@ -7403,7 +7400,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B96" t="s">
         <v>54</v>
@@ -7418,7 +7415,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G96" t="s">
         <v>605</v>
@@ -7438,7 +7435,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B97" t="s">
         <v>54</v>
@@ -7462,10 +7459,10 @@
         <v>600</v>
       </c>
       <c r="I97" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K97" t="s">
         <v>602</v>
@@ -7473,7 +7470,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B98" t="s">
         <v>54</v>
@@ -7497,10 +7494,10 @@
         <v>600</v>
       </c>
       <c r="I98" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J98" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K98" t="s">
         <v>602</v>
@@ -7508,7 +7505,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B99" t="s">
         <v>54</v>
@@ -7532,10 +7529,10 @@
         <v>600</v>
       </c>
       <c r="I99" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="J99" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K99" t="s">
         <v>602</v>
@@ -7543,7 +7540,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B100" t="s">
         <v>55</v>
@@ -7578,7 +7575,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B101" t="s">
         <v>56</v>
@@ -7613,7 +7610,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B102" t="s">
         <v>56</v>
@@ -7648,7 +7645,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B103" t="s">
         <v>57</v>
@@ -7669,7 +7666,7 @@
         <v>599</v>
       </c>
       <c r="H103" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I103" t="s">
         <v>607</v>
@@ -7683,7 +7680,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B104" t="s">
         <v>57</v>
@@ -7704,7 +7701,7 @@
         <v>599</v>
       </c>
       <c r="H104" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I104" t="s">
         <v>607</v>
@@ -7718,7 +7715,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
@@ -7739,7 +7736,7 @@
         <v>599</v>
       </c>
       <c r="H105" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I105" t="s">
         <v>607</v>
@@ -7753,7 +7750,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B106" t="s">
         <v>57</v>
@@ -7774,7 +7771,7 @@
         <v>599</v>
       </c>
       <c r="H106" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I106" t="s">
         <v>607</v>
@@ -7788,7 +7785,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B107" t="s">
         <v>57</v>
@@ -7809,7 +7806,7 @@
         <v>599</v>
       </c>
       <c r="H107" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I107" t="s">
         <v>607</v>
@@ -7823,7 +7820,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B108" t="s">
         <v>57</v>
@@ -7844,7 +7841,7 @@
         <v>599</v>
       </c>
       <c r="H108" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I108" t="s">
         <v>607</v>
@@ -7858,7 +7855,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B109" t="s">
         <v>57</v>
@@ -7879,7 +7876,7 @@
         <v>599</v>
       </c>
       <c r="H109" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I109" t="s">
         <v>607</v>
@@ -7893,7 +7890,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B110" t="s">
         <v>57</v>
@@ -7917,10 +7914,10 @@
         <v>600</v>
       </c>
       <c r="I110" t="s">
+        <v>619</v>
+      </c>
+      <c r="J110" t="s">
         <v>620</v>
-      </c>
-      <c r="J110" t="s">
-        <v>621</v>
       </c>
       <c r="K110" t="s">
         <v>602</v>
@@ -7928,7 +7925,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B111" t="s">
         <v>57</v>
@@ -7952,10 +7949,10 @@
         <v>600</v>
       </c>
       <c r="I111" t="s">
+        <v>619</v>
+      </c>
+      <c r="J111" t="s">
         <v>620</v>
-      </c>
-      <c r="J111" t="s">
-        <v>621</v>
       </c>
       <c r="K111" t="s">
         <v>602</v>
@@ -7963,7 +7960,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B112" t="s">
         <v>58</v>
@@ -7998,7 +7995,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B113" t="s">
         <v>59</v>
@@ -8022,7 +8019,7 @@
         <v>600</v>
       </c>
       <c r="I113" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J113" t="s">
         <v>609</v>
@@ -8033,7 +8030,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B114" t="s">
         <v>59</v>
@@ -8068,7 +8065,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B115" t="s">
         <v>59</v>
@@ -8092,7 +8089,7 @@
         <v>600</v>
       </c>
       <c r="I115" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J115" t="s">
         <v>609</v>
@@ -8103,7 +8100,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B116" t="s">
         <v>59</v>
@@ -8127,7 +8124,7 @@
         <v>600</v>
       </c>
       <c r="I116" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J116" t="s">
         <v>609</v>
@@ -8138,7 +8135,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B117" t="s">
         <v>59</v>
@@ -8162,7 +8159,7 @@
         <v>600</v>
       </c>
       <c r="I117" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J117" t="s">
         <v>609</v>
@@ -8173,7 +8170,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B118" t="s">
         <v>59</v>
@@ -8188,7 +8185,7 @@
         <v>7</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G118" t="s">
         <v>605</v>
@@ -8197,10 +8194,10 @@
         <v>600</v>
       </c>
       <c r="I118" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J118" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K118" t="s">
         <v>602</v>
@@ -8208,7 +8205,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B119" t="s">
         <v>59</v>
@@ -8232,10 +8229,10 @@
         <v>600</v>
       </c>
       <c r="I119" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J119" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K119" t="s">
         <v>602</v>
@@ -8243,7 +8240,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B120" t="s">
         <v>59</v>
@@ -8267,10 +8264,10 @@
         <v>600</v>
       </c>
       <c r="I120" t="s">
+        <v>619</v>
+      </c>
+      <c r="J120" t="s">
         <v>620</v>
-      </c>
-      <c r="J120" t="s">
-        <v>621</v>
       </c>
       <c r="K120" t="s">
         <v>602</v>
@@ -8278,7 +8275,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B121" t="s">
         <v>59</v>
@@ -8302,7 +8299,7 @@
         <v>600</v>
       </c>
       <c r="I121" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J121" t="s">
         <v>609</v>
@@ -8313,7 +8310,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B122" t="s">
         <v>59</v>
@@ -8337,7 +8334,7 @@
         <v>600</v>
       </c>
       <c r="I122" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J122" t="s">
         <v>609</v>
@@ -8348,7 +8345,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B123" t="s">
         <v>59</v>
@@ -8372,7 +8369,7 @@
         <v>600</v>
       </c>
       <c r="I123" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J123" t="s">
         <v>609</v>
@@ -8383,7 +8380,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B124" t="s">
         <v>59</v>
@@ -8407,7 +8404,7 @@
         <v>600</v>
       </c>
       <c r="I124" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J124" t="s">
         <v>609</v>
@@ -8418,7 +8415,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B125" t="s">
         <v>59</v>
@@ -8442,7 +8439,7 @@
         <v>600</v>
       </c>
       <c r="I125" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J125" t="s">
         <v>609</v>
@@ -8453,7 +8450,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B126" t="s">
         <v>59</v>
@@ -8477,7 +8474,7 @@
         <v>600</v>
       </c>
       <c r="I126" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J126" t="s">
         <v>609</v>
@@ -8488,7 +8485,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B127" t="s">
         <v>59</v>
@@ -8512,7 +8509,7 @@
         <v>600</v>
       </c>
       <c r="I127" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J127" t="s">
         <v>609</v>
@@ -8523,7 +8520,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B128" t="s">
         <v>59</v>
@@ -8547,7 +8544,7 @@
         <v>600</v>
       </c>
       <c r="I128" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J128" t="s">
         <v>609</v>
@@ -8558,7 +8555,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B129" t="s">
         <v>61</v>
@@ -8593,7 +8590,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B130" t="s">
         <v>61</v>
@@ -8617,10 +8614,10 @@
         <v>600</v>
       </c>
       <c r="I130" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J130" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K130" t="s">
         <v>602</v>
@@ -8628,7 +8625,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B131" t="s">
         <v>61</v>
@@ -8663,7 +8660,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B132" t="s">
         <v>62</v>
@@ -8698,7 +8695,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B133" t="s">
         <v>62</v>
@@ -8722,10 +8719,10 @@
         <v>600</v>
       </c>
       <c r="I133" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J133" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K133" t="s">
         <v>602</v>
@@ -8733,7 +8730,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B134" t="s">
         <v>63</v>
@@ -8757,10 +8754,10 @@
         <v>600</v>
       </c>
       <c r="I134" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J134" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K134" t="s">
         <v>602</v>
@@ -8768,7 +8765,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B135" t="s">
         <v>63</v>
@@ -8792,10 +8789,10 @@
         <v>600</v>
       </c>
       <c r="I135" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J135" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K135" t="s">
         <v>602</v>
@@ -8803,7 +8800,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B136" t="s">
         <v>63</v>
@@ -8827,10 +8824,10 @@
         <v>600</v>
       </c>
       <c r="I136" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J136" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K136" t="s">
         <v>602</v>
@@ -8838,7 +8835,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B137" t="s">
         <v>63</v>
@@ -8862,10 +8859,10 @@
         <v>600</v>
       </c>
       <c r="I137" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J137" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K137" t="s">
         <v>602</v>
@@ -8873,7 +8870,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B138" t="s">
         <v>63</v>
@@ -8897,10 +8894,10 @@
         <v>600</v>
       </c>
       <c r="I138" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J138" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K138" t="s">
         <v>602</v>
@@ -8908,7 +8905,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B139" t="s">
         <v>63</v>
@@ -8932,10 +8929,10 @@
         <v>600</v>
       </c>
       <c r="I139" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J139" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K139" t="s">
         <v>602</v>
@@ -8943,7 +8940,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B140" t="s">
         <v>64</v>
@@ -8978,7 +8975,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B141" t="s">
         <v>65</v>
@@ -9002,10 +8999,10 @@
         <v>600</v>
       </c>
       <c r="I141" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J141" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K141" t="s">
         <v>602</v>
@@ -9013,7 +9010,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B142" t="s">
         <v>65</v>
@@ -9037,10 +9034,10 @@
         <v>600</v>
       </c>
       <c r="I142" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J142" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K142" t="s">
         <v>602</v>
@@ -9048,7 +9045,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B143" t="s">
         <v>66</v>
@@ -9072,10 +9069,10 @@
         <v>600</v>
       </c>
       <c r="I143" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J143" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K143" t="s">
         <v>602</v>
@@ -9083,7 +9080,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B144" t="s">
         <v>67</v>
@@ -9104,13 +9101,13 @@
         <v>599</v>
       </c>
       <c r="H144" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I144" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J144" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K144" t="s">
         <v>602</v>
@@ -9118,7 +9115,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B145" t="s">
         <v>67</v>
@@ -9139,13 +9136,13 @@
         <v>599</v>
       </c>
       <c r="H145" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I145" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J145" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K145" t="s">
         <v>602</v>
@@ -9153,7 +9150,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B146" t="s">
         <v>67</v>
@@ -9177,10 +9174,10 @@
         <v>600</v>
       </c>
       <c r="I146" t="s">
+        <v>619</v>
+      </c>
+      <c r="J146" t="s">
         <v>620</v>
-      </c>
-      <c r="J146" t="s">
-        <v>621</v>
       </c>
       <c r="K146" t="s">
         <v>602</v>
@@ -9188,7 +9185,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B147" t="s">
         <v>67</v>
@@ -9209,13 +9206,13 @@
         <v>599</v>
       </c>
       <c r="H147" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I147" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J147" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K147" t="s">
         <v>602</v>
@@ -9223,7 +9220,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B148" t="s">
         <v>67</v>
@@ -9244,13 +9241,13 @@
         <v>599</v>
       </c>
       <c r="H148" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I148" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J148" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K148" t="s">
         <v>602</v>
@@ -9258,7 +9255,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B149" t="s">
         <v>67</v>
@@ -9279,13 +9276,13 @@
         <v>599</v>
       </c>
       <c r="H149" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I149" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J149" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K149" t="s">
         <v>602</v>
@@ -9293,7 +9290,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B150" t="s">
         <v>67</v>
@@ -9314,13 +9311,13 @@
         <v>599</v>
       </c>
       <c r="H150" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I150" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J150" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K150" t="s">
         <v>602</v>
@@ -9328,7 +9325,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B151" t="s">
         <v>67</v>
@@ -9349,13 +9346,13 @@
         <v>599</v>
       </c>
       <c r="H151" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I151" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J151" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K151" t="s">
         <v>602</v>
@@ -9363,7 +9360,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B152" t="s">
         <v>68</v>
@@ -9387,10 +9384,10 @@
         <v>600</v>
       </c>
       <c r="I152" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J152" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K152" t="s">
         <v>602</v>
@@ -9398,7 +9395,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B153" t="s">
         <v>68</v>
@@ -9422,10 +9419,10 @@
         <v>600</v>
       </c>
       <c r="I153" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J153" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K153" t="s">
         <v>602</v>
@@ -9433,7 +9430,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B154" t="s">
         <v>68</v>
@@ -9457,10 +9454,10 @@
         <v>600</v>
       </c>
       <c r="I154" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J154" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K154" t="s">
         <v>602</v>
@@ -9468,7 +9465,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B155" t="s">
         <v>68</v>
@@ -9492,10 +9489,10 @@
         <v>600</v>
       </c>
       <c r="I155" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J155" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K155" t="s">
         <v>602</v>
@@ -9503,7 +9500,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B156" t="s">
         <v>69</v>
@@ -9538,7 +9535,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B157" t="s">
         <v>69</v>
@@ -9573,7 +9570,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B158" t="s">
         <v>70</v>
@@ -9594,13 +9591,13 @@
         <v>599</v>
       </c>
       <c r="H158" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I158" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J158" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K158" t="s">
         <v>602</v>
@@ -9608,7 +9605,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B159" t="s">
         <v>71</v>
@@ -9632,10 +9629,10 @@
         <v>600</v>
       </c>
       <c r="I159" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J159" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K159" t="s">
         <v>602</v>
@@ -9643,7 +9640,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B160" t="s">
         <v>71</v>
@@ -9678,7 +9675,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B161" t="s">
         <v>71</v>
@@ -9713,7 +9710,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B162" t="s">
         <v>71</v>
@@ -9748,7 +9745,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B163" t="s">
         <v>71</v>
@@ -9783,7 +9780,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B164" t="s">
         <v>71</v>
@@ -9818,7 +9815,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B165" t="s">
         <v>71</v>
@@ -9853,7 +9850,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B166" t="s">
         <v>72</v>
@@ -9888,7 +9885,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B167" t="s">
         <v>73</v>
@@ -9912,10 +9909,10 @@
         <v>600</v>
       </c>
       <c r="I167" t="s">
+        <v>619</v>
+      </c>
+      <c r="J167" t="s">
         <v>620</v>
-      </c>
-      <c r="J167" t="s">
-        <v>621</v>
       </c>
       <c r="K167" t="s">
         <v>602</v>
@@ -9923,7 +9920,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B168" t="s">
         <v>73</v>
@@ -9947,10 +9944,10 @@
         <v>600</v>
       </c>
       <c r="I168" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J168" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K168" t="s">
         <v>602</v>
@@ -9958,7 +9955,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B169" t="s">
         <v>74</v>
@@ -9979,13 +9976,13 @@
         <v>599</v>
       </c>
       <c r="H169" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I169" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J169" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K169" t="s">
         <v>602</v>
@@ -9993,7 +9990,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B170" t="s">
         <v>75</v>
@@ -10028,7 +10025,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B171" t="s">
         <v>75</v>
@@ -10052,10 +10049,10 @@
         <v>600</v>
       </c>
       <c r="I171" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J171" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K171" t="s">
         <v>602</v>
@@ -10063,7 +10060,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B172" t="s">
         <v>75</v>
@@ -10087,10 +10084,10 @@
         <v>600</v>
       </c>
       <c r="I172" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J172" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K172" t="s">
         <v>602</v>
@@ -10098,7 +10095,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B173" t="s">
         <v>75</v>
@@ -10133,7 +10130,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B174" t="s">
         <v>76</v>
@@ -10168,7 +10165,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B175" t="s">
         <v>77</v>
@@ -10192,7 +10189,7 @@
         <v>604</v>
       </c>
       <c r="I175" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J175" t="s">
         <v>604</v>
@@ -10203,7 +10200,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B176" t="s">
         <v>78</v>
@@ -10227,10 +10224,10 @@
         <v>600</v>
       </c>
       <c r="I176" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J176" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K176" t="s">
         <v>602</v>
@@ -10238,7 +10235,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B177" t="s">
         <v>79</v>
@@ -10262,7 +10259,7 @@
         <v>604</v>
       </c>
       <c r="I177" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J177" t="s">
         <v>604</v>
@@ -10273,7 +10270,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B178" t="s">
         <v>79</v>
@@ -10297,7 +10294,7 @@
         <v>604</v>
       </c>
       <c r="I178" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J178" t="s">
         <v>604</v>
@@ -10308,7 +10305,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B179" t="s">
         <v>80</v>
@@ -10332,7 +10329,7 @@
         <v>604</v>
       </c>
       <c r="I179" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J179" t="s">
         <v>604</v>
@@ -10343,7 +10340,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B180" t="s">
         <v>80</v>
@@ -10367,7 +10364,7 @@
         <v>604</v>
       </c>
       <c r="I180" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J180" t="s">
         <v>604</v>
@@ -10378,7 +10375,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B181" t="s">
         <v>80</v>
@@ -10402,7 +10399,7 @@
         <v>604</v>
       </c>
       <c r="I181" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J181" t="s">
         <v>604</v>
@@ -10413,7 +10410,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B182" t="s">
         <v>81</v>
@@ -10448,7 +10445,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B183" t="s">
         <v>82</v>
@@ -10469,13 +10466,13 @@
         <v>599</v>
       </c>
       <c r="H183" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I183" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J183" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K183" t="s">
         <v>602</v>
@@ -10483,7 +10480,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B184" t="s">
         <v>83</v>
@@ -10507,7 +10504,7 @@
         <v>604</v>
       </c>
       <c r="I184" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J184" t="s">
         <v>604</v>
@@ -10518,7 +10515,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B185" t="s">
         <v>84</v>
@@ -10553,7 +10550,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B186" t="s">
         <v>85</v>
@@ -10577,7 +10574,7 @@
         <v>604</v>
       </c>
       <c r="I186" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J186" t="s">
         <v>604</v>
@@ -10588,7 +10585,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B187" t="s">
         <v>85</v>
@@ -10612,7 +10609,7 @@
         <v>604</v>
       </c>
       <c r="I187" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J187" t="s">
         <v>604</v>
@@ -10623,7 +10620,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B188" t="s">
         <v>85</v>
@@ -10647,7 +10644,7 @@
         <v>604</v>
       </c>
       <c r="I188" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J188" t="s">
         <v>604</v>
@@ -10658,7 +10655,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B189" t="s">
         <v>85</v>
@@ -10682,7 +10679,7 @@
         <v>604</v>
       </c>
       <c r="I189" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J189" t="s">
         <v>604</v>
@@ -10693,7 +10690,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B190" t="s">
         <v>85</v>
@@ -10728,7 +10725,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B191" t="s">
         <v>85</v>
@@ -10752,7 +10749,7 @@
         <v>604</v>
       </c>
       <c r="I191" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J191" t="s">
         <v>604</v>
@@ -10763,7 +10760,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B192" t="s">
         <v>85</v>
@@ -10787,7 +10784,7 @@
         <v>604</v>
       </c>
       <c r="I192" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J192" t="s">
         <v>604</v>
@@ -10798,7 +10795,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B193" t="s">
         <v>85</v>
@@ -10833,7 +10830,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B194" t="s">
         <v>85</v>
@@ -10868,7 +10865,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B195" t="s">
         <v>85</v>
@@ -10892,7 +10889,7 @@
         <v>604</v>
       </c>
       <c r="I195" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J195" t="s">
         <v>604</v>
@@ -10903,7 +10900,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B196" t="s">
         <v>85</v>
@@ -10927,7 +10924,7 @@
         <v>604</v>
       </c>
       <c r="I196" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J196" t="s">
         <v>604</v>
@@ -10938,7 +10935,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B197" t="s">
         <v>85</v>
@@ -10973,7 +10970,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B198" t="s">
         <v>85</v>
@@ -11008,7 +11005,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B199" t="s">
         <v>85</v>
@@ -11032,7 +11029,7 @@
         <v>604</v>
       </c>
       <c r="I199" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J199" t="s">
         <v>604</v>
@@ -11043,7 +11040,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B200" t="s">
         <v>85</v>
@@ -11067,7 +11064,7 @@
         <v>604</v>
       </c>
       <c r="I200" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J200" t="s">
         <v>604</v>
@@ -11078,7 +11075,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B201" t="s">
         <v>91</v>
@@ -11102,10 +11099,10 @@
         <v>600</v>
       </c>
       <c r="I201" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J201" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K201" t="s">
         <v>602</v>
@@ -11113,7 +11110,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B202" t="s">
         <v>92</v>
@@ -11137,10 +11134,10 @@
         <v>600</v>
       </c>
       <c r="I202" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J202" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K202" t="s">
         <v>602</v>
@@ -11148,7 +11145,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B203" t="s">
         <v>92</v>
@@ -11172,10 +11169,10 @@
         <v>600</v>
       </c>
       <c r="I203" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J203" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K203" t="s">
         <v>602</v>
@@ -11183,7 +11180,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B204" t="s">
         <v>93</v>
@@ -11207,7 +11204,7 @@
         <v>604</v>
       </c>
       <c r="I204" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J204" t="s">
         <v>604</v>
@@ -11218,7 +11215,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B205" t="s">
         <v>93</v>
@@ -11242,7 +11239,7 @@
         <v>604</v>
       </c>
       <c r="I205" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J205" t="s">
         <v>604</v>
@@ -11253,7 +11250,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B206" t="s">
         <v>93</v>
@@ -11277,7 +11274,7 @@
         <v>604</v>
       </c>
       <c r="I206" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J206" t="s">
         <v>604</v>
@@ -11288,7 +11285,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B207" t="s">
         <v>93</v>
@@ -11312,7 +11309,7 @@
         <v>604</v>
       </c>
       <c r="I207" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J207" t="s">
         <v>604</v>
@@ -11323,7 +11320,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B208" t="s">
         <v>93</v>
@@ -11347,7 +11344,7 @@
         <v>604</v>
       </c>
       <c r="I208" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J208" t="s">
         <v>604</v>
@@ -11358,7 +11355,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B209" t="s">
         <v>94</v>
@@ -11379,13 +11376,13 @@
         <v>599</v>
       </c>
       <c r="H209" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I209" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J209" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K209" t="s">
         <v>602</v>
@@ -11393,7 +11390,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B210" t="s">
         <v>95</v>
@@ -11417,10 +11414,10 @@
         <v>600</v>
       </c>
       <c r="I210" t="s">
+        <v>619</v>
+      </c>
+      <c r="J210" t="s">
         <v>620</v>
-      </c>
-      <c r="J210" t="s">
-        <v>621</v>
       </c>
       <c r="K210" t="s">
         <v>602</v>
@@ -11428,7 +11425,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B211" t="s">
         <v>96</v>
@@ -11463,7 +11460,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B212" t="s">
         <v>96</v>
@@ -11498,7 +11495,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B213" t="s">
         <v>97</v>
@@ -11522,7 +11519,7 @@
         <v>600</v>
       </c>
       <c r="I213" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J213" t="s">
         <v>608</v>
@@ -11533,7 +11530,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B214" t="s">
         <v>97</v>
@@ -11557,10 +11554,10 @@
         <v>600</v>
       </c>
       <c r="I214" t="s">
+        <v>619</v>
+      </c>
+      <c r="J214" t="s">
         <v>620</v>
-      </c>
-      <c r="J214" t="s">
-        <v>621</v>
       </c>
       <c r="K214" t="s">
         <v>602</v>
@@ -11568,7 +11565,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B215" t="s">
         <v>97</v>
@@ -11592,10 +11589,10 @@
         <v>600</v>
       </c>
       <c r="I215" t="s">
+        <v>619</v>
+      </c>
+      <c r="J215" t="s">
         <v>620</v>
-      </c>
-      <c r="J215" t="s">
-        <v>621</v>
       </c>
       <c r="K215" t="s">
         <v>602</v>
@@ -11603,7 +11600,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B216" t="s">
         <v>98</v>
@@ -11627,10 +11624,10 @@
         <v>600</v>
       </c>
       <c r="I216" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="J216" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K216" t="s">
         <v>602</v>
@@ -11638,7 +11635,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B217" t="s">
         <v>98</v>
@@ -11662,10 +11659,10 @@
         <v>600</v>
       </c>
       <c r="I217" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="J217" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K217">
         <v>10</v>
@@ -11673,7 +11670,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B218" t="s">
         <v>99</v>
@@ -11697,10 +11694,10 @@
         <v>600</v>
       </c>
       <c r="I218" t="s">
+        <v>619</v>
+      </c>
+      <c r="J218" t="s">
         <v>620</v>
-      </c>
-      <c r="J218" t="s">
-        <v>621</v>
       </c>
       <c r="K218" t="s">
         <v>602</v>
@@ -11708,7 +11705,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B219" t="s">
         <v>100</v>
@@ -11743,7 +11740,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B220" t="s">
         <v>100</v>
@@ -11778,7 +11775,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B221" t="s">
         <v>101</v>
@@ -11802,7 +11799,7 @@
         <v>604</v>
       </c>
       <c r="I221" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J221" t="s">
         <v>604</v>
@@ -11813,7 +11810,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B222" t="s">
         <v>101</v>
@@ -11837,7 +11834,7 @@
         <v>604</v>
       </c>
       <c r="I222" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J222" t="s">
         <v>604</v>
@@ -11848,7 +11845,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B223" t="s">
         <v>102</v>
@@ -11883,7 +11880,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B224" t="s">
         <v>102</v>
@@ -11918,7 +11915,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B225" t="s">
         <v>102</v>
@@ -11942,10 +11939,10 @@
         <v>600</v>
       </c>
       <c r="I225" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J225" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K225" t="s">
         <v>602</v>
@@ -11953,7 +11950,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B226" t="s">
         <v>102</v>
@@ -11968,19 +11965,19 @@
         <v>7</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G226" t="s">
         <v>599</v>
       </c>
       <c r="H226" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I226" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J226" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K226" t="s">
         <v>602</v>
@@ -11988,7 +11985,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B227" t="s">
         <v>103</v>
@@ -12023,7 +12020,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B228" t="s">
         <v>104</v>
@@ -12058,7 +12055,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B229" t="s">
         <v>104</v>
@@ -12093,7 +12090,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B230" t="s">
         <v>104</v>
@@ -12128,7 +12125,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B231" t="s">
         <v>105</v>
@@ -12152,7 +12149,7 @@
         <v>600</v>
       </c>
       <c r="I231" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J231" t="s">
         <v>609</v>
@@ -12163,7 +12160,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B232" t="s">
         <v>105</v>
@@ -12198,7 +12195,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B233" t="s">
         <v>105</v>
@@ -12233,7 +12230,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B234" t="s">
         <v>105</v>
@@ -12268,7 +12265,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B235" t="s">
         <v>106</v>
@@ -12292,10 +12289,10 @@
         <v>600</v>
       </c>
       <c r="I235" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J235" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K235" t="s">
         <v>602</v>
@@ -12303,7 +12300,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B236" t="s">
         <v>106</v>
@@ -12338,7 +12335,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B237" t="s">
         <v>106</v>
@@ -12373,7 +12370,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B238" t="s">
         <v>106</v>
@@ -12408,7 +12405,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B239" t="s">
         <v>106</v>
@@ -12443,7 +12440,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B240" t="s">
         <v>106</v>
@@ -12478,7 +12475,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B241" t="s">
         <v>106</v>
@@ -12513,7 +12510,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B242" t="s">
         <v>107</v>
@@ -12537,10 +12534,10 @@
         <v>600</v>
       </c>
       <c r="I242" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J242" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K242" t="s">
         <v>602</v>
@@ -12548,7 +12545,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B243" t="s">
         <v>108</v>
@@ -12572,10 +12569,10 @@
         <v>600</v>
       </c>
       <c r="I243" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J243" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K243">
         <v>10</v>
@@ -12583,7 +12580,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B244" t="s">
         <v>109</v>
@@ -12618,7 +12615,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B245" t="s">
         <v>110</v>
@@ -12653,7 +12650,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B246" t="s">
         <v>111</v>
@@ -12688,7 +12685,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B247" t="s">
         <v>111</v>
@@ -12723,7 +12720,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B248" t="s">
         <v>112</v>
@@ -12747,10 +12744,10 @@
         <v>600</v>
       </c>
       <c r="I248" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J248" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K248" t="s">
         <v>602</v>
@@ -12758,7 +12755,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B249" t="s">
         <v>113</v>
@@ -12779,13 +12776,13 @@
         <v>599</v>
       </c>
       <c r="H249" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I249" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J249" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K249" t="s">
         <v>602</v>
@@ -12793,7 +12790,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B250" t="s">
         <v>114</v>
@@ -12828,7 +12825,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B251" t="s">
         <v>115</v>
@@ -12863,7 +12860,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B252" t="s">
         <v>116</v>
@@ -12887,7 +12884,7 @@
         <v>604</v>
       </c>
       <c r="I252" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J252" t="s">
         <v>604</v>
@@ -12898,7 +12895,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B253" t="s">
         <v>116</v>
@@ -12922,7 +12919,7 @@
         <v>604</v>
       </c>
       <c r="I253" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J253" t="s">
         <v>604</v>
@@ -12933,7 +12930,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B254" t="s">
         <v>116</v>
@@ -12957,7 +12954,7 @@
         <v>604</v>
       </c>
       <c r="I254" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J254" t="s">
         <v>604</v>
@@ -12968,7 +12965,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B255" t="s">
         <v>117</v>
@@ -12992,7 +12989,7 @@
         <v>604</v>
       </c>
       <c r="I255" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J255" t="s">
         <v>604</v>
@@ -13003,7 +13000,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B256" t="s">
         <v>117</v>
@@ -13027,7 +13024,7 @@
         <v>604</v>
       </c>
       <c r="I256" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J256" t="s">
         <v>604</v>
@@ -13038,7 +13035,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B257" t="s">
         <v>117</v>
@@ -13073,7 +13070,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B258" t="s">
         <v>118</v>
@@ -13097,10 +13094,10 @@
         <v>600</v>
       </c>
       <c r="I258" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J258" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K258" t="s">
         <v>602</v>
@@ -13108,7 +13105,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B259" t="s">
         <v>119</v>
@@ -13143,7 +13140,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B260" t="s">
         <v>119</v>
@@ -13178,7 +13175,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B261" t="s">
         <v>119</v>
@@ -13213,7 +13210,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B262" t="s">
         <v>119</v>
@@ -13248,7 +13245,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B263" t="s">
         <v>119</v>
@@ -13283,7 +13280,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B264" t="s">
         <v>119</v>
@@ -13318,7 +13315,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B265" t="s">
         <v>119</v>
@@ -13353,7 +13350,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B266" t="s">
         <v>119</v>
@@ -13388,7 +13385,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="8" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B267" t="s">
         <v>119</v>
@@ -13423,7 +13420,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B268" t="s">
         <v>119</v>
@@ -13458,7 +13455,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B269" t="s">
         <v>119</v>
@@ -13493,7 +13490,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B270" t="s">
         <v>119</v>
@@ -13528,7 +13525,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="8" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B271" t="s">
         <v>119</v>
@@ -13563,7 +13560,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B272" t="s">
         <v>119</v>
@@ -13598,7 +13595,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B273" t="s">
         <v>120</v>
@@ -13622,10 +13619,10 @@
         <v>606</v>
       </c>
       <c r="I273" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J273" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K273" t="s">
         <v>602</v>
@@ -13633,7 +13630,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B274" t="s">
         <v>120</v>
@@ -13648,7 +13645,7 @@
         <v>7</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G274" t="s">
         <v>599</v>
@@ -13657,10 +13654,10 @@
         <v>606</v>
       </c>
       <c r="I274" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J274" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K274" t="s">
         <v>602</v>
@@ -13668,7 +13665,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B275" t="s">
         <v>120</v>
@@ -13692,10 +13689,10 @@
         <v>600</v>
       </c>
       <c r="I275" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J275" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K275" t="s">
         <v>602</v>
@@ -13703,7 +13700,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B276" t="s">
         <v>120</v>
@@ -13718,7 +13715,7 @@
         <v>7</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G276" t="s">
         <v>605</v>
@@ -13727,10 +13724,10 @@
         <v>600</v>
       </c>
       <c r="I276" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J276" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K276">
         <v>10</v>
@@ -13738,7 +13735,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="8" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B277" t="s">
         <v>121</v>
@@ -13759,13 +13756,13 @@
         <v>599</v>
       </c>
       <c r="H277" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I277" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J277" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K277" t="s">
         <v>602</v>
@@ -13773,7 +13770,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B278" t="s">
         <v>122</v>
@@ -13808,7 +13805,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B279" t="s">
         <v>122</v>
@@ -13829,13 +13826,13 @@
         <v>599</v>
       </c>
       <c r="H279" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I279" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J279" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K279" t="s">
         <v>602</v>
@@ -13843,7 +13840,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B280" t="s">
         <v>122</v>
@@ -13864,13 +13861,13 @@
         <v>599</v>
       </c>
       <c r="H280" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I280" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J280" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K280" t="s">
         <v>602</v>
@@ -13878,7 +13875,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B281" t="s">
         <v>123</v>
@@ -13902,10 +13899,10 @@
         <v>600</v>
       </c>
       <c r="I281" t="s">
+        <v>619</v>
+      </c>
+      <c r="J281" t="s">
         <v>620</v>
-      </c>
-      <c r="J281" t="s">
-        <v>621</v>
       </c>
       <c r="K281" t="s">
         <v>602</v>
@@ -13913,7 +13910,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B282" t="s">
         <v>123</v>
@@ -13937,10 +13934,10 @@
         <v>600</v>
       </c>
       <c r="I282" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J282" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K282" t="s">
         <v>602</v>
@@ -13948,7 +13945,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B283" t="s">
         <v>123</v>
@@ -13972,10 +13969,10 @@
         <v>600</v>
       </c>
       <c r="I283" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J283" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K283" t="s">
         <v>602</v>
@@ -13983,7 +13980,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B284" t="s">
         <v>123</v>
@@ -14007,10 +14004,10 @@
         <v>600</v>
       </c>
       <c r="I284" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J284" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K284" t="s">
         <v>602</v>
@@ -14018,7 +14015,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B285" t="s">
         <v>124</v>
@@ -14042,10 +14039,10 @@
         <v>600</v>
       </c>
       <c r="I285" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J285" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K285" t="s">
         <v>602</v>
@@ -14053,7 +14050,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B286" t="s">
         <v>124</v>
@@ -14077,10 +14074,10 @@
         <v>600</v>
       </c>
       <c r="I286" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J286" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K286" t="s">
         <v>602</v>
@@ -14088,7 +14085,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B287" t="s">
         <v>124</v>
@@ -14112,10 +14109,10 @@
         <v>600</v>
       </c>
       <c r="I287" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J287" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K287" t="s">
         <v>602</v>
@@ -14123,7 +14120,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B288" t="s">
         <v>124</v>
@@ -14147,10 +14144,10 @@
         <v>600</v>
       </c>
       <c r="I288" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J288" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K288" t="s">
         <v>602</v>
@@ -14158,7 +14155,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="8" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B289" t="s">
         <v>124</v>
@@ -14193,7 +14190,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B290" t="s">
         <v>125</v>
@@ -14228,7 +14225,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B291" t="s">
         <v>125</v>
@@ -14263,7 +14260,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B292" t="s">
         <v>125</v>
@@ -14298,7 +14295,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B293" t="s">
         <v>125</v>
@@ -14322,10 +14319,10 @@
         <v>600</v>
       </c>
       <c r="I293" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J293" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K293" t="s">
         <v>602</v>
@@ -14333,7 +14330,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B294" t="s">
         <v>125</v>
@@ -14357,7 +14354,7 @@
         <v>604</v>
       </c>
       <c r="I294" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J294" t="s">
         <v>604</v>
@@ -14368,7 +14365,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B295" t="s">
         <v>125</v>
@@ -14403,7 +14400,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B296" t="s">
         <v>125</v>
@@ -14438,7 +14435,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B297" t="s">
         <v>125</v>
@@ -14473,7 +14470,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B298" t="s">
         <v>125</v>
@@ -14508,7 +14505,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B299" t="s">
         <v>125</v>
@@ -14543,7 +14540,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B300" t="s">
         <v>125</v>
@@ -14567,7 +14564,7 @@
         <v>604</v>
       </c>
       <c r="I300" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J300" t="s">
         <v>604</v>
@@ -14578,7 +14575,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B301" t="s">
         <v>125</v>
@@ -14602,7 +14599,7 @@
         <v>604</v>
       </c>
       <c r="I301" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J301" t="s">
         <v>604</v>
@@ -14613,7 +14610,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B302" t="s">
         <v>125</v>
@@ -14637,7 +14634,7 @@
         <v>604</v>
       </c>
       <c r="I302" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J302" t="s">
         <v>604</v>
@@ -14648,7 +14645,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B303" t="s">
         <v>125</v>
@@ -14672,7 +14669,7 @@
         <v>604</v>
       </c>
       <c r="I303" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J303" t="s">
         <v>604</v>
@@ -14683,7 +14680,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B304" t="s">
         <v>125</v>
@@ -14707,7 +14704,7 @@
         <v>604</v>
       </c>
       <c r="I304" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J304" t="s">
         <v>604</v>
@@ -14718,7 +14715,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B305" t="s">
         <v>125</v>
@@ -14753,7 +14750,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B306" t="s">
         <v>125</v>
@@ -14788,7 +14785,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B307" t="s">
         <v>125</v>
@@ -14823,7 +14820,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B308" t="s">
         <v>125</v>
@@ -14858,7 +14855,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B309" t="s">
         <v>125</v>
@@ -14893,7 +14890,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B310" t="s">
         <v>125</v>
@@ -14917,7 +14914,7 @@
         <v>604</v>
       </c>
       <c r="I310" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J310" s="7" t="s">
         <v>604</v>
@@ -14928,7 +14925,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B311" t="s">
         <v>125</v>
@@ -14963,7 +14960,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B312" t="s">
         <v>125</v>
@@ -14998,7 +14995,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B313" t="s">
         <v>125</v>
@@ -15033,7 +15030,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B314" t="s">
         <v>125</v>
@@ -15068,7 +15065,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B315" t="s">
         <v>125</v>
@@ -15103,7 +15100,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B316" t="s">
         <v>131</v>
@@ -15127,7 +15124,7 @@
         <v>600</v>
       </c>
       <c r="I316" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J316" t="s">
         <v>609</v>
@@ -15138,7 +15135,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B317" t="s">
         <v>132</v>
@@ -15162,10 +15159,10 @@
         <v>600</v>
       </c>
       <c r="I317" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J317" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K317" t="s">
         <v>602</v>
@@ -15173,7 +15170,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B318" t="s">
         <v>133</v>
@@ -15197,10 +15194,10 @@
         <v>600</v>
       </c>
       <c r="I318" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="J318" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K318">
         <v>10</v>
@@ -15208,7 +15205,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B319" t="s">
         <v>133</v>
@@ -15232,10 +15229,10 @@
         <v>600</v>
       </c>
       <c r="I319" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J319" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K319" t="s">
         <v>602</v>
@@ -15243,7 +15240,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B320" t="s">
         <v>133</v>
@@ -15267,10 +15264,10 @@
         <v>600</v>
       </c>
       <c r="I320" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="J320" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K320">
         <v>10</v>
@@ -15278,7 +15275,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B321" t="s">
         <v>133</v>
@@ -15302,10 +15299,10 @@
         <v>600</v>
       </c>
       <c r="I321" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="J321" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K321">
         <v>10</v>
@@ -15313,7 +15310,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B322" t="s">
         <v>134</v>
@@ -15348,7 +15345,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="8" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B323" t="s">
         <v>135</v>
@@ -15383,7 +15380,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B324" t="s">
         <v>135</v>
@@ -15418,7 +15415,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B325" t="s">
         <v>135</v>
@@ -15453,7 +15450,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B326" t="s">
         <v>135</v>
@@ -15488,7 +15485,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B327" t="s">
         <v>135</v>
@@ -15512,7 +15509,7 @@
         <v>604</v>
       </c>
       <c r="I327" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J327" t="s">
         <v>604</v>
@@ -15523,7 +15520,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B328" t="s">
         <v>136</v>
@@ -15547,7 +15544,7 @@
         <v>604</v>
       </c>
       <c r="I328" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J328" s="7" t="s">
         <v>604</v>
@@ -15558,7 +15555,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B329" t="s">
         <v>136</v>
@@ -15582,7 +15579,7 @@
         <v>604</v>
       </c>
       <c r="I329" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J329" s="7" t="s">
         <v>604</v>
@@ -15593,7 +15590,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B330" t="s">
         <v>136</v>
@@ -15617,7 +15614,7 @@
         <v>604</v>
       </c>
       <c r="I330" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J330" s="7" t="s">
         <v>604</v>
@@ -15628,7 +15625,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B331" t="s">
         <v>137</v>
@@ -15652,7 +15649,7 @@
         <v>600</v>
       </c>
       <c r="I331" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J331" s="7" t="s">
         <v>608</v>
@@ -15663,7 +15660,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B332" t="s">
         <v>138</v>
@@ -15687,7 +15684,7 @@
         <v>604</v>
       </c>
       <c r="I332" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J332" s="7" t="s">
         <v>604</v>
@@ -15698,7 +15695,7 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B333" t="s">
         <v>138</v>
@@ -15722,7 +15719,7 @@
         <v>600</v>
       </c>
       <c r="I333" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J333" s="7" t="s">
         <v>609</v>
@@ -15733,7 +15730,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B334" t="s">
         <v>139</v>
@@ -15754,13 +15751,13 @@
         <v>599</v>
       </c>
       <c r="H334" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I334" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J334" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K334" s="7" t="s">
         <v>602</v>
@@ -15768,7 +15765,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B335" t="s">
         <v>139</v>
@@ -15789,13 +15786,13 @@
         <v>599</v>
       </c>
       <c r="H335" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I335" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J335" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K335" s="7" t="s">
         <v>602</v>
@@ -15803,7 +15800,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B336" t="s">
         <v>139</v>
@@ -15824,13 +15821,13 @@
         <v>599</v>
       </c>
       <c r="H336" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I336" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J336" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K336" s="7" t="s">
         <v>602</v>
@@ -15838,7 +15835,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B337" t="s">
         <v>140</v>
@@ -15862,7 +15859,7 @@
         <v>600</v>
       </c>
       <c r="I337" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J337" s="7" t="s">
         <v>609</v>
@@ -15873,7 +15870,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B338" t="s">
         <v>141</v>
@@ -15894,13 +15891,13 @@
         <v>599</v>
       </c>
       <c r="H338" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I338" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J338" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K338" s="7" t="s">
         <v>602</v>
@@ -15908,7 +15905,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B339" t="s">
         <v>141</v>
@@ -15932,10 +15929,10 @@
         <v>600</v>
       </c>
       <c r="I339" t="s">
+        <v>619</v>
+      </c>
+      <c r="J339" t="s">
         <v>620</v>
-      </c>
-      <c r="J339" t="s">
-        <v>621</v>
       </c>
       <c r="K339" t="s">
         <v>602</v>
@@ -15943,7 +15940,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B340" t="s">
         <v>142</v>
@@ -15978,7 +15975,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B341" t="s">
         <v>142</v>
@@ -16013,7 +16010,7 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B342" t="s">
         <v>143</v>
@@ -16037,10 +16034,10 @@
         <v>600</v>
       </c>
       <c r="I342" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J342" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K342" t="s">
         <v>602</v>
@@ -16048,7 +16045,7 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B343" t="s">
         <v>143</v>
@@ -16072,10 +16069,10 @@
         <v>600</v>
       </c>
       <c r="I343" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J343" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K343" t="s">
         <v>602</v>
@@ -16083,7 +16080,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B344" t="s">
         <v>143</v>
@@ -16107,10 +16104,10 @@
         <v>600</v>
       </c>
       <c r="I344" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J344" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K344" t="s">
         <v>602</v>
@@ -16118,7 +16115,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B345" t="s">
         <v>143</v>
@@ -16142,10 +16139,10 @@
         <v>600</v>
       </c>
       <c r="I345" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J345" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K345" t="s">
         <v>602</v>
@@ -16153,7 +16150,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B346" t="s">
         <v>143</v>
@@ -16188,7 +16185,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B347" t="s">
         <v>144</v>
@@ -16223,7 +16220,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="8" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B348" t="s">
         <v>144</v>
@@ -16247,10 +16244,10 @@
         <v>600</v>
       </c>
       <c r="I348" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J348" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K348" t="s">
         <v>602</v>
@@ -16258,7 +16255,7 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="8" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B349" t="s">
         <v>144</v>
@@ -16282,10 +16279,10 @@
         <v>600</v>
       </c>
       <c r="I349" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J349" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K349" t="s">
         <v>602</v>
@@ -16293,7 +16290,7 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B350" t="s">
         <v>144</v>
@@ -16328,7 +16325,7 @@
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B351" t="s">
         <v>144</v>
@@ -16363,7 +16360,7 @@
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B352" t="s">
         <v>144</v>
@@ -16398,7 +16395,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B353" t="s">
         <v>144</v>
@@ -16433,7 +16430,7 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B354" t="s">
         <v>144</v>
@@ -16457,10 +16454,10 @@
         <v>600</v>
       </c>
       <c r="I354" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J354" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K354" t="s">
         <v>602</v>
@@ -16468,7 +16465,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B355" t="s">
         <v>145</v>
@@ -16503,7 +16500,7 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B356" t="s">
         <v>146</v>
@@ -16538,7 +16535,7 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B357" t="s">
         <v>147</v>
@@ -16573,7 +16570,7 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B358" t="s">
         <v>148</v>
@@ -16608,7 +16605,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B359" t="s">
         <v>149</v>
@@ -16632,10 +16629,10 @@
         <v>600</v>
       </c>
       <c r="I359" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="J359" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K359">
         <v>10</v>
@@ -16643,7 +16640,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B360" t="s">
         <v>150</v>
@@ -16667,10 +16664,10 @@
         <v>606</v>
       </c>
       <c r="I360" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J360" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K360" t="s">
         <v>602</v>
@@ -16678,7 +16675,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B361" t="s">
         <v>150</v>
@@ -16693,7 +16690,7 @@
         <v>7</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G361" t="s">
         <v>599</v>
@@ -16702,10 +16699,10 @@
         <v>606</v>
       </c>
       <c r="I361" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J361" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K361" t="s">
         <v>602</v>
@@ -16713,7 +16710,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B362" t="s">
         <v>151</v>
@@ -16734,13 +16731,13 @@
         <v>599</v>
       </c>
       <c r="H362" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I362" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J362" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K362" t="s">
         <v>602</v>
@@ -16748,7 +16745,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B363" t="s">
         <v>151</v>
@@ -16783,7 +16780,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B364" t="s">
         <v>151</v>
@@ -16804,13 +16801,13 @@
         <v>599</v>
       </c>
       <c r="H364" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I364" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J364" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K364" t="s">
         <v>602</v>
@@ -16818,7 +16815,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B365" t="s">
         <v>152</v>
@@ -16842,10 +16839,10 @@
         <v>600</v>
       </c>
       <c r="I365" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J365" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K365" t="s">
         <v>602</v>
@@ -16853,7 +16850,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B366" t="s">
         <v>152</v>
@@ -16877,10 +16874,10 @@
         <v>600</v>
       </c>
       <c r="I366" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J366" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K366" t="s">
         <v>602</v>
@@ -16888,7 +16885,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B367" t="s">
         <v>153</v>
@@ -16923,7 +16920,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B368" t="s">
         <v>153</v>
@@ -16958,7 +16955,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B369" t="s">
         <v>154</v>
@@ -16982,10 +16979,10 @@
         <v>600</v>
       </c>
       <c r="I369" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J369" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K369" t="s">
         <v>602</v>
@@ -16993,7 +16990,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B370" t="s">
         <v>154</v>
@@ -17017,10 +17014,10 @@
         <v>600</v>
       </c>
       <c r="I370" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J370" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K370" t="s">
         <v>602</v>
@@ -17028,7 +17025,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B371" t="s">
         <v>155</v>
@@ -17052,10 +17049,10 @@
         <v>600</v>
       </c>
       <c r="I371" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J371" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K371" t="s">
         <v>602</v>
@@ -17063,7 +17060,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B372" t="s">
         <v>155</v>
@@ -17098,7 +17095,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B373" t="s">
         <v>156</v>
@@ -17122,10 +17119,10 @@
         <v>600</v>
       </c>
       <c r="I373" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J373" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K373" t="s">
         <v>602</v>
@@ -17133,7 +17130,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B374" t="s">
         <v>157</v>
@@ -17168,7 +17165,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B375" t="s">
         <v>157</v>
@@ -17203,7 +17200,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B376" t="s">
         <v>157</v>
@@ -17238,7 +17235,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B377" t="s">
         <v>157</v>
@@ -17273,7 +17270,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B378" t="s">
         <v>157</v>
@@ -17308,7 +17305,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B379" t="s">
         <v>157</v>
@@ -17343,7 +17340,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B380" t="s">
         <v>157</v>
@@ -17378,7 +17375,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B381" t="s">
         <v>157</v>
@@ -17413,7 +17410,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B382" t="s">
         <v>158</v>
@@ -17448,7 +17445,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B383" t="s">
         <v>159</v>
@@ -17483,7 +17480,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B384" t="s">
         <v>160</v>
@@ -17518,7 +17515,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B385" t="s">
         <v>160</v>
@@ -17553,7 +17550,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B386" t="s">
         <v>161</v>
@@ -17588,7 +17585,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B387" t="s">
         <v>161</v>
@@ -17603,7 +17600,7 @@
         <v>7</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G387" t="s">
         <v>605</v>
@@ -17612,7 +17609,7 @@
         <v>600</v>
       </c>
       <c r="I387" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J387" t="s">
         <v>609</v>
@@ -17623,7 +17620,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B388" t="s">
         <v>161</v>
@@ -17658,7 +17655,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B389" t="s">
         <v>161</v>
@@ -17693,7 +17690,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B390" t="s">
         <v>161</v>
@@ -17717,10 +17714,10 @@
         <v>600</v>
       </c>
       <c r="I390" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J390" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K390" t="s">
         <v>602</v>
@@ -17728,7 +17725,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B391" t="s">
         <v>162</v>
@@ -17752,10 +17749,10 @@
         <v>606</v>
       </c>
       <c r="I391" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J391" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K391" t="s">
         <v>602</v>
@@ -17763,7 +17760,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B392" t="s">
         <v>162</v>
@@ -17778,7 +17775,7 @@
         <v>7</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G392" t="s">
         <v>599</v>
@@ -17787,10 +17784,10 @@
         <v>606</v>
       </c>
       <c r="I392" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J392" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K392" t="s">
         <v>602</v>
@@ -17798,7 +17795,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B393" t="s">
         <v>162</v>
@@ -17822,7 +17819,7 @@
         <v>600</v>
       </c>
       <c r="I393" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J393" t="s">
         <v>609</v>
@@ -17833,7 +17830,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B394" t="s">
         <v>162</v>
@@ -17857,10 +17854,10 @@
         <v>600</v>
       </c>
       <c r="I394" t="s">
+        <v>619</v>
+      </c>
+      <c r="J394" t="s">
         <v>620</v>
-      </c>
-      <c r="J394" t="s">
-        <v>621</v>
       </c>
       <c r="K394" t="s">
         <v>602</v>
@@ -17868,7 +17865,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B395" t="s">
         <v>163</v>
@@ -17892,7 +17889,7 @@
         <v>604</v>
       </c>
       <c r="I395" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J395" s="7" t="s">
         <v>604</v>
@@ -17903,7 +17900,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B396" t="s">
         <v>163</v>
@@ -17927,7 +17924,7 @@
         <v>604</v>
       </c>
       <c r="I396" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J396" s="7" t="s">
         <v>604</v>
@@ -17938,7 +17935,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B397" t="s">
         <v>163</v>
@@ -17973,7 +17970,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B398" t="s">
         <v>163</v>
@@ -18008,7 +18005,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B399" t="s">
         <v>164</v>
@@ -18032,10 +18029,10 @@
         <v>600</v>
       </c>
       <c r="I399" t="s">
+        <v>619</v>
+      </c>
+      <c r="J399" t="s">
         <v>620</v>
-      </c>
-      <c r="J399" t="s">
-        <v>621</v>
       </c>
       <c r="K399" t="s">
         <v>602</v>
@@ -18043,7 +18040,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B400" t="s">
         <v>164</v>
@@ -18067,10 +18064,10 @@
         <v>600</v>
       </c>
       <c r="I400" t="s">
+        <v>619</v>
+      </c>
+      <c r="J400" t="s">
         <v>620</v>
-      </c>
-      <c r="J400" t="s">
-        <v>621</v>
       </c>
       <c r="K400" t="s">
         <v>602</v>
@@ -18078,7 +18075,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B401" t="s">
         <v>165</v>
@@ -18113,7 +18110,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B402" t="s">
         <v>166</v>
@@ -18148,7 +18145,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B403" t="s">
         <v>166</v>
@@ -18183,7 +18180,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B404" t="s">
         <v>166</v>
@@ -18207,7 +18204,7 @@
         <v>604</v>
       </c>
       <c r="I404" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J404" s="7" t="s">
         <v>604</v>
@@ -18218,7 +18215,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B405" t="s">
         <v>166</v>
@@ -18242,7 +18239,7 @@
         <v>604</v>
       </c>
       <c r="I405" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J405" s="7" t="s">
         <v>604</v>
@@ -18253,7 +18250,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B406" t="s">
         <v>166</v>
@@ -18277,7 +18274,7 @@
         <v>604</v>
       </c>
       <c r="I406" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J406" s="7" t="s">
         <v>604</v>
@@ -18288,7 +18285,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B407" t="s">
         <v>166</v>
@@ -18312,7 +18309,7 @@
         <v>604</v>
       </c>
       <c r="I407" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J407" s="7" t="s">
         <v>604</v>
@@ -18323,7 +18320,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B408" t="s">
         <v>166</v>
@@ -18358,7 +18355,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B409" t="s">
         <v>167</v>
@@ -18382,10 +18379,10 @@
         <v>600</v>
       </c>
       <c r="I409" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J409" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K409" s="7" t="s">
         <v>602</v>
@@ -18393,7 +18390,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B410" t="s">
         <v>168</v>
@@ -18416,11 +18413,11 @@
       <c r="H410" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="I410" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="J410" s="7" t="s">
-        <v>611</v>
+      <c r="I410" t="s">
+        <v>637</v>
+      </c>
+      <c r="J410" t="s">
+        <v>609</v>
       </c>
       <c r="K410">
         <v>10</v>
@@ -18428,7 +18425,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B411" t="s">
         <v>168</v>
@@ -18451,11 +18448,11 @@
       <c r="H411" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="I411" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="J411" s="7" t="s">
-        <v>611</v>
+      <c r="I411" t="s">
+        <v>637</v>
+      </c>
+      <c r="J411" t="s">
+        <v>609</v>
       </c>
       <c r="K411">
         <v>10</v>
@@ -18463,7 +18460,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B412" t="s">
         <v>168</v>
@@ -18486,11 +18483,11 @@
       <c r="H412" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="I412" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="J412" s="7" t="s">
-        <v>611</v>
+      <c r="I412" t="s">
+        <v>637</v>
+      </c>
+      <c r="J412" t="s">
+        <v>609</v>
       </c>
       <c r="K412">
         <v>10</v>
@@ -18498,7 +18495,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B413" t="s">
         <v>169</v>
@@ -18533,7 +18530,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B414" t="s">
         <v>169</v>
@@ -18557,10 +18554,10 @@
         <v>600</v>
       </c>
       <c r="I414" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J414" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K414" t="s">
         <v>602</v>
@@ -18568,7 +18565,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B415" t="s">
         <v>169</v>
@@ -18592,10 +18589,10 @@
         <v>600</v>
       </c>
       <c r="I415" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J415" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K415" t="s">
         <v>602</v>
@@ -18603,7 +18600,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B416" t="s">
         <v>169</v>
@@ -18638,7 +18635,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B417" t="s">
         <v>170</v>
@@ -18662,10 +18659,10 @@
         <v>600</v>
       </c>
       <c r="I417" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J417" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K417" t="s">
         <v>602</v>
@@ -18673,7 +18670,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B418" t="s">
         <v>170</v>
@@ -18697,10 +18694,10 @@
         <v>600</v>
       </c>
       <c r="I418" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J418" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K418" t="s">
         <v>602</v>
@@ -18708,7 +18705,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B419" t="s">
         <v>170</v>
@@ -18732,10 +18729,10 @@
         <v>600</v>
       </c>
       <c r="I419" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J419" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K419" t="s">
         <v>602</v>
@@ -18743,7 +18740,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B420" t="s">
         <v>171</v>
@@ -18767,7 +18764,7 @@
         <v>604</v>
       </c>
       <c r="I420" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J420" t="s">
         <v>604</v>
@@ -18778,7 +18775,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B421" t="s">
         <v>172</v>
@@ -18802,10 +18799,10 @@
         <v>600</v>
       </c>
       <c r="I421" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J421" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K421" t="s">
         <v>602</v>
@@ -18813,7 +18810,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B422" t="s">
         <v>172</v>
@@ -18837,10 +18834,10 @@
         <v>600</v>
       </c>
       <c r="I422" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J422" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K422" t="s">
         <v>602</v>
@@ -18848,7 +18845,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B423" t="s">
         <v>173</v>
@@ -18883,7 +18880,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B424" t="s">
         <v>174</v>
@@ -18907,10 +18904,10 @@
         <v>600</v>
       </c>
       <c r="I424" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J424" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K424" t="s">
         <v>602</v>
@@ -18918,7 +18915,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B425" t="s">
         <v>175</v>
@@ -18942,7 +18939,7 @@
         <v>600</v>
       </c>
       <c r="I425" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J425" t="s">
         <v>609</v>
@@ -18953,7 +18950,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B426" t="s">
         <v>176</v>
@@ -18977,10 +18974,10 @@
         <v>600</v>
       </c>
       <c r="I426" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J426" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K426" t="s">
         <v>602</v>
@@ -18988,7 +18985,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B427" t="s">
         <v>176</v>
@@ -19012,10 +19009,10 @@
         <v>600</v>
       </c>
       <c r="I427" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J427" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K427" t="s">
         <v>602</v>
@@ -19023,7 +19020,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B428" t="s">
         <v>177</v>
@@ -19044,13 +19041,13 @@
         <v>599</v>
       </c>
       <c r="H428" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I428" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J428" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K428" t="s">
         <v>602</v>
@@ -19058,7 +19055,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B429" t="s">
         <v>178</v>
@@ -19093,7 +19090,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B430" t="s">
         <v>179</v>
@@ -19128,7 +19125,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B431" t="s">
         <v>180</v>
@@ -19163,7 +19160,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B432" t="s">
         <v>180</v>
@@ -19187,7 +19184,7 @@
         <v>604</v>
       </c>
       <c r="I432" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J432" t="s">
         <v>604</v>
@@ -19198,7 +19195,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B433" t="s">
         <v>180</v>
@@ -19233,7 +19230,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B434" t="s">
         <v>180</v>
@@ -19257,10 +19254,10 @@
         <v>600</v>
       </c>
       <c r="I434" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J434" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K434" t="s">
         <v>602</v>
@@ -19268,7 +19265,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B435" t="s">
         <v>180</v>
@@ -19292,7 +19289,7 @@
         <v>604</v>
       </c>
       <c r="I435" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J435" s="7" t="s">
         <v>604</v>
@@ -19303,7 +19300,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B436" t="s">
         <v>180</v>
@@ -19327,7 +19324,7 @@
         <v>604</v>
       </c>
       <c r="I436" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J436" s="7" t="s">
         <v>604</v>
@@ -19338,7 +19335,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B437" t="s">
         <v>180</v>
@@ -19362,10 +19359,10 @@
         <v>600</v>
       </c>
       <c r="I437" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J437" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K437" t="s">
         <v>602</v>
@@ -19373,7 +19370,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B438" t="s">
         <v>180</v>
@@ -19397,10 +19394,10 @@
         <v>600</v>
       </c>
       <c r="I438" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J438" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K438" t="s">
         <v>602</v>
@@ -19408,7 +19405,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B439" t="s">
         <v>180</v>
@@ -19443,7 +19440,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B440" t="s">
         <v>180</v>
@@ -19478,7 +19475,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B441" t="s">
         <v>180</v>
@@ -19502,7 +19499,7 @@
         <v>604</v>
       </c>
       <c r="I441" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J441" t="s">
         <v>604</v>
@@ -19513,7 +19510,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B442" t="s">
         <v>181</v>
@@ -19534,13 +19531,13 @@
         <v>599</v>
       </c>
       <c r="H442" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I442" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J442" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K442" t="s">
         <v>602</v>
@@ -19548,7 +19545,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B443" t="s">
         <v>181</v>
@@ -19572,10 +19569,10 @@
         <v>600</v>
       </c>
       <c r="I443" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J443" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K443" t="s">
         <v>602</v>
@@ -19583,7 +19580,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B444" t="s">
         <v>181</v>
@@ -19607,10 +19604,10 @@
         <v>600</v>
       </c>
       <c r="I444" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J444" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K444" t="s">
         <v>602</v>
@@ -19618,7 +19615,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B445" t="s">
         <v>181</v>
@@ -19642,10 +19639,10 @@
         <v>600</v>
       </c>
       <c r="I445" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J445" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K445" t="s">
         <v>602</v>
@@ -19653,7 +19650,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B446" t="s">
         <v>181</v>
@@ -19677,10 +19674,10 @@
         <v>606</v>
       </c>
       <c r="I446" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J446" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K446" t="s">
         <v>602</v>
@@ -19688,7 +19685,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B447" t="s">
         <v>181</v>
@@ -19712,10 +19709,10 @@
         <v>600</v>
       </c>
       <c r="I447" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J447" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K447" t="s">
         <v>602</v>
@@ -19723,7 +19720,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B448" t="s">
         <v>182</v>
@@ -19747,7 +19744,7 @@
         <v>600</v>
       </c>
       <c r="I448" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J448" t="s">
         <v>609</v>
@@ -19758,7 +19755,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B449" t="s">
         <v>182</v>
@@ -19782,7 +19779,7 @@
         <v>600</v>
       </c>
       <c r="I449" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J449" t="s">
         <v>609</v>
@@ -19793,7 +19790,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B450" t="s">
         <v>183</v>
@@ -19828,7 +19825,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B451" t="s">
         <v>183</v>
@@ -19852,10 +19849,10 @@
         <v>600</v>
       </c>
       <c r="I451" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J451" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K451" t="s">
         <v>602</v>
@@ -19863,7 +19860,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B452" t="s">
         <v>184</v>
@@ -19887,10 +19884,10 @@
         <v>606</v>
       </c>
       <c r="I452" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J452" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K452" t="s">
         <v>602</v>
@@ -19898,7 +19895,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B453" t="s">
         <v>185</v>
@@ -19933,7 +19930,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B454" t="s">
         <v>185</v>
@@ -19968,7 +19965,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B455" t="s">
         <v>185</v>
@@ -19992,7 +19989,7 @@
         <v>600</v>
       </c>
       <c r="I455" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J455" t="s">
         <v>609</v>
@@ -20003,7 +20000,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B456" t="s">
         <v>186</v>
@@ -20027,7 +20024,7 @@
         <v>600</v>
       </c>
       <c r="I456" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J456" t="s">
         <v>609</v>
@@ -20038,7 +20035,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B457" t="s">
         <v>186</v>
@@ -20062,7 +20059,7 @@
         <v>600</v>
       </c>
       <c r="I457" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J457" t="s">
         <v>609</v>
@@ -20073,7 +20070,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B458" t="s">
         <v>187</v>
@@ -20094,13 +20091,13 @@
         <v>599</v>
       </c>
       <c r="H458" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I458" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J458" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K458" t="s">
         <v>602</v>
@@ -20108,7 +20105,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B459" t="s">
         <v>187</v>
@@ -20132,10 +20129,10 @@
         <v>606</v>
       </c>
       <c r="I459" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J459" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K459" t="s">
         <v>602</v>
@@ -20143,7 +20140,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B460" t="s">
         <v>187</v>
@@ -20167,10 +20164,10 @@
         <v>606</v>
       </c>
       <c r="I460" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J460" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K460" t="s">
         <v>602</v>
@@ -20178,7 +20175,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B461" t="s">
         <v>187</v>
@@ -20202,10 +20199,10 @@
         <v>600</v>
       </c>
       <c r="I461" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J461" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K461" t="s">
         <v>602</v>
@@ -20213,7 +20210,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B462" t="s">
         <v>188</v>
@@ -20248,7 +20245,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B463" t="s">
         <v>188</v>
@@ -20272,7 +20269,7 @@
         <v>604</v>
       </c>
       <c r="I463" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J463" s="7" t="s">
         <v>604</v>
@@ -20283,7 +20280,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B464" t="s">
         <v>188</v>
@@ -20307,7 +20304,7 @@
         <v>604</v>
       </c>
       <c r="I464" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J464" s="7" t="s">
         <v>604</v>
@@ -20318,7 +20315,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B465" t="s">
         <v>188</v>
@@ -20353,7 +20350,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B466" t="s">
         <v>188</v>
@@ -20377,7 +20374,7 @@
         <v>600</v>
       </c>
       <c r="I466" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J466" t="s">
         <v>609</v>
@@ -20388,7 +20385,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B467" t="s">
         <v>188</v>
@@ -20412,7 +20409,7 @@
         <v>604</v>
       </c>
       <c r="I467" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J467" s="7" t="s">
         <v>604</v>
@@ -20423,7 +20420,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B468" t="s">
         <v>188</v>
@@ -20458,7 +20455,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B469" t="s">
         <v>189</v>
@@ -20473,19 +20470,19 @@
         <v>7</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G469" t="s">
         <v>599</v>
       </c>
       <c r="H469" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I469" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J469" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K469" t="s">
         <v>602</v>
@@ -20493,7 +20490,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B470" t="s">
         <v>189</v>
@@ -20508,19 +20505,19 @@
         <v>7</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G470" t="s">
         <v>599</v>
       </c>
       <c r="H470" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I470" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J470" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K470" t="s">
         <v>602</v>
@@ -20528,7 +20525,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B471" t="s">
         <v>189</v>
@@ -20543,19 +20540,19 @@
         <v>7</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G471" t="s">
         <v>599</v>
       </c>
       <c r="H471" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I471" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J471" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K471" t="s">
         <v>602</v>
@@ -20563,7 +20560,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B472" t="s">
         <v>189</v>
@@ -20578,19 +20575,19 @@
         <v>7</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G472" t="s">
         <v>599</v>
       </c>
       <c r="H472" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I472" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J472" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K472" t="s">
         <v>602</v>
@@ -20598,7 +20595,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B473" t="s">
         <v>189</v>
@@ -20613,19 +20610,19 @@
         <v>7</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G473" t="s">
         <v>599</v>
       </c>
       <c r="H473" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I473" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J473" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K473" t="s">
         <v>602</v>
@@ -20633,7 +20630,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B474" t="s">
         <v>189</v>
@@ -20648,19 +20645,19 @@
         <v>7</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G474" t="s">
         <v>599</v>
       </c>
       <c r="H474" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I474" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J474" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K474" t="s">
         <v>602</v>
@@ -20668,7 +20665,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B475" t="s">
         <v>189</v>
@@ -20683,19 +20680,19 @@
         <v>7</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G475" t="s">
         <v>599</v>
       </c>
       <c r="H475" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I475" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J475" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K475" t="s">
         <v>602</v>
@@ -20703,7 +20700,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B476" t="s">
         <v>189</v>
@@ -20718,19 +20715,19 @@
         <v>7</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G476" t="s">
         <v>599</v>
       </c>
       <c r="H476" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I476" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J476" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K476" t="s">
         <v>602</v>
@@ -20738,7 +20735,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A477" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B477" t="s">
         <v>189</v>
@@ -20773,7 +20770,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B478" t="s">
         <v>189</v>
@@ -20808,7 +20805,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B479" t="s">
         <v>189</v>
@@ -20843,7 +20840,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B480" t="s">
         <v>189</v>
@@ -20858,19 +20855,19 @@
         <v>7</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G480" t="s">
         <v>599</v>
       </c>
       <c r="H480" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I480" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J480" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K480" t="s">
         <v>602</v>
@@ -20878,7 +20875,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A481" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B481" t="s">
         <v>189</v>
@@ -20913,7 +20910,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A482" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B482" t="s">
         <v>189</v>
@@ -20948,7 +20945,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B483" t="s">
         <v>189</v>
@@ -20983,7 +20980,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B484" t="s">
         <v>189</v>
@@ -21018,7 +21015,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B485" t="s">
         <v>189</v>
@@ -21053,7 +21050,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B486" t="s">
         <v>189</v>
@@ -21088,7 +21085,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A487" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B487" t="s">
         <v>189</v>
@@ -21103,19 +21100,19 @@
         <v>7</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G487" t="s">
         <v>599</v>
       </c>
       <c r="H487" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I487" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J487" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K487" t="s">
         <v>602</v>
@@ -21123,7 +21120,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B488" t="s">
         <v>189</v>
@@ -21138,19 +21135,19 @@
         <v>7</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G488" t="s">
         <v>599</v>
       </c>
       <c r="H488" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I488" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J488" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K488" t="s">
         <v>602</v>
@@ -21158,7 +21155,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B489" t="s">
         <v>189</v>
@@ -21173,19 +21170,19 @@
         <v>7</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G489" t="s">
         <v>599</v>
       </c>
       <c r="H489" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I489" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J489" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K489" t="s">
         <v>602</v>
@@ -21193,7 +21190,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B490" t="s">
         <v>189</v>
@@ -21208,19 +21205,19 @@
         <v>7</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G490" t="s">
         <v>599</v>
       </c>
       <c r="H490" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I490" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J490" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K490" t="s">
         <v>602</v>
@@ -21228,7 +21225,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B491" t="s">
         <v>189</v>
@@ -21243,19 +21240,19 @@
         <v>7</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G491" t="s">
         <v>599</v>
       </c>
       <c r="H491" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I491" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J491" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K491" t="s">
         <v>602</v>
@@ -21263,7 +21260,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B492" t="s">
         <v>189</v>
@@ -21278,19 +21275,19 @@
         <v>7</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G492" t="s">
         <v>599</v>
       </c>
       <c r="H492" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I492" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J492" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K492" t="s">
         <v>602</v>
@@ -21298,7 +21295,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B493" t="s">
         <v>189</v>
@@ -21313,19 +21310,19 @@
         <v>7</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G493" t="s">
         <v>599</v>
       </c>
       <c r="H493" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I493" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J493" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K493" t="s">
         <v>602</v>
@@ -21333,7 +21330,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B494" t="s">
         <v>190</v>
@@ -21357,10 +21354,10 @@
         <v>600</v>
       </c>
       <c r="I494" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J494" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K494" t="s">
         <v>602</v>
@@ -21368,7 +21365,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B495" t="s">
         <v>191</v>
@@ -21389,13 +21386,13 @@
         <v>599</v>
       </c>
       <c r="H495" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I495" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J495" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K495" t="s">
         <v>602</v>
@@ -21403,7 +21400,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B496" t="s">
         <v>191</v>
@@ -21424,13 +21421,13 @@
         <v>599</v>
       </c>
       <c r="H496" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I496" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J496" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K496" t="s">
         <v>602</v>
@@ -21438,7 +21435,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B497" t="s">
         <v>191</v>
@@ -21459,13 +21456,13 @@
         <v>599</v>
       </c>
       <c r="H497" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I497" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J497" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K497" t="s">
         <v>602</v>
@@ -21473,7 +21470,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B498" t="s">
         <v>192</v>
@@ -21494,13 +21491,13 @@
         <v>599</v>
       </c>
       <c r="H498" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I498" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J498" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K498" t="s">
         <v>602</v>
@@ -21508,7 +21505,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B499" t="s">
         <v>192</v>
@@ -21543,7 +21540,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B500" t="s">
         <v>192</v>
@@ -21578,7 +21575,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B501" t="s">
         <v>193</v>
@@ -21613,7 +21610,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B502" t="s">
         <v>193</v>
@@ -21637,10 +21634,10 @@
         <v>600</v>
       </c>
       <c r="I502" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J502" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K502" t="s">
         <v>602</v>
@@ -21648,7 +21645,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B503" t="s">
         <v>193</v>
@@ -21672,10 +21669,10 @@
         <v>600</v>
       </c>
       <c r="I503" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J503" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K503" t="s">
         <v>602</v>
@@ -21683,7 +21680,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B504" t="s">
         <v>193</v>
@@ -21707,10 +21704,10 @@
         <v>600</v>
       </c>
       <c r="I504" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J504" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K504" t="s">
         <v>602</v>
@@ -21718,7 +21715,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B505" t="s">
         <v>193</v>
@@ -21742,10 +21739,10 @@
         <v>600</v>
       </c>
       <c r="I505" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J505" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K505" t="s">
         <v>602</v>
@@ -21753,7 +21750,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B506" t="s">
         <v>193</v>
@@ -21777,10 +21774,10 @@
         <v>600</v>
       </c>
       <c r="I506" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J506" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K506" t="s">
         <v>602</v>
@@ -21788,7 +21785,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B507" t="s">
         <v>193</v>
@@ -21812,10 +21809,10 @@
         <v>600</v>
       </c>
       <c r="I507" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J507" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K507" t="s">
         <v>602</v>
@@ -21823,7 +21820,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B508" t="s">
         <v>193</v>
@@ -21847,10 +21844,10 @@
         <v>600</v>
       </c>
       <c r="I508" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J508" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K508" t="s">
         <v>602</v>
@@ -21858,7 +21855,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B509" t="s">
         <v>194</v>
@@ -21882,10 +21879,10 @@
         <v>600</v>
       </c>
       <c r="I509" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J509" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K509" t="s">
         <v>602</v>
@@ -21893,7 +21890,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B510" t="s">
         <v>194</v>
@@ -21917,10 +21914,10 @@
         <v>600</v>
       </c>
       <c r="I510" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J510" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K510" t="s">
         <v>602</v>
@@ -21928,7 +21925,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B511" t="s">
         <v>195</v>
@@ -21952,7 +21949,7 @@
         <v>604</v>
       </c>
       <c r="I511" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J511" s="7" t="s">
         <v>604</v>
@@ -21963,7 +21960,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B512" t="s">
         <v>196</v>
@@ -21984,13 +21981,13 @@
         <v>599</v>
       </c>
       <c r="H512" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I512" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J512" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K512" s="7" t="s">
         <v>602</v>
@@ -21998,7 +21995,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B513" t="s">
         <v>196</v>
@@ -22022,7 +22019,7 @@
         <v>600</v>
       </c>
       <c r="I513" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J513" t="s">
         <v>609</v>
@@ -22033,7 +22030,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B514" t="s">
         <v>196</v>
@@ -22057,7 +22054,7 @@
         <v>600</v>
       </c>
       <c r="I514" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J514" t="s">
         <v>609</v>
@@ -22068,7 +22065,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B515" t="s">
         <v>196</v>
@@ -22092,7 +22089,7 @@
         <v>600</v>
       </c>
       <c r="I515" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J515" t="s">
         <v>609</v>
@@ -22103,7 +22100,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B516" t="s">
         <v>196</v>
@@ -22127,7 +22124,7 @@
         <v>600</v>
       </c>
       <c r="I516" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J516" t="s">
         <v>609</v>
@@ -22138,7 +22135,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B517" t="s">
         <v>197</v>
@@ -22173,7 +22170,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B518" t="s">
         <v>197</v>
@@ -22208,7 +22205,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B519" t="s">
         <v>197</v>
@@ -22243,7 +22240,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B520" t="s">
         <v>198</v>
@@ -22278,7 +22275,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B521" t="s">
         <v>198</v>
@@ -22313,7 +22310,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B522" t="s">
         <v>199</v>
@@ -22334,13 +22331,13 @@
         <v>599</v>
       </c>
       <c r="H522" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I522" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J522" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K522" t="s">
         <v>602</v>
@@ -22348,7 +22345,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A523" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B523" t="s">
         <v>200</v>
@@ -22372,10 +22369,10 @@
         <v>606</v>
       </c>
       <c r="I523" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J523" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K523" t="s">
         <v>602</v>
@@ -22383,7 +22380,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B524" t="s">
         <v>200</v>
@@ -22407,10 +22404,10 @@
         <v>606</v>
       </c>
       <c r="I524" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J524" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K524" t="s">
         <v>602</v>
@@ -22418,7 +22415,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A525" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B525" t="s">
         <v>201</v>
@@ -22442,10 +22439,10 @@
         <v>600</v>
       </c>
       <c r="I525" t="s">
+        <v>619</v>
+      </c>
+      <c r="J525" t="s">
         <v>620</v>
-      </c>
-      <c r="J525" t="s">
-        <v>621</v>
       </c>
       <c r="K525" t="s">
         <v>602</v>
@@ -22453,7 +22450,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B526" t="s">
         <v>202</v>
@@ -22488,7 +22485,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B527" t="s">
         <v>203</v>
@@ -22512,10 +22509,10 @@
         <v>600</v>
       </c>
       <c r="I527" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J527" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K527" t="s">
         <v>602</v>
@@ -22523,7 +22520,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B528" t="s">
         <v>204</v>
@@ -22558,7 +22555,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A529" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B529" t="s">
         <v>205</v>
@@ -22582,10 +22579,10 @@
         <v>600</v>
       </c>
       <c r="I529" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J529" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K529" t="s">
         <v>602</v>
@@ -22593,7 +22590,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A530" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B530" t="s">
         <v>205</v>
@@ -22628,7 +22625,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A531" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B531" t="s">
         <v>205</v>
@@ -22663,7 +22660,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A532" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B532" t="s">
         <v>205</v>
@@ -22698,7 +22695,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A533" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B533" t="s">
         <v>205</v>
@@ -22733,7 +22730,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B534" t="s">
         <v>205</v>
@@ -22757,10 +22754,10 @@
         <v>600</v>
       </c>
       <c r="I534" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J534" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K534" t="s">
         <v>602</v>
@@ -22768,7 +22765,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A535" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B535" t="s">
         <v>206</v>
@@ -22783,7 +22780,7 @@
         <v>7</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G535" t="s">
         <v>605</v>
@@ -22792,10 +22789,10 @@
         <v>600</v>
       </c>
       <c r="I535" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J535" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K535" t="s">
         <v>602</v>
@@ -22803,7 +22800,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B536" t="s">
         <v>207</v>
@@ -22827,10 +22824,10 @@
         <v>606</v>
       </c>
       <c r="I536" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J536" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K536" t="s">
         <v>602</v>
@@ -22838,7 +22835,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A537" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B537" t="s">
         <v>208</v>
@@ -22873,7 +22870,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A538" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B538" t="s">
         <v>209</v>
@@ -22900,7 +22897,7 @@
         <v>347</v>
       </c>
       <c r="J538" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K538" t="s">
         <v>602</v>
@@ -22908,7 +22905,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A539" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B539" t="s">
         <v>209</v>
@@ -22935,7 +22932,7 @@
         <v>347</v>
       </c>
       <c r="J539" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K539" t="s">
         <v>602</v>
@@ -22943,7 +22940,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A540" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B540" t="s">
         <v>209</v>
@@ -22967,10 +22964,10 @@
         <v>606</v>
       </c>
       <c r="I540" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J540" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K540" t="s">
         <v>602</v>
@@ -22978,7 +22975,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A541" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B541" t="s">
         <v>209</v>
@@ -23002,10 +22999,10 @@
         <v>606</v>
       </c>
       <c r="I541" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J541" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K541" t="s">
         <v>602</v>
@@ -23013,7 +23010,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A542" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B542" t="s">
         <v>210</v>
@@ -23037,10 +23034,10 @@
         <v>600</v>
       </c>
       <c r="I542" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J542" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K542" t="s">
         <v>602</v>
@@ -23048,7 +23045,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A543" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B543" t="s">
         <v>210</v>
@@ -23072,10 +23069,10 @@
         <v>600</v>
       </c>
       <c r="I543" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J543" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K543" t="s">
         <v>602</v>
@@ -23083,7 +23080,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A544" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B544" t="s">
         <v>211</v>
@@ -23107,7 +23104,7 @@
         <v>604</v>
       </c>
       <c r="I544" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J544" t="s">
         <v>604</v>
@@ -23118,7 +23115,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A545" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B545" t="s">
         <v>211</v>
@@ -23153,7 +23150,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A546" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B546" t="s">
         <v>211</v>
@@ -23188,7 +23185,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B547" t="s">
         <v>211</v>
@@ -23223,7 +23220,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A548" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B548" t="s">
         <v>211</v>
@@ -23247,10 +23244,10 @@
         <v>600</v>
       </c>
       <c r="I548" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J548" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K548" t="s">
         <v>602</v>
@@ -23258,7 +23255,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A549" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B549" t="s">
         <v>212</v>
@@ -23293,7 +23290,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A550" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B550" t="s">
         <v>212</v>
@@ -23328,7 +23325,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A551" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B551" t="s">
         <v>212</v>
@@ -23352,7 +23349,7 @@
         <v>600</v>
       </c>
       <c r="I551" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J551" t="s">
         <v>609</v>
@@ -23363,7 +23360,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A552" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B552" t="s">
         <v>212</v>
@@ -23387,7 +23384,7 @@
         <v>600</v>
       </c>
       <c r="I552" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J552" t="s">
         <v>609</v>
@@ -23398,7 +23395,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A553" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B553" t="s">
         <v>212</v>
@@ -23433,7 +23430,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A554" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B554" t="s">
         <v>212</v>
@@ -23468,7 +23465,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A555" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B555" t="s">
         <v>212</v>
@@ -23503,7 +23500,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A556" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B556" t="s">
         <v>212</v>
@@ -23527,7 +23524,7 @@
         <v>600</v>
       </c>
       <c r="I556" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J556" t="s">
         <v>609</v>
@@ -23538,7 +23535,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A557" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B557" t="s">
         <v>212</v>
@@ -23562,7 +23559,7 @@
         <v>600</v>
       </c>
       <c r="I557" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J557" t="s">
         <v>609</v>
@@ -23573,7 +23570,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A558" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B558" t="s">
         <v>213</v>
@@ -23597,7 +23594,7 @@
         <v>604</v>
       </c>
       <c r="I558" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J558" t="s">
         <v>604</v>
@@ -23608,7 +23605,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A559" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B559" t="s">
         <v>213</v>
@@ -23632,7 +23629,7 @@
         <v>604</v>
       </c>
       <c r="I559" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J559" t="s">
         <v>604</v>
@@ -23643,7 +23640,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A560" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B560" t="s">
         <v>214</v>
@@ -23667,10 +23664,10 @@
         <v>600</v>
       </c>
       <c r="I560" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J560" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K560" t="s">
         <v>602</v>
@@ -23678,7 +23675,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A561" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B561" t="s">
         <v>214</v>
@@ -23699,13 +23696,13 @@
         <v>599</v>
       </c>
       <c r="H561" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I561" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J561" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K561" t="s">
         <v>602</v>
@@ -23713,7 +23710,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A562" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B562" t="s">
         <v>214</v>
@@ -23734,13 +23731,13 @@
         <v>599</v>
       </c>
       <c r="H562" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I562" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J562" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K562" t="s">
         <v>602</v>
@@ -23748,7 +23745,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A563" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B563" t="s">
         <v>214</v>
@@ -23769,13 +23766,13 @@
         <v>599</v>
       </c>
       <c r="H563" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I563" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J563" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K563" t="s">
         <v>602</v>
@@ -23783,7 +23780,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A564" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B564" t="s">
         <v>214</v>
@@ -23804,13 +23801,13 @@
         <v>599</v>
       </c>
       <c r="H564" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I564" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J564" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K564" t="s">
         <v>602</v>
@@ -23818,7 +23815,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A565" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B565" t="s">
         <v>215</v>
@@ -23842,10 +23839,10 @@
         <v>600</v>
       </c>
       <c r="I565" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J565" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K565" t="s">
         <v>602</v>

--- a/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/acs_nano/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/acs_nano/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715126AA-F5B3-D244-B42F-3CB21C3273EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7B55D6-B4C7-8D4A-858E-51750C2B2218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="740" windowWidth="14300" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8920" yWindow="24200" windowWidth="14300" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4051,8 +4051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="125" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4399,7 +4399,7 @@
         <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="H10" t="s">
         <v>602</v>
